--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7999999999999829</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571371</v>
+      </c>
       <c r="L12" t="n">
         <v>67.45999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>40.00000000000057</v>
+      </c>
       <c r="L13" t="n">
         <v>67.48999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>40.00000000000057</v>
+      </c>
       <c r="L14" t="n">
         <v>67.52999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.2727272727268</v>
+      </c>
       <c r="L15" t="n">
         <v>67.55999999999997</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>52.94117647058803</v>
+      </c>
       <c r="L16" t="n">
         <v>67.64999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>72.72727272727191</v>
+      </c>
       <c r="L17" t="n">
         <v>67.79999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.5</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>71.42857142857065</v>
+      </c>
       <c r="L18" t="n">
         <v>67.95999999999998</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>89.99999999999922</v>
+      </c>
       <c r="L19" t="n">
         <v>68.11999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.900000000000006</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>91.30434782608631</v>
+      </c>
       <c r="L20" t="n">
         <v>68.32999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>90.90909090909021</v>
+      </c>
       <c r="L21" t="n">
         <v>68.54999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.599999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>91.66666666666598</v>
+      </c>
       <c r="L22" t="n">
         <v>68.80999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
+        <v>58.62068965517191</v>
       </c>
       <c r="L23" t="n">
         <v>68.97999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>4.799999999999983</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43478260869582</v>
+        <v>31.4285714285718</v>
       </c>
       <c r="L24" t="n">
         <v>69.08</v>
@@ -1515,7 +1537,7 @@
         <v>4.799999999999983</v>
       </c>
       <c r="K25" t="n">
-        <v>30.43478260869582</v>
+        <v>17.24137931034496</v>
       </c>
       <c r="L25" t="n">
         <v>69.19</v>
@@ -1564,7 +1586,7 @@
         <v>4.899999999999977</v>
       </c>
       <c r="K26" t="n">
-        <v>31.91489361702136</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>69.25</v>
@@ -1613,7 +1635,7 @@
         <v>5.09999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>34.69387755102053</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L27" t="n">
         <v>69.27000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>5.199999999999989</v>
       </c>
       <c r="K28" t="n">
-        <v>34.69387755102014</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>69.28</v>
@@ -1711,7 +1733,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>35.99999999999984</v>
+        <v>-4.000000000000363</v>
       </c>
       <c r="L29" t="n">
         <v>69.3</v>
@@ -1760,7 +1782,7 @@
         <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>42.85714285714285</v>
+        <v>-3.999999999999773</v>
       </c>
       <c r="L30" t="n">
         <v>69.3</v>
@@ -1809,7 +1831,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>39.99999999999977</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L31" t="n">
         <v>69.28</v>
@@ -1860,7 +1882,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K32" t="n">
-        <v>37.49999999999974</v>
+        <v>-19.99999999999962</v>
       </c>
       <c r="L32" t="n">
         <v>69.19999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K33" t="n">
-        <v>31.81818181818148</v>
+        <v>49.99999999999734</v>
       </c>
       <c r="L33" t="n">
         <v>69.16999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>28.88888888888874</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L34" t="n">
         <v>69.19999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>31.81818181818191</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L35" t="n">
         <v>69.22999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>21.05263157894731</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>69.25</v>
@@ -2115,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.857142857142695</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L37" t="n">
         <v>69.22</v>
@@ -2166,7 +2188,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L38" t="n">
         <v>69.20999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.108108108108025</v>
+        <v>-75.00000000000134</v>
       </c>
       <c r="L39" t="n">
         <v>69.16</v>
@@ -2268,7 +2290,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K40" t="n">
-        <v>-20.00000000000016</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L40" t="n">
         <v>69.09</v>
@@ -2319,7 +2341,7 @@
         <v>6.499999999999986</v>
       </c>
       <c r="K41" t="n">
-        <v>-20.00000000000016</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L41" t="n">
         <v>69.03999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>6.599999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.99999999999962</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L42" t="n">
         <v>69</v>
@@ -2421,7 +2443,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.07692307692291</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L43" t="n">
         <v>68.97</v>
@@ -2472,7 +2494,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.761904761905149</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L44" t="n">
         <v>68.92999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.761904761905149</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L45" t="n">
         <v>68.88999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.00000000000007</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L46" t="n">
         <v>68.84999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.78947368421021</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L47" t="n">
         <v>68.84999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.78947368421021</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>68.82999999999997</v>
@@ -2727,7 +2749,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.00000000000007</v>
+        <v>39.99999999999858</v>
       </c>
       <c r="L49" t="n">
         <v>68.85999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.78947368421108</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L50" t="n">
         <v>68.89999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>-23.80952380952387</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L51" t="n">
         <v>68.89999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>-27.27272727272715</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L52" t="n">
         <v>68.87999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-27.27272727272715</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L53" t="n">
         <v>68.84999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K54" t="n">
-        <v>-18.18181818181854</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>68.84999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>8.199999999999989</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.000000000000363</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L55" t="n">
         <v>68.88</v>
@@ -3084,7 +3106,7 @@
         <v>8.59999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>-17.24137931034496</v>
+        <v>-12.50000000000033</v>
       </c>
       <c r="L56" t="n">
         <v>68.87</v>
@@ -3135,7 +3157,7 @@
         <v>8.999999999999972</v>
       </c>
       <c r="K57" t="n">
-        <v>6.666666666666352</v>
+        <v>15.78947368421068</v>
       </c>
       <c r="L57" t="n">
         <v>68.89000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>9.299999999999969</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.250000000000139</v>
+        <v>-15.78947368421068</v>
       </c>
       <c r="L58" t="n">
         <v>68.89000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>9.399999999999963</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.225806451612755</v>
+        <v>-20</v>
       </c>
       <c r="L59" t="n">
         <v>68.85000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>9.499999999999972</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.225806451613199</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L60" t="n">
         <v>68.80000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>9.999999999999972</v>
       </c>
       <c r="K61" t="n">
-        <v>8.571428571428525</v>
+        <v>18.18181818181801</v>
       </c>
       <c r="L61" t="n">
         <v>68.83000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K62" t="n">
-        <v>11.11111111111093</v>
+        <v>25</v>
       </c>
       <c r="L62" t="n">
         <v>68.89000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K63" t="n">
-        <v>8.571428571428525</v>
+        <v>21.73913043478277</v>
       </c>
       <c r="L63" t="n">
         <v>68.95</v>
@@ -3492,7 +3514,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L64" t="n">
         <v>68.95</v>
@@ -3543,7 +3565,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.000000000000089</v>
+        <v>-4.347826086956898</v>
       </c>
       <c r="L65" t="n">
         <v>68.90000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.000000000000089</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L66" t="n">
         <v>68.89</v>
@@ -3645,7 +3667,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.692307692308028</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L67" t="n">
         <v>68.84</v>
@@ -3696,7 +3718,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.263157894736961</v>
+        <v>-6.666666666667171</v>
       </c>
       <c r="L68" t="n">
         <v>68.82000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.2857142857144</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>68.81</v>
@@ -3798,7 +3820,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.2857142857144</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L70" t="n">
         <v>68.81</v>
@@ -3849,7 +3871,7 @@
         <v>11.49999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>-21.05263157894747</v>
+        <v>-100</v>
       </c>
       <c r="L71" t="n">
         <v>68.7</v>
@@ -3900,7 +3922,7 @@
         <v>11.49999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>-18.91891891891913</v>
+        <v>-100</v>
       </c>
       <c r="L72" t="n">
         <v>68.57000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>-25.00000000000018</v>
+        <v>-100</v>
       </c>
       <c r="L73" t="n">
         <v>68.41000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>12.49999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>-39.1304347826088</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>68.23000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>12.49999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-48.83720930232564</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>68.07000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>12.49999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-43.58974358974375</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>67.91000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>12.49999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>-59.99999999999984</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>67.75000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>-51.51515151515164</v>
+        <v>-88.23529411764764</v>
       </c>
       <c r="L78" t="n">
         <v>67.60000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>12.79999999999995</v>
       </c>
       <c r="K79" t="n">
-        <v>-52.94117647058828</v>
+        <v>-89.47368421052678</v>
       </c>
       <c r="L79" t="n">
         <v>67.43000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>-52.94117647058828</v>
+        <v>-85.71428571428645</v>
       </c>
       <c r="L80" t="n">
         <v>67.25</v>
@@ -4359,7 +4381,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>-80.0000000000001</v>
+        <v>-86.6666666666673</v>
       </c>
       <c r="L81" t="n">
         <v>67.12</v>
@@ -4410,7 +4432,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>-92.85714285714322</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L82" t="n">
         <v>66.99000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>-92.85714285714322</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L83" t="n">
         <v>66.89000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>-91.30434782608738</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L84" t="n">
         <v>66.86000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>13.19999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>-73.91304347826092</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L85" t="n">
         <v>66.85000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>13.39999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>-76.00000000000009</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>66.82000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>13.39999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>-76.00000000000009</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L87" t="n">
         <v>66.79000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>-76.92307692307709</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L88" t="n">
         <v>66.74000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>-76.92307692307709</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>66.71000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>-76.92307692307709</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L90" t="n">
         <v>66.69000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>13.69999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-72.72727272727283</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L91" t="n">
         <v>66.66000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>13.89999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>-75.00000000000014</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L92" t="n">
         <v>66.61000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>13.89999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-71.42857142857162</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L93" t="n">
         <v>66.56000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>13.99999999999997</v>
       </c>
       <c r="K94" t="n">
-        <v>-60.00000000000038</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>66.50000000000003</v>
@@ -5073,7 +5095,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>-62.50000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>66.41000000000003</v>
@@ -5124,7 +5146,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>-62.50000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>66.34000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>-62.50000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>66.27000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>-73.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L98" t="n">
         <v>66.21000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>-69.23076923076906</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>66.15000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>-76.47058823529382</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>66.04000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>-55.5555555555552</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L103" t="n">
         <v>65.87000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>14.89999999999996</v>
       </c>
       <c r="K104" t="n">
-        <v>-47.36842105263174</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L104" t="n">
         <v>65.84</v>
@@ -5583,7 +5605,7 @@
         <v>15.19999999999996</v>
       </c>
       <c r="K105" t="n">
-        <v>-40.00000000000057</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L105" t="n">
         <v>65.85000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>15.89999999999996</v>
       </c>
       <c r="K106" t="n">
-        <v>3.999999999999773</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L106" t="n">
         <v>65.93000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>15.99999999999996</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L107" t="n">
         <v>66.00000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>16.09999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>7.69230769230786</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L108" t="n">
         <v>66.08000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>16.19999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111158</v>
+        <v>87.50000000000067</v>
       </c>
       <c r="L109" t="n">
         <v>66.17</v>
@@ -5838,7 +5860,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>7.142857142857252</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L110" t="n">
         <v>66.3</v>
@@ -5889,7 +5911,7 @@
         <v>16.59999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>3.448275862068763</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L111" t="n">
         <v>66.38</v>
@@ -5940,7 +5962,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L112" t="n">
         <v>66.42999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>16.99999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-3.225806451613169</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L113" t="n">
         <v>66.47</v>
@@ -6042,7 +6064,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>6.250000000000083</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L114" t="n">
         <v>66.52</v>
@@ -6093,7 +6115,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>12.50000000000011</v>
+        <v>-28.57142857142755</v>
       </c>
       <c r="L115" t="n">
         <v>66.54999999999998</v>
@@ -6144,7 +6166,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>22.22222222222209</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L116" t="n">
         <v>66.54999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K117" t="n">
-        <v>22.22222222222209</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>66.55999999999997</v>
@@ -6246,7 +6268,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>29.99999999999996</v>
+        <v>15.78947368421021</v>
       </c>
       <c r="L118" t="n">
         <v>66.59999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>29.99999999999996</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L119" t="n">
         <v>66.63</v>
@@ -6348,7 +6370,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>49.9999999999998</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L120" t="n">
         <v>66.67999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>18.49999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>51.35135135135108</v>
+        <v>87.49999999999901</v>
       </c>
       <c r="L121" t="n">
         <v>66.78999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>52.63157894736826</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>66.94</v>
@@ -6501,7 +6523,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>41.46341463414632</v>
+        <v>64.70588235294157</v>
       </c>
       <c r="L123" t="n">
         <v>67.06999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>19.29999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>45.4545454545454</v>
+        <v>70.00000000000007</v>
       </c>
       <c r="L124" t="n">
         <v>67.22</v>
@@ -6603,7 +6625,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>42.85714285714295</v>
+        <v>64.70588235294157</v>
       </c>
       <c r="L125" t="n">
         <v>67.36999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>19.79999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>17.94871794871793</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>67.44</v>
@@ -6705,7 +6727,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>17.94871794871793</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L127" t="n">
         <v>67.5</v>
@@ -6756,7 +6778,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>15.78947368421064</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L128" t="n">
         <v>67.52</v>
@@ -6807,7 +6829,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>17.94871794871763</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L129" t="n">
         <v>67.55999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>41.17647058823539</v>
+        <v>44.82758620689686</v>
       </c>
       <c r="L130" t="n">
         <v>67.72</v>
@@ -6909,7 +6931,7 @@
         <v>21.59999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>43.99999999999994</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>67.83</v>
@@ -6960,7 +6982,7 @@
         <v>21.79999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>46.93877551020383</v>
+        <v>37.93103448275835</v>
       </c>
       <c r="L132" t="n">
         <v>67.91</v>
@@ -7011,7 +7033,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>52.9411764705882</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L133" t="n">
         <v>68.04999999999998</v>
@@ -7062,7 +7084,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>51.02040816326525</v>
+        <v>33.33333333333298</v>
       </c>
       <c r="L134" t="n">
         <v>68.14999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>49.99999999999985</v>
+        <v>56.52173913043473</v>
       </c>
       <c r="L135" t="n">
         <v>68.23999999999998</v>
@@ -7164,7 +7186,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>45.4545454545454</v>
+        <v>63.63636363636317</v>
       </c>
       <c r="L136" t="n">
         <v>68.36999999999998</v>
@@ -7215,7 +7237,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>28.00000000000011</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L137" t="n">
         <v>68.44999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>23.40425531914887</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L138" t="n">
         <v>68.53999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>22.99999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>26.53061224489795</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L139" t="n">
         <v>68.62999999999998</v>
@@ -7368,7 +7390,7 @@
         <v>23.39999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>15.38461538461532</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L140" t="n">
         <v>68.54999999999998</v>
@@ -7419,7 +7441,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>8.000000000000114</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L141" t="n">
         <v>68.47999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>6.122448979591789</v>
+        <v>-57.14285714285728</v>
       </c>
       <c r="L142" t="n">
         <v>68.42999999999998</v>
@@ -7521,7 +7543,7 @@
         <v>23.59999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>14.89361702127639</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L143" t="n">
         <v>68.35999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>25.19999999999996</v>
       </c>
       <c r="K144" t="n">
-        <v>-22.03389830508473</v>
+        <v>-74.19354838709717</v>
       </c>
       <c r="L144" t="n">
         <v>68.13</v>
@@ -7623,7 +7645,7 @@
         <v>26.79999999999995</v>
       </c>
       <c r="K145" t="n">
-        <v>2.702702702702557</v>
+        <v>-14.89361702127674</v>
       </c>
       <c r="L145" t="n">
         <v>68.06</v>
@@ -7674,7 +7696,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K146" t="n">
-        <v>11.11111111111111</v>
+        <v>2.325581395348714</v>
       </c>
       <c r="L146" t="n">
         <v>68.01000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>27.49999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>18.42105263157888</v>
+        <v>10.63829787234045</v>
       </c>
       <c r="L147" t="n">
         <v>68.06999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>27.59999999999995</v>
       </c>
       <c r="K148" t="n">
-        <v>16.8831168831169</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L148" t="n">
         <v>68.11</v>
@@ -7827,7 +7849,7 @@
         <v>27.69999999999996</v>
       </c>
       <c r="K149" t="n">
-        <v>13.15789473684212</v>
+        <v>11.62790697674423</v>
       </c>
       <c r="L149" t="n">
         <v>68.12</v>
@@ -7878,7 +7900,7 @@
         <v>28.09999999999995</v>
       </c>
       <c r="K150" t="n">
-        <v>-10.44776119402993</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L150" t="n">
         <v>68.13000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>28.09999999999995</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.692307692307726</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L151" t="n">
         <v>68.15000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>28.59999999999995</v>
       </c>
       <c r="K152" t="n">
-        <v>2.941176470588291</v>
+        <v>12.0000000000002</v>
       </c>
       <c r="L152" t="n">
         <v>68.22000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>65.71428571428591</v>
       </c>
       <c r="L153" t="n">
         <v>68.29000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L154" t="n">
         <v>68.52000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L155" t="n">
         <v>68.59</v>
@@ -8235,7 +8257,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K157" t="n">
-        <v>9.999999999999952</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L157" t="n">
         <v>68.64</v>
@@ -8286,7 +8308,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K158" t="n">
-        <v>8.474576271186473</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L158" t="n">
         <v>68.64999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>28.99999999999994</v>
       </c>
       <c r="K159" t="n">
-        <v>9.999999999999952</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>68.69999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>29.09999999999994</v>
       </c>
       <c r="K160" t="n">
-        <v>15.78947368421074</v>
+        <v>80.00000000000085</v>
       </c>
       <c r="L160" t="n">
         <v>68.77999999999999</v>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.09999999999999432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.1999999999999886</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.1999999999999886</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.1999999999999886</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.1999999999999886</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2999999999999829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.3999999999999773</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5999999999999801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5999999999999801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +806,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.7999999999999829</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-14.28571428571371</v>
-      </c>
-      <c r="L12" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="K13" t="n">
-        <v>40.00000000000057</v>
-      </c>
-      <c r="L13" t="n">
-        <v>67.48999999999998</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="K14" t="n">
-        <v>40.00000000000057</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67.52999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K15" t="n">
-        <v>27.2727272727268</v>
-      </c>
-      <c r="L15" t="n">
-        <v>67.55999999999997</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="K16" t="n">
-        <v>52.94117647058803</v>
-      </c>
-      <c r="L16" t="n">
-        <v>67.64999999999998</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>72.72727272727191</v>
-      </c>
-      <c r="L17" t="n">
-        <v>67.79999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>71.42857142857065</v>
-      </c>
-      <c r="L18" t="n">
-        <v>67.95999999999998</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="K19" t="n">
-        <v>89.99999999999922</v>
-      </c>
-      <c r="L19" t="n">
-        <v>68.11999999999998</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="K20" t="n">
-        <v>91.30434782608631</v>
-      </c>
-      <c r="L20" t="n">
-        <v>68.32999999999998</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>90.90909090909021</v>
-      </c>
-      <c r="L21" t="n">
-        <v>68.54999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>68.005</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="K22" t="n">
-        <v>91.66666666666598</v>
-      </c>
-      <c r="L22" t="n">
-        <v>68.80999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>68.13499999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.099999999999994</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="K23" t="n">
-        <v>58.62068965517191</v>
-      </c>
-      <c r="L23" t="n">
-        <v>68.97999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>68.23499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.799999999999983</v>
-      </c>
-      <c r="K24" t="n">
-        <v>31.4285714285718</v>
-      </c>
-      <c r="L24" t="n">
-        <v>69.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>68.30499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.799999999999983</v>
-      </c>
-      <c r="K25" t="n">
-        <v>17.24137931034496</v>
-      </c>
-      <c r="L25" t="n">
-        <v>69.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>68.375</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.899999999999977</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>69.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>68.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.09999999999998</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.69230769230786</v>
-      </c>
-      <c r="L27" t="n">
-        <v>69.27000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>68.535</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.199999999999989</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>69.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>68.61999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.399999999999991</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-4.000000000000363</v>
-      </c>
-      <c r="L29" t="n">
-        <v>69.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>68.70999999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-3.999999999999773</v>
-      </c>
-      <c r="L30" t="n">
-        <v>69.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>68.815</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-39.99999999999957</v>
-      </c>
-      <c r="L31" t="n">
-        <v>69.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>68.91499999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-19.99999999999962</v>
-      </c>
-      <c r="L32" t="n">
-        <v>69.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>69.005</v>
-      </c>
-      <c r="N32" t="n">
-        <v>68.49000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K33" t="n">
-        <v>49.99999999999734</v>
-      </c>
-      <c r="L33" t="n">
-        <v>69.16999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>69.07499999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>68.54666666666668</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K34" t="n">
-        <v>33.33333333333228</v>
-      </c>
-      <c r="L34" t="n">
-        <v>69.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>69.13999999999999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>68.60333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K35" t="n">
-        <v>24.99999999999956</v>
-      </c>
-      <c r="L35" t="n">
-        <v>69.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>69.20999999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>68.66000000000001</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>69.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>69.24999999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>68.71666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-24.99999999999822</v>
-      </c>
-      <c r="L37" t="n">
-        <v>69.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>69.24499999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>68.76333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L38" t="n">
-        <v>69.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>69.24499999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>68.81666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.299999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-75.00000000000134</v>
-      </c>
-      <c r="L39" t="n">
-        <v>69.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>69.22999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>68.86</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6.399999999999991</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-75.00000000000088</v>
-      </c>
-      <c r="L40" t="n">
-        <v>69.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>69.19499999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>68.90666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6.499999999999986</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-55.55555555555696</v>
-      </c>
-      <c r="L41" t="n">
-        <v>69.03999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="N41" t="n">
-        <v>68.95666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.599999999999994</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-39.99999999999972</v>
-      </c>
-      <c r="L42" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>69.00333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.699999999999989</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-20.00000000000057</v>
-      </c>
-      <c r="L43" t="n">
-        <v>68.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>69.07000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>69.03999999999999</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.899999999999991</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L44" t="n">
-        <v>68.92999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>69.065</v>
-      </c>
-      <c r="N44" t="n">
-        <v>69.06999999999999</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.899999999999991</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L45" t="n">
-        <v>68.88999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>69.05999999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>69.10333333333332</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6.899999999999991</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-11.11111111111216</v>
-      </c>
-      <c r="L46" t="n">
-        <v>68.84999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>69.04999999999998</v>
-      </c>
-      <c r="N46" t="n">
-        <v>69.11666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J47" t="n">
-        <v>7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L47" t="n">
-        <v>68.84999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>69.035</v>
-      </c>
-      <c r="N47" t="n">
-        <v>69.11333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J48" t="n">
-        <v>7.100000000000009</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>68.82999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="N48" t="n">
-        <v>69.10666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7.400000000000006</v>
-      </c>
-      <c r="K49" t="n">
-        <v>39.99999999999858</v>
-      </c>
-      <c r="L49" t="n">
-        <v>68.85999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>69.00999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>69.10666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7.400000000000006</v>
-      </c>
-      <c r="K50" t="n">
-        <v>33.33333333333228</v>
-      </c>
-      <c r="L50" t="n">
-        <v>68.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>68.99499999999998</v>
-      </c>
-      <c r="N50" t="n">
-        <v>69.09666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7.700000000000003</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-9.090909090909797</v>
-      </c>
-      <c r="L51" t="n">
-        <v>68.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>68.96999999999998</v>
-      </c>
-      <c r="N51" t="n">
-        <v>69.07333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7.799999999999997</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-27.2727272727268</v>
-      </c>
-      <c r="L52" t="n">
-        <v>68.87999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>68.93999999999998</v>
-      </c>
-      <c r="N52" t="n">
-        <v>69.02666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7.799999999999997</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L53" t="n">
-        <v>68.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>68.91</v>
-      </c>
-      <c r="N53" t="n">
-        <v>68.99666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>68.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>68.88999999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>68.99333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.199999999999989</v>
-      </c>
-      <c r="K55" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L55" t="n">
-        <v>68.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>68.88499999999998</v>
-      </c>
-      <c r="N55" t="n">
-        <v>69</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J56" t="n">
-        <v>8.59999999999998</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-12.50000000000033</v>
-      </c>
-      <c r="L56" t="n">
-        <v>68.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>68.85999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J57" t="n">
-        <v>8.999999999999972</v>
-      </c>
-      <c r="K57" t="n">
-        <v>15.78947368421068</v>
-      </c>
-      <c r="L57" t="n">
-        <v>68.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>68.86999999999998</v>
-      </c>
-      <c r="N57" t="n">
-        <v>68.98666666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J58" t="n">
-        <v>9.299999999999969</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-15.78947368421068</v>
-      </c>
-      <c r="L58" t="n">
-        <v>68.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>68.85999999999997</v>
-      </c>
-      <c r="N58" t="n">
-        <v>68.97666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J59" t="n">
-        <v>9.399999999999963</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L59" t="n">
-        <v>68.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>68.85499999999998</v>
-      </c>
-      <c r="N59" t="n">
-        <v>68.95666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9.499999999999972</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-11.11111111111146</v>
-      </c>
-      <c r="L60" t="n">
-        <v>68.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>68.84999999999997</v>
-      </c>
-      <c r="N60" t="n">
-        <v>68.92999999999999</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.999999999999972</v>
-      </c>
-      <c r="K61" t="n">
-        <v>18.18181818181801</v>
-      </c>
-      <c r="L61" t="n">
-        <v>68.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>68.86499999999997</v>
-      </c>
-      <c r="N61" t="n">
-        <v>68.92333333333332</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J62" t="n">
-        <v>10.19999999999997</v>
-      </c>
-      <c r="K62" t="n">
-        <v>25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>68.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>68.88499999999996</v>
-      </c>
-      <c r="N62" t="n">
-        <v>68.92333333333332</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10.19999999999997</v>
-      </c>
-      <c r="K63" t="n">
-        <v>21.73913043478277</v>
-      </c>
-      <c r="L63" t="n">
-        <v>68.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>68.89999999999995</v>
-      </c>
-      <c r="N63" t="n">
-        <v>68.92333333333332</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10.69999999999997</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-11.99999999999996</v>
-      </c>
-      <c r="L64" t="n">
-        <v>68.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>68.89999999999995</v>
-      </c>
-      <c r="N64" t="n">
-        <v>68.91</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-4.347826086956898</v>
-      </c>
-      <c r="L65" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>68.88999999999996</v>
-      </c>
-      <c r="N65" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L66" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>68.87999999999995</v>
-      </c>
-      <c r="N66" t="n">
-        <v>68.86999999999999</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-12.50000000000011</v>
-      </c>
-      <c r="L67" t="n">
-        <v>68.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>68.86499999999994</v>
-      </c>
-      <c r="N67" t="n">
-        <v>68.85999999999999</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-6.666666666667171</v>
-      </c>
-      <c r="L68" t="n">
-        <v>68.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>68.85499999999993</v>
-      </c>
-      <c r="N68" t="n">
-        <v>68.84666666666665</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>68.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>68.82999999999994</v>
-      </c>
-      <c r="N69" t="n">
-        <v>68.83999999999997</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L70" t="n">
-        <v>68.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>68.80499999999994</v>
-      </c>
-      <c r="N70" t="n">
-        <v>68.83666666666664</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.49999999999997</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>68.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>68.76499999999994</v>
-      </c>
-      <c r="N71" t="n">
-        <v>68.80999999999997</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11.49999999999997</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>68.57000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>68.72999999999993</v>
-      </c>
-      <c r="N72" t="n">
-        <v>68.77999999999997</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.79999999999997</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>68.41000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>68.67999999999994</v>
-      </c>
-      <c r="N73" t="n">
-        <v>68.73666666666664</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12.49999999999997</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>68.23000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>68.58999999999995</v>
-      </c>
-      <c r="N74" t="n">
-        <v>68.67666666666663</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>12.49999999999997</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>68.07000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>68.48499999999994</v>
-      </c>
-      <c r="N75" t="n">
-        <v>68.61666666666662</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>12.49999999999997</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>67.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>68.39999999999995</v>
-      </c>
-      <c r="N76" t="n">
-        <v>68.55666666666662</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12.49999999999997</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>67.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>68.29499999999994</v>
-      </c>
-      <c r="N77" t="n">
-        <v>68.49333333333328</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.4000000000000057</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12.59999999999997</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-88.23529411764764</v>
-      </c>
-      <c r="L78" t="n">
-        <v>67.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>68.20999999999995</v>
-      </c>
-      <c r="N78" t="n">
-        <v>68.4366666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.79999999999995</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-89.47368421052678</v>
-      </c>
-      <c r="L79" t="n">
-        <v>67.43000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>68.11999999999995</v>
-      </c>
-      <c r="N79" t="n">
-        <v>68.36333333333327</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12.89999999999996</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-85.71428571428645</v>
-      </c>
-      <c r="L80" t="n">
-        <v>67.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>68.02999999999994</v>
-      </c>
-      <c r="N80" t="n">
-        <v>68.28666666666662</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12.99999999999996</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-86.6666666666673</v>
-      </c>
-      <c r="L81" t="n">
-        <v>67.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>67.90999999999995</v>
-      </c>
-      <c r="N81" t="n">
-        <v>68.21666666666661</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12.99999999999996</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L82" t="n">
-        <v>66.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>67.77999999999996</v>
-      </c>
-      <c r="N82" t="n">
-        <v>68.14999999999995</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12.99999999999996</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-60.00000000000114</v>
-      </c>
-      <c r="L83" t="n">
-        <v>66.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>67.64999999999996</v>
-      </c>
-      <c r="N83" t="n">
-        <v>68.08333333333329</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12.99999999999996</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-60.00000000000114</v>
-      </c>
-      <c r="L84" t="n">
-        <v>66.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>67.54499999999997</v>
-      </c>
-      <c r="N84" t="n">
-        <v>68.01333333333328</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J85" t="n">
-        <v>13.19999999999996</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-14.28571428571371</v>
-      </c>
-      <c r="L85" t="n">
-        <v>66.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>67.45999999999998</v>
-      </c>
-      <c r="N85" t="n">
-        <v>67.93999999999996</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J86" t="n">
-        <v>13.39999999999996</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>66.82000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>67.36499999999998</v>
-      </c>
-      <c r="N86" t="n">
-        <v>67.87333333333328</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J87" t="n">
-        <v>13.39999999999996</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-49.99999999999911</v>
-      </c>
-      <c r="L87" t="n">
-        <v>66.79000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>67.27</v>
-      </c>
-      <c r="N87" t="n">
-        <v>67.79333333333328</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J88" t="n">
-        <v>13.49999999999997</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-42.85714285714344</v>
-      </c>
-      <c r="L88" t="n">
-        <v>66.74000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>67.16999999999999</v>
-      </c>
-      <c r="N88" t="n">
-        <v>67.71999999999994</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J89" t="n">
-        <v>13.49999999999997</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>66.71000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>67.06999999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>67.64999999999995</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J90" t="n">
-        <v>13.49999999999997</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-20.00000000000114</v>
-      </c>
-      <c r="L90" t="n">
-        <v>66.69000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="N90" t="n">
-        <v>67.58333333333329</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J91" t="n">
-        <v>13.69999999999996</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L91" t="n">
-        <v>66.66000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="N91" t="n">
-        <v>67.4933333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J92" t="n">
-        <v>13.89999999999996</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L92" t="n">
-        <v>66.61000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="N92" t="n">
-        <v>67.38999999999996</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J93" t="n">
-        <v>13.89999999999996</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L93" t="n">
-        <v>66.56000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>66.72499999999999</v>
-      </c>
-      <c r="N93" t="n">
-        <v>67.28666666666662</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.400000000000006</v>
-      </c>
-      <c r="J94" t="n">
-        <v>13.99999999999997</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>66.50000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>66.67999999999999</v>
-      </c>
-      <c r="N94" t="n">
-        <v>67.19666666666663</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>14.09999999999997</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>66.41000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>66.63</v>
-      </c>
-      <c r="N95" t="n">
-        <v>67.10999999999996</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>14.09999999999997</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>66.34000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>66.58</v>
-      </c>
-      <c r="N96" t="n">
-        <v>67.0233333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>14.09999999999997</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>66.27000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="N97" t="n">
-        <v>66.93666666666664</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>14.09999999999997</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>66.21000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>66.47499999999999</v>
-      </c>
-      <c r="N98" t="n">
-        <v>66.84999999999997</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +3846,19 @@
         <v>67.80166666666675</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>14.09999999999997</v>
+        <v>66</v>
       </c>
       <c r="K99" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>66.15000000000001</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>66.42999999999999</v>
-      </c>
-      <c r="N99" t="n">
-        <v>66.76333333333331</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +3885,23 @@
         <v>67.74833333333342</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>14.59999999999997</v>
+        <v>65.8</v>
       </c>
       <c r="K100" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>66.04000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>66.36499999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>66.65999999999998</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +3928,23 @@
         <v>67.69666666666674</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-1.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>14.79999999999997</v>
+        <v>65.7</v>
       </c>
       <c r="K101" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L101" t="n">
-        <v>65.97000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>66.315</v>
-      </c>
-      <c r="N101" t="n">
-        <v>66.5833333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +3971,23 @@
         <v>67.6433333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>14.79999999999997</v>
+        <v>65.7</v>
       </c>
       <c r="K102" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L102" t="n">
-        <v>65.92000000000002</v>
+        <v>66</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>66.265</v>
-      </c>
-      <c r="N102" t="n">
-        <v>66.50666666666663</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4014,23 @@
         <v>67.58833333333341</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-1.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>14.79999999999997</v>
+        <v>65.7</v>
       </c>
       <c r="K103" t="n">
-        <v>-49.99999999999911</v>
-      </c>
-      <c r="L103" t="n">
-        <v>65.87000000000002</v>
+        <v>66</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>66.215</v>
-      </c>
-      <c r="N103" t="n">
-        <v>66.43999999999996</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,31 +4057,23 @@
         <v>67.53833333333341</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>14.89999999999996</v>
+        <v>65.8</v>
       </c>
       <c r="K104" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L104" t="n">
-        <v>65.84</v>
+        <v>66</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>66.16999999999999</v>
-      </c>
-      <c r="N104" t="n">
-        <v>66.39999999999995</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,31 +4100,23 @@
         <v>67.49333333333341</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-1.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>15.19999999999996</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L105" t="n">
-        <v>65.85000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>66.12999999999998</v>
-      </c>
-      <c r="N105" t="n">
-        <v>66.36999999999995</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4143,23 @@
         <v>67.46000000000008</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>15.89999999999996</v>
+        <v>66.8</v>
       </c>
       <c r="K106" t="n">
-        <v>44.44444444444436</v>
-      </c>
-      <c r="L106" t="n">
-        <v>65.93000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>66.13499999999998</v>
-      </c>
-      <c r="N106" t="n">
-        <v>66.36333333333329</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4186,23 @@
         <v>67.42333333333342</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>15.99999999999996</v>
+        <v>66.7</v>
       </c>
       <c r="K107" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L107" t="n">
-        <v>66.00000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>66.13499999999998</v>
-      </c>
-      <c r="N107" t="n">
-        <v>66.35333333333328</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4229,23 @@
         <v>67.39000000000007</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>16.09999999999995</v>
+        <v>66.7</v>
       </c>
       <c r="K108" t="n">
-        <v>40.00000000000014</v>
-      </c>
-      <c r="L108" t="n">
-        <v>66.08000000000001</v>
+        <v>66</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>66.14499999999998</v>
-      </c>
-      <c r="N108" t="n">
-        <v>66.34333333333329</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4272,23 @@
         <v>67.3533333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.5999999999999943</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>16.19999999999996</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>87.50000000000067</v>
-      </c>
-      <c r="L109" t="n">
-        <v>66.17</v>
+        <v>66</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="N109" t="n">
-        <v>66.34333333333329</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,31 +4315,23 @@
         <v>67.31500000000007</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>16.29999999999997</v>
+        <v>66.8</v>
       </c>
       <c r="K110" t="n">
-        <v>73.33333333333294</v>
-      </c>
-      <c r="L110" t="n">
-        <v>66.3</v>
+        <v>66</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>66.16999999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>66.34333333333331</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4358,23 @@
         <v>67.27666666666671</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>16.59999999999997</v>
+        <v>66.5</v>
       </c>
       <c r="K111" t="n">
-        <v>44.44444444444436</v>
-      </c>
-      <c r="L111" t="n">
-        <v>66.38</v>
+        <v>66</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>66.17499999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>66.33666666666664</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4401,23 @@
         <v>67.23500000000006</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>16.89999999999996</v>
+        <v>66.3</v>
       </c>
       <c r="K112" t="n">
-        <v>23.80952380952387</v>
-      </c>
-      <c r="L112" t="n">
-        <v>66.42999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>66.17499999999998</v>
-      </c>
-      <c r="N112" t="n">
-        <v>66.31999999999998</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4444,23 @@
         <v>67.19166666666673</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-1.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>16.99999999999997</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571409</v>
-      </c>
-      <c r="L113" t="n">
-        <v>66.47</v>
+        <v>66</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>66.16999999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>66.29999999999998</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4487,23 @@
         <v>67.15000000000006</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>17.19999999999997</v>
+        <v>66.3</v>
       </c>
       <c r="K114" t="n">
-        <v>10.00000000000007</v>
-      </c>
-      <c r="L114" t="n">
-        <v>66.52</v>
+        <v>66</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>66.17999999999998</v>
-      </c>
-      <c r="N114" t="n">
-        <v>66.28666666666665</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4530,23 @@
         <v>67.10500000000006</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>17.29999999999998</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-28.57142857142755</v>
-      </c>
-      <c r="L115" t="n">
-        <v>66.54999999999998</v>
+        <v>66</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>66.19999999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>66.26999999999997</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4573,23 @@
         <v>67.07333333333341</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>17.69999999999997</v>
+        <v>66.8</v>
       </c>
       <c r="K116" t="n">
-        <v>5.882352941176077</v>
-      </c>
-      <c r="L116" t="n">
-        <v>66.54999999999998</v>
+        <v>66</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>66.23999999999998</v>
-      </c>
-      <c r="N116" t="n">
-        <v>66.2733333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4616,23 @@
         <v>67.03500000000007</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>17.69999999999997</v>
+        <v>66.8</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>66.55999999999997</v>
+        <v>66</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>66.27999999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>66.27666666666663</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +4659,23 @@
         <v>67.0083333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>18.09999999999998</v>
+        <v>67.2</v>
       </c>
       <c r="K118" t="n">
-        <v>15.78947368421021</v>
-      </c>
-      <c r="L118" t="n">
-        <v>66.59999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>66.33999999999999</v>
-      </c>
-      <c r="N118" t="n">
-        <v>66.29666666666664</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4702,23 @@
         <v>66.98333333333341</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>18.09999999999998</v>
+        <v>67.2</v>
       </c>
       <c r="K119" t="n">
-        <v>22.2222222222224</v>
-      </c>
-      <c r="L119" t="n">
-        <v>66.63</v>
+        <v>66</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>66.39999999999999</v>
-      </c>
-      <c r="N119" t="n">
-        <v>66.31666666666663</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4748,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J120" t="n">
-        <v>18.19999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L120" t="n">
-        <v>66.67999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>66.48999999999998</v>
-      </c>
-      <c r="N120" t="n">
-        <v>66.33999999999997</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4789,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J121" t="n">
-        <v>18.49999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>87.49999999999901</v>
-      </c>
-      <c r="L121" t="n">
-        <v>66.78999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>66.58499999999998</v>
-      </c>
-      <c r="N121" t="n">
-        <v>66.37999999999997</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4830,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J122" t="n">
-        <v>18.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="n">
-        <v>66.94</v>
+        <v>66</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>66.68499999999997</v>
-      </c>
-      <c r="N122" t="n">
-        <v>66.42999999999996</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4871,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J123" t="n">
-        <v>18.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>64.70588235294157</v>
-      </c>
-      <c r="L123" t="n">
-        <v>67.06999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>66.76999999999998</v>
-      </c>
-      <c r="N123" t="n">
-        <v>66.46999999999996</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4912,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J124" t="n">
-        <v>19.29999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>70.00000000000007</v>
-      </c>
-      <c r="L124" t="n">
-        <v>67.22</v>
+        <v>66</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>66.86999999999998</v>
-      </c>
-      <c r="N124" t="n">
-        <v>66.52666666666663</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4953,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J125" t="n">
-        <v>19.39999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>64.70588235294157</v>
-      </c>
-      <c r="L125" t="n">
-        <v>67.36999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>66.95999999999999</v>
-      </c>
-      <c r="N125" t="n">
-        <v>66.58999999999996</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,26 +4996,16 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>19.79999999999998</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>67.44</v>
+        <v>66</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>66.99499999999999</v>
-      </c>
-      <c r="N126" t="n">
-        <v>66.63999999999996</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5035,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J127" t="n">
-        <v>19.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L127" t="n">
-        <v>67.5</v>
+        <v>66</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>67.03</v>
-      </c>
-      <c r="N127" t="n">
-        <v>66.68666666666664</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5076,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J128" t="n">
-        <v>19.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L128" t="n">
-        <v>67.52</v>
+        <v>66</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>67.06</v>
-      </c>
-      <c r="N128" t="n">
-        <v>66.73333333333331</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5117,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J129" t="n">
-        <v>20.09999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>15.78947368421045</v>
-      </c>
-      <c r="L129" t="n">
-        <v>67.55999999999999</v>
+        <v>66</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>67.095</v>
-      </c>
-      <c r="N129" t="n">
-        <v>66.78666666666663</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5158,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J130" t="n">
-        <v>21.39999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>44.82758620689686</v>
-      </c>
-      <c r="L130" t="n">
-        <v>67.72</v>
+        <v>66</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>66.89999999999996</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5199,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J131" t="n">
-        <v>21.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L131" t="n">
-        <v>67.83</v>
+        <v>66</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="N131" t="n">
-        <v>66.99999999999996</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,27 +5242,17 @@
       <c r="I132" t="n">
         <v>1</v>
       </c>
-      <c r="J132" t="n">
-        <v>21.79999999999998</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>37.93103448275835</v>
-      </c>
-      <c r="L132" t="n">
-        <v>67.91</v>
+        <v>66</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>67.425</v>
-      </c>
-      <c r="N132" t="n">
-        <v>67.09333333333331</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
+        <v>1.032878787878788</v>
       </c>
     </row>
     <row r="133">
@@ -7027,28 +5281,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J133" t="n">
-        <v>22.09999999999998</v>
-      </c>
-      <c r="K133" t="n">
-        <v>35.71428571428557</v>
-      </c>
-      <c r="L133" t="n">
-        <v>68.04999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="N133" t="n">
-        <v>67.19666666666663</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5316,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J134" t="n">
-        <v>22.09999999999998</v>
-      </c>
-      <c r="K134" t="n">
-        <v>33.33333333333298</v>
-      </c>
-      <c r="L134" t="n">
-        <v>68.14999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>67.685</v>
-      </c>
-      <c r="N134" t="n">
-        <v>67.29666666666664</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5351,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J135" t="n">
-        <v>22.09999999999998</v>
-      </c>
-      <c r="K135" t="n">
-        <v>56.52173913043473</v>
-      </c>
-      <c r="L135" t="n">
-        <v>68.23999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>67.80499999999999</v>
-      </c>
-      <c r="N135" t="n">
-        <v>67.38666666666663</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5386,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J136" t="n">
-        <v>22.09999999999998</v>
-      </c>
-      <c r="K136" t="n">
-        <v>63.63636363636317</v>
-      </c>
-      <c r="L136" t="n">
-        <v>68.36999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>67.905</v>
-      </c>
-      <c r="N136" t="n">
-        <v>67.4533333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5421,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J137" t="n">
-        <v>22.69999999999997</v>
-      </c>
-      <c r="K137" t="n">
-        <v>28.5714285714285</v>
-      </c>
-      <c r="L137" t="n">
-        <v>68.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>67.97499999999999</v>
-      </c>
-      <c r="N137" t="n">
-        <v>67.5033333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5456,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J138" t="n">
-        <v>22.79999999999997</v>
-      </c>
-      <c r="K138" t="n">
-        <v>25.925925925926</v>
-      </c>
-      <c r="L138" t="n">
-        <v>68.53999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>68.03</v>
-      </c>
-      <c r="N138" t="n">
-        <v>67.55333333333331</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,1099 +5491,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>22.99999999999997</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L139" t="n">
-        <v>68.62999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>68.095</v>
-      </c>
-      <c r="N139" t="n">
-        <v>67.60666666666664</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4925.9553</v>
-      </c>
-      <c r="G140" t="n">
-        <v>66.99666666666675</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="J140" t="n">
-        <v>23.39999999999998</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333386</v>
-      </c>
-      <c r="L140" t="n">
-        <v>68.54999999999998</v>
-      </c>
-      <c r="M140" t="n">
-        <v>68.13499999999999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>67.64999999999998</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>68</v>
-      </c>
-      <c r="C141" t="n">
-        <v>68</v>
-      </c>
-      <c r="D141" t="n">
-        <v>68</v>
-      </c>
-      <c r="E141" t="n">
-        <v>68</v>
-      </c>
-      <c r="F141" t="n">
-        <v>200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>67.01833333333342</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>23.49999999999997</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-29.41176470588255</v>
-      </c>
-      <c r="L141" t="n">
-        <v>68.47999999999999</v>
-      </c>
-      <c r="M141" t="n">
-        <v>68.155</v>
-      </c>
-      <c r="N141" t="n">
-        <v>67.69999999999997</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>68</v>
-      </c>
-      <c r="C142" t="n">
-        <v>68</v>
-      </c>
-      <c r="D142" t="n">
-        <v>68</v>
-      </c>
-      <c r="E142" t="n">
-        <v>68</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2930</v>
-      </c>
-      <c r="G142" t="n">
-        <v>67.04000000000009</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J142" t="n">
-        <v>23.49999999999997</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-57.14285714285728</v>
-      </c>
-      <c r="L142" t="n">
-        <v>68.42999999999998</v>
-      </c>
-      <c r="M142" t="n">
-        <v>68.16999999999999</v>
-      </c>
-      <c r="N142" t="n">
-        <v>67.75999999999996</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F143" t="n">
-        <v>456.068</v>
-      </c>
-      <c r="G143" t="n">
-        <v>67.06333333333343</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="J143" t="n">
-        <v>23.59999999999997</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-46.6666666666673</v>
-      </c>
-      <c r="L143" t="n">
-        <v>68.35999999999999</v>
-      </c>
-      <c r="M143" t="n">
-        <v>68.20499999999998</v>
-      </c>
-      <c r="N143" t="n">
-        <v>67.82666666666664</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>68</v>
-      </c>
-      <c r="C144" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>68</v>
-      </c>
-      <c r="E144" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>179287.1377</v>
-      </c>
-      <c r="G144" t="n">
-        <v>67.0600000000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>25.19999999999996</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-74.19354838709717</v>
-      </c>
-      <c r="L144" t="n">
-        <v>68.13</v>
-      </c>
-      <c r="M144" t="n">
-        <v>68.13999999999999</v>
-      </c>
-      <c r="N144" t="n">
-        <v>67.83333333333331</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>68</v>
-      </c>
-      <c r="C145" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D145" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>68</v>
-      </c>
-      <c r="F145" t="n">
-        <v>869</v>
-      </c>
-      <c r="G145" t="n">
-        <v>67.0800000000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="J145" t="n">
-        <v>26.79999999999995</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-14.89361702127674</v>
-      </c>
-      <c r="L145" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="M145" t="n">
-        <v>68.14999999999998</v>
-      </c>
-      <c r="N145" t="n">
-        <v>67.88999999999997</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D146" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>36354</v>
-      </c>
-      <c r="G146" t="n">
-        <v>67.10666666666677</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J146" t="n">
-        <v>26.99999999999996</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2.325581395348714</v>
-      </c>
-      <c r="L146" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="M146" t="n">
-        <v>68.18999999999997</v>
-      </c>
-      <c r="N146" t="n">
-        <v>67.93999999999998</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5516.1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>67.14166666666678</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27.49999999999996</v>
-      </c>
-      <c r="K147" t="n">
-        <v>10.63829787234045</v>
-      </c>
-      <c r="L147" t="n">
-        <v>68.06999999999999</v>
-      </c>
-      <c r="M147" t="n">
-        <v>68.25999999999996</v>
-      </c>
-      <c r="N147" t="n">
-        <v>68.00666666666665</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G148" t="n">
-        <v>67.17666666666678</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J148" t="n">
-        <v>27.59999999999995</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4.347826086956602</v>
-      </c>
-      <c r="L148" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="M148" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N148" t="n">
-        <v>68.05666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G149" t="n">
-        <v>67.21000000000011</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27.69999999999996</v>
-      </c>
-      <c r="K149" t="n">
-        <v>11.62790697674423</v>
-      </c>
-      <c r="L149" t="n">
-        <v>68.12</v>
-      </c>
-      <c r="M149" t="n">
-        <v>68.37499999999997</v>
-      </c>
-      <c r="N149" t="n">
-        <v>68.10333333333332</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3760</v>
-      </c>
-      <c r="G150" t="n">
-        <v>67.23666666666678</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J150" t="n">
-        <v>28.09999999999995</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4.347826086956602</v>
-      </c>
-      <c r="L150" t="n">
-        <v>68.13000000000001</v>
-      </c>
-      <c r="M150" t="n">
-        <v>68.33999999999996</v>
-      </c>
-      <c r="N150" t="n">
-        <v>68.13333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>129.7987</v>
-      </c>
-      <c r="G151" t="n">
-        <v>67.26666666666678</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J151" t="n">
-        <v>28.09999999999995</v>
-      </c>
-      <c r="K151" t="n">
-        <v>4.347826086956602</v>
-      </c>
-      <c r="L151" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="M151" t="n">
-        <v>68.31499999999997</v>
-      </c>
-      <c r="N151" t="n">
-        <v>68.15333333333334</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C152" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5130</v>
-      </c>
-      <c r="G152" t="n">
-        <v>67.30833333333345</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J152" t="n">
-        <v>28.59999999999995</v>
-      </c>
-      <c r="K152" t="n">
-        <v>12.0000000000002</v>
-      </c>
-      <c r="L152" t="n">
-        <v>68.22000000000001</v>
-      </c>
-      <c r="M152" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N152" t="n">
-        <v>68.18666666666665</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>160552</v>
-      </c>
-      <c r="G153" t="n">
-        <v>67.35166666666679</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J153" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K153" t="n">
-        <v>65.71428571428591</v>
-      </c>
-      <c r="L153" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="M153" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N153" t="n">
-        <v>68.23333333333332</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>510</v>
-      </c>
-      <c r="G154" t="n">
-        <v>67.3966666666668</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J154" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K154" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L154" t="n">
-        <v>68.52000000000001</v>
-      </c>
-      <c r="M154" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N154" t="n">
-        <v>68.26666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1880</v>
-      </c>
-      <c r="G155" t="n">
-        <v>67.44333333333346</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J155" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K155" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L155" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="M155" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N155" t="n">
-        <v>68.29666666666665</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7185.3052</v>
-      </c>
-      <c r="G156" t="n">
-        <v>67.49000000000014</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J156" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>68.64</v>
-      </c>
-      <c r="M156" t="n">
-        <v>68.32499999999996</v>
-      </c>
-      <c r="N156" t="n">
-        <v>68.33999999999999</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>15034.2</v>
-      </c>
-      <c r="G157" t="n">
-        <v>67.5366666666668</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J157" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K157" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L157" t="n">
-        <v>68.64</v>
-      </c>
-      <c r="M157" t="n">
-        <v>68.35499999999996</v>
-      </c>
-      <c r="N157" t="n">
-        <v>68.38666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7884</v>
-      </c>
-      <c r="G158" t="n">
-        <v>67.58333333333347</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J158" t="n">
-        <v>28.69999999999995</v>
-      </c>
-      <c r="K158" t="n">
-        <v>20.00000000000057</v>
-      </c>
-      <c r="L158" t="n">
-        <v>68.64999999999999</v>
-      </c>
-      <c r="M158" t="n">
-        <v>68.37999999999997</v>
-      </c>
-      <c r="N158" t="n">
-        <v>68.43333333333334</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>7624.153</v>
-      </c>
-      <c r="G159" t="n">
-        <v>67.63500000000015</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="J159" t="n">
-        <v>28.99999999999994</v>
-      </c>
-      <c r="K159" t="n">
-        <v>100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>68.69999999999999</v>
-      </c>
-      <c r="M159" t="n">
-        <v>68.40999999999995</v>
-      </c>
-      <c r="N159" t="n">
-        <v>68.48333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>69</v>
-      </c>
-      <c r="C160" t="n">
-        <v>69</v>
-      </c>
-      <c r="D160" t="n">
-        <v>69</v>
-      </c>
-      <c r="E160" t="n">
-        <v>69</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7076.7291</v>
-      </c>
-      <c r="G160" t="n">
-        <v>67.69333333333347</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J160" t="n">
-        <v>29.09999999999994</v>
-      </c>
-      <c r="K160" t="n">
-        <v>80.00000000000085</v>
-      </c>
-      <c r="L160" t="n">
-        <v>68.77999999999999</v>
-      </c>
-      <c r="M160" t="n">
-        <v>68.45499999999996</v>
-      </c>
-      <c r="N160" t="n">
-        <v>68.48666666666666</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3846,17 +3846,13 @@
         <v>67.80166666666675</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>66</v>
-      </c>
-      <c r="K99" t="n">
-        <v>66</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3891,11 +3887,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K100" t="n">
         <v>66</v>
       </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3934,11 +3928,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="K101" t="n">
-        <v>66</v>
-      </c>
+        <v>65.5</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,9 +3971,7 @@
       <c r="J102" t="n">
         <v>65.7</v>
       </c>
-      <c r="K102" t="n">
-        <v>66</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,9 +4012,7 @@
       <c r="J103" t="n">
         <v>65.7</v>
       </c>
-      <c r="K103" t="n">
-        <v>66</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,11 +4051,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>66</v>
-      </c>
+        <v>65.7</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,11 +4092,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>66</v>
-      </c>
+        <v>65.8</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,11 +4133,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K106" t="n">
-        <v>66</v>
-      </c>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,11 +4174,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>66</v>
-      </c>
+        <v>66.8</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,17 +4209,13 @@
         <v>67.39000000000007</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K108" t="n">
-        <v>66</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,17 +4248,13 @@
         <v>67.3533333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>66</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,17 +4287,13 @@
         <v>67.31500000000007</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K110" t="n">
-        <v>66</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,17 +4326,13 @@
         <v>67.27666666666671</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>66</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,17 +4365,13 @@
         <v>67.23500000000006</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>66</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,17 +4404,13 @@
         <v>67.19166666666673</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K113" t="n">
-        <v>66</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,17 +4443,13 @@
         <v>67.15000000000006</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>66</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,17 +4482,13 @@
         <v>67.10500000000006</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>66</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,17 +4521,13 @@
         <v>67.07333333333341</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K116" t="n">
-        <v>66</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,17 +4560,13 @@
         <v>67.03500000000007</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K117" t="n">
-        <v>66</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,17 +4599,13 @@
         <v>67.0083333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>66</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,17 +4638,13 @@
         <v>66.98333333333341</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="K119" t="n">
-        <v>66</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,9 +4683,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>66</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,9 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>66</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,9 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>66</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,9 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>66</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,9 +4839,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>66</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,9 +4878,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>66</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,9 +4917,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>66</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,9 +4956,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>66</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>66</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5120,9 +5034,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>66</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>66</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5202,9 +5112,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>66</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5240,19 +5148,17 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>66</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>1.032878787878788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5281,11 +5187,15 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5226,15 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5269,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5304,15 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5425,7 +5347,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5460,7 +5386,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5495,7 +5425,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="C2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="D2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>2917.2488</v>
       </c>
       <c r="G2" t="n">
-        <v>67.80166666666672</v>
+        <v>67.78000000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F3" t="n">
-        <v>44.3786</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>67.82500000000006</v>
+        <v>67.80166666666672</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>12522.8306</v>
+        <v>44.3786</v>
       </c>
       <c r="G4" t="n">
-        <v>67.84500000000006</v>
+        <v>67.82500000000006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>67.5</v>
       </c>
       <c r="F5" t="n">
-        <v>118.0162</v>
+        <v>12522.8306</v>
       </c>
       <c r="G5" t="n">
-        <v>67.86500000000005</v>
+        <v>67.84500000000006</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>67.5</v>
       </c>
       <c r="F6" t="n">
-        <v>997.9999</v>
+        <v>118.0162</v>
       </c>
       <c r="G6" t="n">
-        <v>67.88000000000005</v>
+        <v>67.86500000000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>67.5</v>
       </c>
       <c r="F7" t="n">
-        <v>17149.489</v>
+        <v>997.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>67.89166666666671</v>
+        <v>67.88000000000005</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F8" t="n">
-        <v>16383.372</v>
+        <v>17149.489</v>
       </c>
       <c r="G8" t="n">
-        <v>67.9016666666667</v>
+        <v>67.89166666666671</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1423.3475</v>
+        <v>16383.372</v>
       </c>
       <c r="G9" t="n">
-        <v>67.91333333333337</v>
+        <v>67.9016666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="D10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E10" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="F10" t="n">
-        <v>14031.9722</v>
+        <v>1423.3475</v>
       </c>
       <c r="G10" t="n">
-        <v>67.9216666666667</v>
+        <v>67.91333333333337</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>67.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>67.3</v>
       </c>
       <c r="F11" t="n">
-        <v>754.0211</v>
+        <v>14031.9722</v>
       </c>
       <c r="G11" t="n">
-        <v>67.92833333333337</v>
+        <v>67.9216666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="F12" t="n">
-        <v>28547.0217</v>
+        <v>754.0211</v>
       </c>
       <c r="G12" t="n">
-        <v>67.93833333333338</v>
+        <v>67.92833333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,31 +818,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="C13" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D13" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E13" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>7726.005</v>
+        <v>28547.0217</v>
       </c>
       <c r="G13" t="n">
-        <v>67.95500000000004</v>
+        <v>67.93833333333338</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.3</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -853,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C14" t="n">
         <v>67.90000000000001</v>
@@ -862,23 +866,31 @@
         <v>67.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F14" t="n">
-        <v>27066.3239</v>
+        <v>7726.005</v>
       </c>
       <c r="G14" t="n">
-        <v>67.96333333333338</v>
+        <v>67.95500000000004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +900,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>15088.1</v>
+        <v>27066.3239</v>
       </c>
       <c r="G15" t="n">
-        <v>67.9616666666667</v>
+        <v>67.96333333333338</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,19 +944,19 @@
         <v>68.3</v>
       </c>
       <c r="C16" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D16" t="n">
         <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>68.3</v>
+        <v>67.8</v>
       </c>
       <c r="F16" t="n">
-        <v>10090.1616</v>
+        <v>15088.1</v>
       </c>
       <c r="G16" t="n">
-        <v>67.96833333333338</v>
+        <v>67.9616666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C17" t="n">
-        <v>69</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="F17" t="n">
-        <v>369.4085</v>
+        <v>10090.1616</v>
       </c>
       <c r="G17" t="n">
-        <v>67.98666666666671</v>
+        <v>67.96833333333338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1011,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>69</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>369.4085</v>
       </c>
       <c r="G18" t="n">
-        <v>68.00333333333337</v>
+        <v>67.98666666666671</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="F19" t="n">
-        <v>3130</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>68.03333333333337</v>
+        <v>68.00333333333337</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>9284.5821</v>
+        <v>3130</v>
       </c>
       <c r="G20" t="n">
-        <v>68.07833333333338</v>
+        <v>68.03333333333337</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1116,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>71.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>86460.83530000001</v>
+        <v>9284.5821</v>
       </c>
       <c r="G21" t="n">
-        <v>68.12666666666671</v>
+        <v>68.07833333333338</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="C22" t="n">
-        <v>70.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="D22" t="n">
-        <v>70.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="F22" t="n">
-        <v>110</v>
+        <v>86460.83530000001</v>
       </c>
       <c r="G22" t="n">
-        <v>68.18333333333338</v>
+        <v>68.12666666666671</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1186,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>69.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>69.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>69.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>59.7557</v>
+        <v>110</v>
       </c>
       <c r="G23" t="n">
-        <v>68.23000000000005</v>
+        <v>68.18333333333338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,28 +1221,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1206.7164</v>
+        <v>59.7557</v>
       </c>
       <c r="G24" t="n">
-        <v>68.25166666666671</v>
+        <v>68.23000000000005</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,28 +1256,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="C25" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="E25" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>9284.5821</v>
+        <v>1206.7164</v>
       </c>
       <c r="G25" t="n">
-        <v>68.23500000000004</v>
+        <v>68.25166666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,22 +1291,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>1609.2545</v>
+        <v>9284.5821</v>
       </c>
       <c r="G26" t="n">
-        <v>68.2266666666667</v>
+        <v>68.23500000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="D27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>1609.2545</v>
       </c>
       <c r="G27" t="n">
-        <v>68.22333333333337</v>
+        <v>68.2266666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1364,19 @@
         <v>69.2</v>
       </c>
       <c r="C28" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D28" t="n">
         <v>69.2</v>
       </c>
       <c r="E28" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="F28" t="n">
-        <v>4629.4415</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>68.22000000000003</v>
+        <v>68.22333333333337</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,19 +1396,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="C29" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="E29" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>4629.4415</v>
       </c>
       <c r="G29" t="n">
         <v>68.22000000000003</v>
@@ -1416,19 +1434,19 @@
         <v>69.3</v>
       </c>
       <c r="C30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E30" t="n">
         <v>69.3</v>
       </c>
       <c r="F30" t="n">
-        <v>11918.7</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>68.22333333333336</v>
+        <v>68.22000000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1469,19 @@
         <v>69.3</v>
       </c>
       <c r="C31" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>69.3</v>
       </c>
       <c r="F31" t="n">
-        <v>501.4012</v>
+        <v>11918.7</v>
       </c>
       <c r="G31" t="n">
-        <v>68.23500000000003</v>
+        <v>68.22333333333336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
         <v>69.3</v>
       </c>
       <c r="F32" t="n">
-        <v>7948.8811</v>
+        <v>501.4012</v>
       </c>
       <c r="G32" t="n">
-        <v>68.24833333333336</v>
+        <v>68.23500000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1548,10 @@
         <v>69.3</v>
       </c>
       <c r="F33" t="n">
-        <v>7303.9998</v>
+        <v>7948.8811</v>
       </c>
       <c r="G33" t="n">
-        <v>68.26500000000003</v>
+        <v>68.24833333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="D34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="E34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>7303.9998</v>
       </c>
       <c r="G34" t="n">
-        <v>68.28000000000002</v>
+        <v>68.26500000000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C35" t="n">
         <v>69.2</v>
       </c>
       <c r="D35" t="n">
-        <v>69.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E35" t="n">
         <v>69.2</v>
       </c>
       <c r="F35" t="n">
-        <v>69.6063</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="n">
-        <v>68.29500000000002</v>
+        <v>68.28000000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>69.2</v>
       </c>
       <c r="D36" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E36" t="n">
         <v>69.2</v>
       </c>
       <c r="F36" t="n">
-        <v>133.5903</v>
+        <v>69.6063</v>
       </c>
       <c r="G36" t="n">
-        <v>68.31</v>
+        <v>68.29500000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="C37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="D37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="E37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1290</v>
+        <v>133.5903</v>
       </c>
       <c r="G37" t="n">
-        <v>68.31999999999999</v>
+        <v>68.31</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>16366.6961</v>
+        <v>1290</v>
       </c>
       <c r="G38" t="n">
-        <v>68.33</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="D39" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="F39" t="n">
         <v>16366.6961</v>
       </c>
       <c r="G39" t="n">
-        <v>68.33833333333334</v>
+        <v>68.33</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1784,19 @@
         <v>68.8</v>
       </c>
       <c r="C40" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D40" t="n">
         <v>68.8</v>
       </c>
       <c r="E40" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F40" t="n">
-        <v>8320</v>
+        <v>16366.6961</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34999999999999</v>
+        <v>68.33833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1819,19 @@
         <v>68.8</v>
       </c>
       <c r="C41" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="D41" t="n">
         <v>68.8</v>
       </c>
       <c r="E41" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F41" t="n">
-        <v>2223</v>
+        <v>8320</v>
       </c>
       <c r="G41" t="n">
-        <v>68.36166666666666</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="E42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1628</v>
+        <v>2223</v>
       </c>
       <c r="G42" t="n">
-        <v>68.37499999999999</v>
+        <v>68.36166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1889,19 @@
         <v>68.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>3499.2794</v>
+        <v>1628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.39333333333333</v>
+        <v>68.37499999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="D44" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="E44" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>32616</v>
+        <v>3499.2794</v>
       </c>
       <c r="G44" t="n">
-        <v>68.40333333333334</v>
+        <v>68.39333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>68.8</v>
       </c>
       <c r="F45" t="n">
-        <v>8943.999900000001</v>
+        <v>32616</v>
       </c>
       <c r="G45" t="n">
-        <v>68.41000000000001</v>
+        <v>68.40333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>68.8</v>
       </c>
       <c r="F46" t="n">
-        <v>35336.4494</v>
+        <v>8943.999900000001</v>
       </c>
       <c r="G46" t="n">
-        <v>68.41666666666669</v>
+        <v>68.41000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D47" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F47" t="n">
-        <v>30496.4897</v>
+        <v>35336.4494</v>
       </c>
       <c r="G47" t="n">
-        <v>68.42833333333334</v>
+        <v>68.41666666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>7059.6948</v>
+        <v>30496.4897</v>
       </c>
       <c r="G48" t="n">
-        <v>68.43833333333335</v>
+        <v>68.42833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F49" t="n">
-        <v>570</v>
+        <v>7059.6948</v>
       </c>
       <c r="G49" t="n">
-        <v>68.45500000000001</v>
+        <v>68.43833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2143,10 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1450</v>
+        <v>570</v>
       </c>
       <c r="G50" t="n">
-        <v>68.47500000000004</v>
+        <v>68.45500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>3327.7948</v>
+        <v>1450</v>
       </c>
       <c r="G51" t="n">
-        <v>68.4916666666667</v>
+        <v>68.47500000000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="C52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="E52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12460</v>
+        <v>3327.7948</v>
       </c>
       <c r="G52" t="n">
-        <v>68.50500000000004</v>
+        <v>68.4916666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2248,10 @@
         <v>68.7</v>
       </c>
       <c r="F53" t="n">
-        <v>34401</v>
+        <v>12460</v>
       </c>
       <c r="G53" t="n">
-        <v>68.51833333333337</v>
+        <v>68.50500000000004</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
       <c r="C54" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="D54" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
       <c r="E54" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F54" t="n">
-        <v>75.536</v>
+        <v>34401</v>
       </c>
       <c r="G54" t="n">
-        <v>68.53333333333337</v>
+        <v>68.51833333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D55" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E55" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F55" t="n">
-        <v>205.0075</v>
+        <v>75.536</v>
       </c>
       <c r="G55" t="n">
-        <v>68.55500000000005</v>
+        <v>68.53333333333337</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>68.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>68.7</v>
       </c>
       <c r="F56" t="n">
-        <v>209.4755</v>
+        <v>205.0075</v>
       </c>
       <c r="G56" t="n">
-        <v>68.57000000000004</v>
+        <v>68.55500000000005</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D57" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F57" t="n">
-        <v>106.8017</v>
+        <v>209.4755</v>
       </c>
       <c r="G57" t="n">
-        <v>68.59500000000004</v>
+        <v>68.57000000000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>15974.7998</v>
+        <v>106.8017</v>
       </c>
       <c r="G58" t="n">
-        <v>68.61500000000004</v>
+        <v>68.59500000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="C59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="E59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1266.4792</v>
+        <v>15974.7998</v>
       </c>
       <c r="G59" t="n">
-        <v>68.63500000000003</v>
+        <v>68.61500000000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2484,19 @@
         <v>68.7</v>
       </c>
       <c r="C60" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D60" t="n">
         <v>68.7</v>
       </c>
       <c r="E60" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F60" t="n">
-        <v>18026.999</v>
+        <v>1266.4792</v>
       </c>
       <c r="G60" t="n">
-        <v>68.65333333333338</v>
+        <v>68.63500000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="C61" t="n">
-        <v>69.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E61" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>19581.1365</v>
+        <v>18026.999</v>
       </c>
       <c r="G61" t="n">
-        <v>68.67666666666672</v>
+        <v>68.65333333333338</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69.2</v>
+        <v>68.8</v>
       </c>
       <c r="C62" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>69.2</v>
+        <v>68.8</v>
       </c>
       <c r="F62" t="n">
-        <v>6348.4171</v>
+        <v>19581.1365</v>
       </c>
       <c r="G62" t="n">
-        <v>68.70666666666672</v>
+        <v>68.67666666666672</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2586,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="C63" t="n">
         <v>69.3</v>
@@ -2577,13 +2595,13 @@
         <v>69.3</v>
       </c>
       <c r="E63" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="F63" t="n">
-        <v>1380</v>
+        <v>6348.4171</v>
       </c>
       <c r="G63" t="n">
-        <v>68.73500000000006</v>
+        <v>68.70666666666672</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C64" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D64" t="n">
-        <v>68.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E64" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="F64" t="n">
-        <v>7509.7593</v>
+        <v>1380</v>
       </c>
       <c r="G64" t="n">
-        <v>68.75666666666672</v>
+        <v>68.73500000000006</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F65" t="n">
-        <v>193</v>
+        <v>7509.7593</v>
       </c>
       <c r="G65" t="n">
-        <v>68.77500000000006</v>
+        <v>68.75666666666672</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2703,10 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>36630.601</v>
+        <v>193</v>
       </c>
       <c r="G66" t="n">
-        <v>68.79333333333339</v>
+        <v>68.77500000000006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2738,10 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>35890.499</v>
+        <v>36630.601</v>
       </c>
       <c r="G67" t="n">
-        <v>68.81166666666674</v>
+        <v>68.79333333333339</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2773,10 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4510.4774</v>
+        <v>35890.499</v>
       </c>
       <c r="G68" t="n">
-        <v>68.83166666666675</v>
+        <v>68.81166666666674</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2808,10 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>108.0386</v>
+        <v>4510.4774</v>
       </c>
       <c r="G69" t="n">
-        <v>68.85000000000009</v>
+        <v>68.83166666666675</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2843,10 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>128.7778</v>
+        <v>108.0386</v>
       </c>
       <c r="G70" t="n">
-        <v>68.87166666666675</v>
+        <v>68.85000000000009</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>780</v>
+        <v>128.7778</v>
       </c>
       <c r="G71" t="n">
-        <v>68.88333333333343</v>
+        <v>68.87166666666675</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2913,10 @@
         <v>68</v>
       </c>
       <c r="F72" t="n">
-        <v>9597.870800000001</v>
+        <v>780</v>
       </c>
       <c r="G72" t="n">
-        <v>68.89166666666675</v>
+        <v>68.88333333333343</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="D73" t="n">
-        <v>67.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F73" t="n">
-        <v>29189.5121</v>
+        <v>9597.870800000001</v>
       </c>
       <c r="G73" t="n">
-        <v>68.88833333333342</v>
+        <v>68.89166666666675</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="C74" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="D74" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E74" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="F74" t="n">
-        <v>31251.1259</v>
+        <v>29189.5121</v>
       </c>
       <c r="G74" t="n">
-        <v>68.87333333333343</v>
+        <v>68.88833333333342</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C75" t="n">
         <v>67</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E75" t="n">
         <v>67</v>
       </c>
       <c r="F75" t="n">
-        <v>2371.5044</v>
+        <v>31251.1259</v>
       </c>
       <c r="G75" t="n">
-        <v>68.8600000000001</v>
+        <v>68.87333333333343</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C76" t="n">
         <v>67</v>
       </c>
       <c r="D76" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E76" t="n">
         <v>67</v>
       </c>
       <c r="F76" t="n">
-        <v>11664.8538</v>
+        <v>2371.5044</v>
       </c>
       <c r="G76" t="n">
-        <v>68.83666666666677</v>
+        <v>68.8600000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E77" t="n">
         <v>67</v>
       </c>
       <c r="F77" t="n">
-        <v>5985.3124</v>
+        <v>11664.8538</v>
       </c>
       <c r="G77" t="n">
-        <v>68.80333333333344</v>
+        <v>68.83666666666677</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="F78" t="n">
-        <v>11410</v>
+        <v>5985.3124</v>
       </c>
       <c r="G78" t="n">
-        <v>68.77166666666677</v>
+        <v>68.80333333333344</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>2086.4274</v>
+        <v>11410</v>
       </c>
       <c r="G79" t="n">
-        <v>68.7350000000001</v>
+        <v>68.77166666666677</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3184,19 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>7645.5835</v>
+        <v>2086.4274</v>
       </c>
       <c r="G80" t="n">
-        <v>68.69166666666678</v>
+        <v>68.7350000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D81" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F81" t="n">
-        <v>230.812</v>
+        <v>7645.5835</v>
       </c>
       <c r="G81" t="n">
-        <v>68.64500000000011</v>
+        <v>68.69166666666678</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3263,10 @@
         <v>66.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1747.9999</v>
+        <v>230.812</v>
       </c>
       <c r="G82" t="n">
-        <v>68.58833333333342</v>
+        <v>68.64500000000011</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3298,10 @@
         <v>66.7</v>
       </c>
       <c r="F83" t="n">
-        <v>186.3615</v>
+        <v>1747.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>68.54000000000009</v>
+        <v>68.58833333333342</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3333,10 @@
         <v>66.7</v>
       </c>
       <c r="F84" t="n">
-        <v>1085.8795</v>
+        <v>186.3615</v>
       </c>
       <c r="G84" t="n">
-        <v>68.50333333333342</v>
+        <v>68.54000000000009</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C85" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D85" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E85" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F85" t="n">
-        <v>5589.143</v>
+        <v>1085.8795</v>
       </c>
       <c r="G85" t="n">
-        <v>68.47000000000008</v>
+        <v>68.50333333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="E86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5589.143</v>
       </c>
       <c r="G86" t="n">
-        <v>68.43166666666676</v>
+        <v>68.47000000000008</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3438,10 @@
         <v>66.7</v>
       </c>
       <c r="F87" t="n">
-        <v>2389</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>68.39000000000009</v>
+        <v>68.43166666666676</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F88" t="n">
-        <v>625.9835</v>
+        <v>2389</v>
       </c>
       <c r="G88" t="n">
-        <v>68.34833333333341</v>
+        <v>68.39000000000009</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3508,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>1677.0169</v>
+        <v>625.9835</v>
       </c>
       <c r="G89" t="n">
-        <v>68.30333333333343</v>
+        <v>68.34833333333341</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3543,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>34573.2405</v>
+        <v>1677.0169</v>
       </c>
       <c r="G90" t="n">
-        <v>68.25666666666676</v>
+        <v>68.30333333333343</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>2893.3319</v>
+        <v>34573.2405</v>
       </c>
       <c r="G91" t="n">
-        <v>68.20833333333343</v>
+        <v>68.25666666666676</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C92" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="C92" t="n">
-        <v>66.2</v>
-      </c>
       <c r="D92" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E92" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="E92" t="n">
-        <v>66.2</v>
-      </c>
       <c r="F92" t="n">
-        <v>29426.5457</v>
+        <v>2893.3319</v>
       </c>
       <c r="G92" t="n">
-        <v>68.15666666666675</v>
+        <v>68.20833333333343</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>66.2</v>
       </c>
       <c r="D93" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E93" t="n">
         <v>66.2</v>
       </c>
       <c r="F93" t="n">
-        <v>14561.2047</v>
+        <v>29426.5457</v>
       </c>
       <c r="G93" t="n">
-        <v>68.10500000000008</v>
+        <v>68.15666666666675</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="F94" t="n">
-        <v>9922.9722</v>
+        <v>14561.2047</v>
       </c>
       <c r="G94" t="n">
-        <v>68.05333333333343</v>
+        <v>68.10500000000008</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>66</v>
       </c>
       <c r="F95" t="n">
-        <v>225.4529</v>
+        <v>9922.9722</v>
       </c>
       <c r="G95" t="n">
-        <v>68.00000000000009</v>
+        <v>68.05333333333343</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3753,10 @@
         <v>66</v>
       </c>
       <c r="F96" t="n">
-        <v>15809</v>
+        <v>225.4529</v>
       </c>
       <c r="G96" t="n">
-        <v>67.94666666666676</v>
+        <v>68.00000000000009</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C97" t="n">
         <v>66</v>
       </c>
       <c r="D97" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E97" t="n">
         <v>66</v>
       </c>
       <c r="F97" t="n">
-        <v>11880</v>
+        <v>15809</v>
       </c>
       <c r="G97" t="n">
-        <v>67.89833333333343</v>
+        <v>67.94666666666676</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>66</v>
       </c>
       <c r="D98" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E98" t="n">
         <v>66</v>
       </c>
       <c r="F98" t="n">
-        <v>19432.7857</v>
+        <v>11880</v>
       </c>
       <c r="G98" t="n">
-        <v>67.84833333333341</v>
+        <v>67.89833333333343</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3858,10 @@
         <v>66</v>
       </c>
       <c r="F99" t="n">
-        <v>10133.6919</v>
+        <v>19432.7857</v>
       </c>
       <c r="G99" t="n">
-        <v>67.80166666666675</v>
+        <v>67.84833333333341</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,38 +3881,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="C100" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="D100" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="F100" t="n">
-        <v>1457.7259</v>
+        <v>10133.6919</v>
       </c>
       <c r="G100" t="n">
-        <v>67.74833333333342</v>
+        <v>67.80166666666675</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>66</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3904,38 +3916,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="C101" t="n">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="D101" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="E101" t="n">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="F101" t="n">
-        <v>65.3503</v>
+        <v>1457.7259</v>
       </c>
       <c r="G101" t="n">
-        <v>67.69666666666674</v>
+        <v>67.74833333333342</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>65.5</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,26 +3963,20 @@
         <v>65.7</v>
       </c>
       <c r="F102" t="n">
-        <v>109.1922</v>
+        <v>65.3503</v>
       </c>
       <c r="G102" t="n">
-        <v>67.6433333333334</v>
+        <v>67.69666666666674</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>65.7</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3998,26 +3998,20 @@
         <v>65.7</v>
       </c>
       <c r="F103" t="n">
-        <v>113.1135</v>
+        <v>109.1922</v>
       </c>
       <c r="G103" t="n">
-        <v>67.58833333333341</v>
+        <v>67.6433333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>65.7</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,38 +4021,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="C104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="D104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="E104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="F104" t="n">
-        <v>5785.9063</v>
+        <v>113.1135</v>
       </c>
       <c r="G104" t="n">
-        <v>67.53833333333341</v>
+        <v>67.58833333333341</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>65.7</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4068,38 +4056,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F105" t="n">
-        <v>5310</v>
+        <v>5785.9063</v>
       </c>
       <c r="G105" t="n">
-        <v>67.49333333333341</v>
+        <v>67.53833333333341</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>65.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,38 +4091,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>5310</v>
       </c>
       <c r="G106" t="n">
-        <v>67.46000000000008</v>
+        <v>67.49333333333341</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4150,38 +4126,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F107" t="n">
-        <v>2878.5607</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>67.42333333333342</v>
+        <v>67.46000000000008</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>66.8</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4194,19 +4164,19 @@
         <v>66.7</v>
       </c>
       <c r="C108" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D108" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E108" t="n">
         <v>66.7</v>
       </c>
       <c r="F108" t="n">
-        <v>21000</v>
+        <v>2878.5607</v>
       </c>
       <c r="G108" t="n">
-        <v>67.39000000000007</v>
+        <v>67.42333333333342</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4216,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4230,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1200</v>
+        <v>21000</v>
       </c>
       <c r="G109" t="n">
-        <v>67.3533333333334</v>
+        <v>67.39000000000007</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4255,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4269,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G110" t="n">
-        <v>67.31500000000007</v>
+        <v>67.3533333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4294,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="C111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="D111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="E111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="F111" t="n">
-        <v>130.3482</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>67.27666666666671</v>
+        <v>67.31500000000007</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4333,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4347,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="C112" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="D112" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="E112" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="F112" t="n">
-        <v>11870</v>
+        <v>130.3482</v>
       </c>
       <c r="G112" t="n">
-        <v>67.23500000000006</v>
+        <v>67.27666666666671</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4372,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4386,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F113" t="n">
-        <v>660</v>
+        <v>11870</v>
       </c>
       <c r="G113" t="n">
-        <v>67.19166666666673</v>
+        <v>67.23500000000006</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4411,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4425,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>543.5</v>
+        <v>660</v>
       </c>
       <c r="G114" t="n">
-        <v>67.15000000000006</v>
+        <v>67.19166666666673</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4450,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4464,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F115" t="n">
-        <v>260.2492</v>
+        <v>543.5</v>
       </c>
       <c r="G115" t="n">
-        <v>67.10500000000006</v>
+        <v>67.15000000000006</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4489,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4503,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>915.7728</v>
+        <v>260.2492</v>
       </c>
       <c r="G116" t="n">
-        <v>67.07333333333341</v>
+        <v>67.10500000000006</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4528,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4554,10 +4488,10 @@
         <v>66.8</v>
       </c>
       <c r="F117" t="n">
-        <v>6868</v>
+        <v>915.7728</v>
       </c>
       <c r="G117" t="n">
-        <v>67.03500000000007</v>
+        <v>67.07333333333341</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4567,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="E118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F118" t="n">
-        <v>448.7893</v>
+        <v>6868</v>
       </c>
       <c r="G118" t="n">
-        <v>67.0083333333334</v>
+        <v>67.03500000000007</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4606,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4632,10 +4558,10 @@
         <v>67.2</v>
       </c>
       <c r="F119" t="n">
-        <v>26324.9478</v>
+        <v>448.7893</v>
       </c>
       <c r="G119" t="n">
-        <v>66.98333333333341</v>
+        <v>67.0083333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4645,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4659,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F120" t="n">
-        <v>5603.7425</v>
+        <v>26324.9478</v>
       </c>
       <c r="G120" t="n">
-        <v>66.96166666666674</v>
+        <v>66.98333333333341</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4684,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F121" t="n">
-        <v>2150.6064</v>
+        <v>5603.7425</v>
       </c>
       <c r="G121" t="n">
-        <v>66.93666666666674</v>
+        <v>66.96166666666674</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4723,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4737,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>1635.1403</v>
+        <v>2150.6064</v>
       </c>
       <c r="G122" t="n">
-        <v>66.91000000000007</v>
+        <v>66.93666666666674</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4762,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F123" t="n">
-        <v>110.0951</v>
+        <v>1635.1403</v>
       </c>
       <c r="G123" t="n">
-        <v>66.8783333333334</v>
+        <v>66.91000000000007</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4801,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4815,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>2200</v>
+        <v>110.0951</v>
       </c>
       <c r="G124" t="n">
-        <v>66.86166666666674</v>
+        <v>66.8783333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4840,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4854,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F125" t="n">
-        <v>4236.8188</v>
+        <v>2200</v>
       </c>
       <c r="G125" t="n">
-        <v>66.85000000000007</v>
+        <v>66.86166666666674</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4879,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4893,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>25652.6806</v>
+        <v>4236.8188</v>
       </c>
       <c r="G126" t="n">
-        <v>66.83166666666673</v>
+        <v>66.85000000000007</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4918,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4932,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F127" t="n">
-        <v>3609.6563</v>
+        <v>25652.6806</v>
       </c>
       <c r="G127" t="n">
-        <v>66.81166666666674</v>
+        <v>66.83166666666673</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4957,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4983,10 +4873,10 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>19250.5447</v>
+        <v>3609.6563</v>
       </c>
       <c r="G128" t="n">
-        <v>66.79166666666674</v>
+        <v>66.81166666666674</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4996,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>479.6336</v>
+        <v>19250.5447</v>
       </c>
       <c r="G129" t="n">
-        <v>66.77500000000008</v>
+        <v>66.79166666666674</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5035,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5049,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>68.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>68.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>15337</v>
+        <v>479.6336</v>
       </c>
       <c r="G130" t="n">
-        <v>66.78000000000007</v>
+        <v>66.77500000000008</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5074,11 +4956,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>14970.0598</v>
+        <v>15337</v>
       </c>
       <c r="G131" t="n">
-        <v>66.79166666666674</v>
+        <v>66.78000000000007</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5113,11 +4991,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5127,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="D132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="E132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="F132" t="n">
-        <v>29.2397</v>
+        <v>14970.0598</v>
       </c>
       <c r="G132" t="n">
-        <v>66.80000000000008</v>
+        <v>66.79166666666674</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5152,11 +5026,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5166,36 +5036,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C133" t="n">
-        <v>68.8</v>
+        <v>68.5</v>
       </c>
       <c r="D133" t="n">
-        <v>68.8</v>
+        <v>68.5</v>
       </c>
       <c r="E133" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="F133" t="n">
-        <v>19430</v>
+        <v>29.2397</v>
       </c>
       <c r="G133" t="n">
-        <v>66.81833333333341</v>
+        <v>66.80000000000008</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5205,7 +5071,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="C134" t="n">
         <v>68.8</v>
@@ -5214,27 +5080,23 @@
         <v>68.8</v>
       </c>
       <c r="E134" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F134" t="n">
-        <v>487</v>
+        <v>19430</v>
       </c>
       <c r="G134" t="n">
-        <v>66.84833333333341</v>
+        <v>66.81833333333341</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5256,24 +5118,20 @@
         <v>68.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1254</v>
+        <v>487</v>
       </c>
       <c r="G135" t="n">
-        <v>66.87833333333342</v>
+        <v>66.84833333333341</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5295,24 +5153,20 @@
         <v>68.8</v>
       </c>
       <c r="F136" t="n">
-        <v>3370</v>
+        <v>1254</v>
       </c>
       <c r="G136" t="n">
-        <v>66.90833333333343</v>
+        <v>66.87833333333342</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5322,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C137" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="D137" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E137" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="F137" t="n">
-        <v>15233.1495</v>
+        <v>3370</v>
       </c>
       <c r="G137" t="n">
-        <v>66.92833333333343</v>
+        <v>66.90833333333343</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5347,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5361,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="D138" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="F138" t="n">
-        <v>5711.1747</v>
+        <v>15233.1495</v>
       </c>
       <c r="G138" t="n">
-        <v>66.94833333333342</v>
+        <v>66.92833333333343</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5386,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5403,19 +5249,19 @@
         <v>68.5</v>
       </c>
       <c r="C139" t="n">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
       <c r="D139" t="n">
         <v>68.5</v>
       </c>
       <c r="E139" t="n">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
       <c r="F139" t="n">
-        <v>1828.7454</v>
+        <v>5711.1747</v>
       </c>
       <c r="G139" t="n">
-        <v>66.97500000000009</v>
+        <v>66.94833333333342</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5425,12 +5271,43 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1828.7454</v>
+      </c>
+      <c r="G140" t="n">
+        <v>66.97500000000009</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="C2" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="D2" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="E2" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2917.2488</v>
+        <v>1262.9804</v>
       </c>
       <c r="G2" t="n">
-        <v>67.82666666666671</v>
+        <v>37.77777777777772</v>
       </c>
       <c r="H2" t="n">
-        <v>67.78000000000004</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="C3" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="D3" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="E3" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>25082.1322</v>
       </c>
       <c r="G3" t="n">
-        <v>67.78000000000003</v>
+        <v>17.94871794871793</v>
       </c>
       <c r="H3" t="n">
-        <v>67.80166666666672</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>68.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>68.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C4" t="n">
-        <v>67.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D4" t="n">
-        <v>67.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E4" t="n">
-        <v>67.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F4" t="n">
-        <v>44.3786</v>
+        <v>14083.6112</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74000000000002</v>
+        <v>-100</v>
       </c>
       <c r="H4" t="n">
-        <v>67.82500000000006</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="C5" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="D5" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="E5" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F5" t="n">
-        <v>12522.8306</v>
+        <v>36097.9001</v>
       </c>
       <c r="G5" t="n">
-        <v>67.70000000000002</v>
+        <v>-100</v>
       </c>
       <c r="H5" t="n">
-        <v>67.84500000000006</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="C6" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="D6" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="E6" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F6" t="n">
-        <v>118.0162</v>
+        <v>457</v>
       </c>
       <c r="G6" t="n">
-        <v>67.67333333333336</v>
+        <v>-100</v>
       </c>
       <c r="H6" t="n">
-        <v>67.86500000000005</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>68.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68.3</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="C7" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="D7" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="E7" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F7" t="n">
-        <v>997.9999</v>
+        <v>2610.8431</v>
       </c>
       <c r="G7" t="n">
-        <v>67.65333333333336</v>
+        <v>-100</v>
       </c>
       <c r="H7" t="n">
-        <v>67.88000000000005</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="C8" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F8" t="n">
-        <v>17149.489</v>
+        <v>9591</v>
       </c>
       <c r="G8" t="n">
-        <v>67.62666666666669</v>
+        <v>-81.81818181818042</v>
       </c>
       <c r="H8" t="n">
-        <v>67.89166666666671</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C9" t="n">
-        <v>67.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D9" t="n">
-        <v>67.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E9" t="n">
-        <v>67.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F9" t="n">
-        <v>16383.372</v>
+        <v>879.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>67.59333333333336</v>
+        <v>-81.81818181818065</v>
       </c>
       <c r="H9" t="n">
-        <v>67.9016666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +761,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="D10" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="F10" t="n">
-        <v>1423.3475</v>
+        <v>7949.9877</v>
       </c>
       <c r="G10" t="n">
-        <v>67.56666666666671</v>
+        <v>-74.99999999999822</v>
       </c>
       <c r="H10" t="n">
-        <v>67.91333333333337</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +804,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>14031.9722</v>
+        <v>807.4958</v>
       </c>
       <c r="G11" t="n">
-        <v>67.53333333333337</v>
+        <v>-50</v>
       </c>
       <c r="H11" t="n">
-        <v>67.9216666666667</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>68</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +847,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>754.0211</v>
+        <v>564.2057</v>
       </c>
       <c r="G12" t="n">
-        <v>67.50000000000004</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>67.92833333333337</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +890,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>28547.0217</v>
+        <v>522.6112000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>67.49333333333338</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="H13" t="n">
-        <v>67.93833333333338</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +933,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31762.6006</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9.090909090908621</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="D14" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7726.005</v>
-      </c>
-      <c r="G14" t="n">
-        <v>67.51333333333338</v>
-      </c>
-      <c r="H14" t="n">
-        <v>67.95500000000004</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="K14" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +976,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>27066.3239</v>
+        <v>17680</v>
       </c>
       <c r="G15" t="n">
-        <v>67.54000000000003</v>
+        <v>7.692307692308365</v>
       </c>
       <c r="H15" t="n">
-        <v>67.96333333333338</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +1019,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>15088.1</v>
+        <v>15857.6369</v>
       </c>
       <c r="G16" t="n">
-        <v>67.56000000000003</v>
+        <v>7.692307692308365</v>
       </c>
       <c r="H16" t="n">
-        <v>67.9616666666667</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,33 +1065,38 @@
         <v>68.3</v>
       </c>
       <c r="C17" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-14.28571428571458</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="D17" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="K17" t="n">
         <v>68.3</v>
       </c>
-      <c r="F17" t="n">
-        <v>10090.1616</v>
-      </c>
-      <c r="G17" t="n">
-        <v>67.60666666666671</v>
-      </c>
-      <c r="H17" t="n">
-        <v>67.96833333333338</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C18" t="n">
-        <v>69</v>
+        <v>68.2</v>
       </c>
       <c r="D18" t="n">
-        <v>69.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E18" t="n">
-        <v>69</v>
+        <v>68.2</v>
       </c>
       <c r="F18" t="n">
-        <v>369.4085</v>
+        <v>153.3639</v>
       </c>
       <c r="G18" t="n">
-        <v>67.70666666666671</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="H18" t="n">
-        <v>67.98666666666671</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,37 +1148,42 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>69</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>4891.35</v>
       </c>
       <c r="G19" t="n">
-        <v>67.80000000000004</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="H19" t="n">
-        <v>68.00333333333337</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1</v>
+        <v>68.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9920717423133235</v>
       </c>
     </row>
     <row r="20">
@@ -1122,36 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>3130</v>
+        <v>6742</v>
       </c>
       <c r="G20" t="n">
-        <v>67.90666666666671</v>
+        <v>-16.66666666666588</v>
       </c>
       <c r="H20" t="n">
-        <v>68.03333333333337</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1234,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C21" t="n">
-        <v>69.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D21" t="n">
-        <v>69.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E21" t="n">
-        <v>69.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F21" t="n">
-        <v>9284.5821</v>
+        <v>8886</v>
       </c>
       <c r="G21" t="n">
-        <v>68.03333333333337</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07833333333338</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>67.90000000000001</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1273,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>69.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>71.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>86460.83530000001</v>
+        <v>850</v>
       </c>
       <c r="G22" t="n">
-        <v>68.16666666666671</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>68.12666666666671</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1316,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>70.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>70.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>69.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>110</v>
+        <v>9830</v>
       </c>
       <c r="G23" t="n">
-        <v>68.34000000000005</v>
+        <v>-33.33333333333228</v>
       </c>
       <c r="H23" t="n">
-        <v>68.18333333333338</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1359,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>69.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>69.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>69.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>59.7557</v>
+        <v>2180</v>
       </c>
       <c r="G24" t="n">
-        <v>68.48666666666669</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="H24" t="n">
-        <v>68.23000000000005</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67.90000000000001</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1398,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>69.2</v>
+        <v>67.8</v>
       </c>
       <c r="C25" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D25" t="n">
-        <v>69.2</v>
+        <v>67.8</v>
       </c>
       <c r="E25" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1206.7164</v>
+        <v>1800.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>68.58000000000003</v>
+        <v>-74.99999999999866</v>
       </c>
       <c r="H25" t="n">
-        <v>68.25166666666671</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1441,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C26" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D26" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E26" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F26" t="n">
-        <v>9284.5821</v>
+        <v>4284.8791</v>
       </c>
       <c r="G26" t="n">
-        <v>68.68666666666671</v>
+        <v>-66.66666666666508</v>
       </c>
       <c r="H26" t="n">
-        <v>68.23500000000004</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1484,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>69</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>69</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>1609.2545</v>
+        <v>264.3722</v>
       </c>
       <c r="G27" t="n">
-        <v>68.80000000000004</v>
+        <v>-74.99999999999866</v>
       </c>
       <c r="H27" t="n">
-        <v>68.2266666666667</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>67.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.8</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1523,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>4318.3837</v>
       </c>
       <c r="G28" t="n">
-        <v>68.91333333333338</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="H28" t="n">
-        <v>68.22333333333337</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1566,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="C29" t="n">
-        <v>69.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D29" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="E29" t="n">
-        <v>69.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F29" t="n">
-        <v>4629.4415</v>
+        <v>7590</v>
       </c>
       <c r="G29" t="n">
-        <v>68.99333333333337</v>
+        <v>-66.66666666666508</v>
       </c>
       <c r="H29" t="n">
-        <v>68.22000000000003</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1609,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="C30" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="D30" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="E30" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>3750.0686</v>
       </c>
       <c r="G30" t="n">
-        <v>69.08666666666669</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="H30" t="n">
-        <v>68.22000000000003</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>67.5</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1648,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69.3</v>
+        <v>67.7</v>
       </c>
       <c r="C31" t="n">
-        <v>69.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D31" t="n">
-        <v>69.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E31" t="n">
-        <v>69.3</v>
+        <v>67.7</v>
       </c>
       <c r="F31" t="n">
-        <v>11918.7</v>
+        <v>2917.2488</v>
       </c>
       <c r="G31" t="n">
-        <v>69.19333333333337</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>68.22333333333336</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1691,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="C32" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="D32" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="E32" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="F32" t="n">
-        <v>501.4012</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>69.25333333333336</v>
+        <v>-50</v>
       </c>
       <c r="H32" t="n">
-        <v>68.23500000000003</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1734,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>69.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>69.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>69.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>7948.8811</v>
+        <v>44.3786</v>
       </c>
       <c r="G33" t="n">
-        <v>69.27333333333335</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="H33" t="n">
-        <v>68.24833333333336</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>67.5</v>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1773,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="C34" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="D34" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="E34" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="F34" t="n">
-        <v>7303.9998</v>
+        <v>12522.8306</v>
       </c>
       <c r="G34" t="n">
-        <v>69.29333333333335</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>68.26500000000003</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K34" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1816,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="C35" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="D35" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="E35" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>118.0162</v>
       </c>
       <c r="G35" t="n">
-        <v>69.30000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>68.28000000000002</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1859,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C36" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="D36" t="n">
-        <v>69.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E36" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="F36" t="n">
-        <v>69.6063</v>
+        <v>997.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>69.28666666666669</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="H36" t="n">
-        <v>68.29500000000002</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>67.5</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1898,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="C37" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="D37" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="E37" t="n">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="F37" t="n">
-        <v>133.5903</v>
+        <v>17149.489</v>
       </c>
       <c r="G37" t="n">
-        <v>69.26666666666669</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="H37" t="n">
-        <v>68.31</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1941,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1290</v>
+        <v>16383.372</v>
       </c>
       <c r="G38" t="n">
-        <v>69.18666666666671</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="H38" t="n">
-        <v>68.31999999999999</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1984,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C39" t="n">
-        <v>69</v>
+        <v>67.5</v>
       </c>
       <c r="D39" t="n">
-        <v>69.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E39" t="n">
-        <v>69</v>
+        <v>67.5</v>
       </c>
       <c r="F39" t="n">
-        <v>16366.6961</v>
+        <v>1423.3475</v>
       </c>
       <c r="G39" t="n">
-        <v>69.14666666666672</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>68.33</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +2023,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>68.8</v>
+        <v>67.3</v>
       </c>
       <c r="D40" t="n">
-        <v>68.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>68.8</v>
+        <v>67.3</v>
       </c>
       <c r="F40" t="n">
-        <v>16366.6961</v>
+        <v>14031.9722</v>
       </c>
       <c r="G40" t="n">
-        <v>69.14000000000004</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="H40" t="n">
-        <v>68.33833333333334</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +2066,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.8</v>
+        <v>67.3</v>
       </c>
       <c r="C41" t="n">
-        <v>68.7</v>
+        <v>67.3</v>
       </c>
       <c r="D41" t="n">
-        <v>68.8</v>
+        <v>67.3</v>
       </c>
       <c r="E41" t="n">
-        <v>68.7</v>
+        <v>67.3</v>
       </c>
       <c r="F41" t="n">
-        <v>8320</v>
+        <v>754.0211</v>
       </c>
       <c r="G41" t="n">
-        <v>69.12666666666671</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="H41" t="n">
-        <v>68.34999999999999</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2109,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.8</v>
+        <v>67.5</v>
       </c>
       <c r="C42" t="n">
-        <v>68.8</v>
+        <v>67.5</v>
       </c>
       <c r="D42" t="n">
-        <v>68.8</v>
+        <v>67.5</v>
       </c>
       <c r="E42" t="n">
-        <v>68.8</v>
+        <v>67.5</v>
       </c>
       <c r="F42" t="n">
-        <v>2223</v>
+        <v>28547.0217</v>
       </c>
       <c r="G42" t="n">
-        <v>69.11333333333337</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="H42" t="n">
-        <v>68.36166666666666</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2152,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C43" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>68.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1628</v>
+        <v>7726.005</v>
       </c>
       <c r="G43" t="n">
-        <v>69.09333333333338</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="H43" t="n">
-        <v>68.37499999999999</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2195,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>3499.2794</v>
+        <v>27066.3239</v>
       </c>
       <c r="G44" t="n">
-        <v>69.08666666666672</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="H44" t="n">
-        <v>68.39333333333333</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2238,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C45" t="n">
-        <v>68.8</v>
+        <v>67.8</v>
       </c>
       <c r="D45" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>68.8</v>
+        <v>67.8</v>
       </c>
       <c r="F45" t="n">
-        <v>32616</v>
+        <v>15088.1</v>
       </c>
       <c r="G45" t="n">
-        <v>69.05333333333337</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="H45" t="n">
-        <v>68.40333333333334</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2281,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C46" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="F46" t="n">
-        <v>8943.999900000001</v>
+        <v>10090.1616</v>
       </c>
       <c r="G46" t="n">
-        <v>69.01333333333336</v>
+        <v>52.94117647058803</v>
       </c>
       <c r="H46" t="n">
-        <v>68.41000000000001</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2324,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="F47" t="n">
-        <v>35336.4494</v>
+        <v>369.4085</v>
       </c>
       <c r="G47" t="n">
-        <v>68.98000000000003</v>
+        <v>72.72727272727191</v>
       </c>
       <c r="H47" t="n">
-        <v>68.41666666666669</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2367,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C48" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="D48" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E48" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="F48" t="n">
-        <v>30496.4897</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>68.95333333333338</v>
+        <v>71.42857142857065</v>
       </c>
       <c r="H48" t="n">
-        <v>68.42833333333334</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>69</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2410,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>7059.6948</v>
+        <v>3130</v>
       </c>
       <c r="G49" t="n">
-        <v>68.92000000000004</v>
+        <v>89.99999999999922</v>
       </c>
       <c r="H49" t="n">
-        <v>68.43833333333335</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>69</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2453,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9284.5821</v>
+      </c>
+      <c r="G50" t="n">
+        <v>91.30434782608631</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="C50" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="E50" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="F50" t="n">
-        <v>570</v>
-      </c>
-      <c r="G50" t="n">
-        <v>68.91333333333337</v>
-      </c>
-      <c r="H50" t="n">
-        <v>68.45500000000001</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="K50" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,37 +2496,42 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="C51" t="n">
-        <v>69.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="D51" t="n">
-        <v>69.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>69.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1450</v>
+        <v>86460.83530000001</v>
       </c>
       <c r="G51" t="n">
-        <v>68.90666666666669</v>
+        <v>90.90909090909021</v>
       </c>
       <c r="H51" t="n">
-        <v>68.47500000000004</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>1</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1.026157270029674</v>
       </c>
     </row>
     <row r="52">
@@ -2338,36 +2539,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>68.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>68.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>68.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>3327.7948</v>
+        <v>110</v>
       </c>
       <c r="G52" t="n">
-        <v>68.88000000000002</v>
+        <v>91.66666666666598</v>
       </c>
       <c r="H52" t="n">
-        <v>68.4916666666667</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>69</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2582,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>68.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>68.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>68.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>12460</v>
+        <v>59.7557</v>
       </c>
       <c r="G53" t="n">
-        <v>68.86666666666669</v>
+        <v>58.62068965517191</v>
       </c>
       <c r="H53" t="n">
-        <v>68.50500000000004</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2625,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68.7</v>
+        <v>69.2</v>
       </c>
       <c r="C54" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>68.7</v>
+        <v>69.2</v>
       </c>
       <c r="E54" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>34401</v>
+        <v>1206.7164</v>
       </c>
       <c r="G54" t="n">
-        <v>68.84666666666668</v>
+        <v>31.4285714285718</v>
       </c>
       <c r="H54" t="n">
-        <v>68.51833333333337</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2668,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9284.5821</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17.24137931034496</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K55" t="n">
         <v>69</v>
       </c>
-      <c r="C55" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>69</v>
-      </c>
-      <c r="E55" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>75.536</v>
-      </c>
-      <c r="G55" t="n">
-        <v>68.84666666666668</v>
-      </c>
-      <c r="H55" t="n">
-        <v>68.53333333333337</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2711,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C56" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D56" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E56" t="n">
-        <v>68.7</v>
+        <v>69</v>
       </c>
       <c r="F56" t="n">
-        <v>205.0075</v>
+        <v>1609.2545</v>
       </c>
       <c r="G56" t="n">
-        <v>68.87333333333335</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>68.55500000000005</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2754,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="C57" t="n">
-        <v>68.7</v>
+        <v>69.2</v>
       </c>
       <c r="D57" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.69230769230786</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
         <v>69</v>
       </c>
-      <c r="E57" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>209.4755</v>
-      </c>
-      <c r="G57" t="n">
-        <v>68.86666666666669</v>
-      </c>
-      <c r="H57" t="n">
-        <v>68.57000000000004</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="K57" t="n">
+        <v>69</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2797,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C58" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E58" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>106.8017</v>
+        <v>4629.4415</v>
       </c>
       <c r="G58" t="n">
-        <v>68.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>68.59500000000004</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>69</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2840,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C59" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D59" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="E59" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="F59" t="n">
-        <v>15974.7998</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>68.86666666666666</v>
+        <v>-4.000000000000363</v>
       </c>
       <c r="H59" t="n">
-        <v>68.61500000000004</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>69</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2883,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="C60" t="n">
-        <v>68.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>68.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="F60" t="n">
-        <v>1266.4792</v>
+        <v>11918.7</v>
       </c>
       <c r="G60" t="n">
-        <v>68.86</v>
+        <v>-3.999999999999773</v>
       </c>
       <c r="H60" t="n">
-        <v>68.63500000000003</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>69</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2926,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="C61" t="n">
-        <v>68.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D61" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="E61" t="n">
-        <v>68.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="F61" t="n">
-        <v>18026.999</v>
+        <v>501.4012</v>
       </c>
       <c r="G61" t="n">
-        <v>68.84666666666666</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="H61" t="n">
-        <v>68.65333333333338</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="K61" t="n">
+        <v>69</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2969,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C62" t="n">
-        <v>69.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D62" t="n">
-        <v>69.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="E62" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="F62" t="n">
-        <v>19581.1365</v>
+        <v>7948.8811</v>
       </c>
       <c r="G62" t="n">
-        <v>68.86666666666666</v>
+        <v>-19.99999999999962</v>
       </c>
       <c r="H62" t="n">
-        <v>68.67666666666672</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>69</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,7 +3012,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="C63" t="n">
         <v>69.3</v>
@@ -2765,28 +3021,33 @@
         <v>69.3</v>
       </c>
       <c r="E63" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="F63" t="n">
-        <v>6348.4171</v>
+        <v>7303.9998</v>
       </c>
       <c r="G63" t="n">
-        <v>68.89333333333333</v>
+        <v>49.99999999999734</v>
       </c>
       <c r="H63" t="n">
-        <v>68.70666666666672</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
-        <v>1</v>
+        <v>69.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9993478260869565</v>
       </c>
     </row>
     <row r="64">
@@ -2794,36 +3055,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>33.33333333333228</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
         <v>69.3</v>
       </c>
-      <c r="C64" t="n">
+      <c r="K64" t="n">
         <v>69.3</v>
       </c>
-      <c r="D64" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1380</v>
-      </c>
-      <c r="G64" t="n">
-        <v>68.92666666666666</v>
-      </c>
-      <c r="H64" t="n">
-        <v>68.73500000000006</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +3098,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="D65" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="F65" t="n">
-        <v>7509.7593</v>
+        <v>69.6063</v>
       </c>
       <c r="G65" t="n">
-        <v>68.90666666666667</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="H65" t="n">
-        <v>68.75666666666672</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +3141,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C66" t="n">
-        <v>68.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D66" t="n">
-        <v>68.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E66" t="n">
-        <v>68.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="F66" t="n">
-        <v>193</v>
+        <v>133.5903</v>
       </c>
       <c r="G66" t="n">
-        <v>68.87333333333332</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>68.77500000000006</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +3184,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>36630.601</v>
+        <v>1290</v>
       </c>
       <c r="G67" t="n">
-        <v>68.85999999999999</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="H67" t="n">
-        <v>68.79333333333339</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3227,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D68" t="n">
-        <v>68.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="F68" t="n">
-        <v>35890.499</v>
+        <v>16366.6961</v>
       </c>
       <c r="G68" t="n">
-        <v>68.85333333333331</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="H68" t="n">
-        <v>68.81166666666674</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K68" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3270,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C69" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D69" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E69" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F69" t="n">
-        <v>4510.4774</v>
+        <v>16366.6961</v>
       </c>
       <c r="G69" t="n">
-        <v>68.84666666666664</v>
+        <v>-75.00000000000134</v>
       </c>
       <c r="H69" t="n">
-        <v>68.83166666666675</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>69</v>
+      </c>
+      <c r="K69" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3313,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C70" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D70" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E70" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F70" t="n">
-        <v>108.0386</v>
+        <v>8320</v>
       </c>
       <c r="G70" t="n">
-        <v>68.8333333333333</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="H70" t="n">
-        <v>68.85000000000009</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3356,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C71" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D71" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E71" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F71" t="n">
-        <v>128.7778</v>
+        <v>2223</v>
       </c>
       <c r="G71" t="n">
-        <v>68.79999999999997</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="H71" t="n">
-        <v>68.87166666666675</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K71" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3399,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>68.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>780</v>
+        <v>1628</v>
       </c>
       <c r="G72" t="n">
-        <v>68.7533333333333</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="H72" t="n">
-        <v>68.88333333333343</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3442,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D73" t="n">
-        <v>68.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E73" t="n">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>9597.870800000001</v>
+        <v>3499.2794</v>
       </c>
       <c r="G73" t="n">
-        <v>68.67999999999998</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="H73" t="n">
-        <v>68.89166666666675</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3485,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="C74" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="D74" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="E74" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="F74" t="n">
-        <v>29189.5121</v>
+        <v>32616</v>
       </c>
       <c r="G74" t="n">
-        <v>68.60666666666664</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="H74" t="n">
-        <v>68.88833333333342</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3528,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.5</v>
+        <v>68.8</v>
       </c>
       <c r="C75" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="D75" t="n">
-        <v>67.5</v>
+        <v>68.8</v>
       </c>
       <c r="E75" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="F75" t="n">
-        <v>31251.1259</v>
+        <v>8943.999900000001</v>
       </c>
       <c r="G75" t="n">
-        <v>68.49333333333331</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="H75" t="n">
-        <v>68.87333333333343</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K75" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,37 +3571,42 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="C76" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="D76" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="E76" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="F76" t="n">
-        <v>2371.5044</v>
+        <v>35336.4494</v>
       </c>
       <c r="G76" t="n">
-        <v>68.38666666666664</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="H76" t="n">
-        <v>68.8600000000001</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>1</v>
+        <v>68.8</v>
+      </c>
+      <c r="K76" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9877849927849928</v>
       </c>
     </row>
     <row r="77">
@@ -3288,36 +3614,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>67</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>67.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>67</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>11664.8538</v>
+        <v>30496.4897</v>
       </c>
       <c r="G77" t="n">
-        <v>68.24666666666664</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="H77" t="n">
-        <v>68.83666666666677</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>68.8</v>
+      </c>
+      <c r="K77" t="n">
+        <v>68.8</v>
+      </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3653,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="C78" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="D78" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="E78" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="F78" t="n">
-        <v>5985.3124</v>
+        <v>7059.6948</v>
       </c>
       <c r="G78" t="n">
-        <v>68.09333333333332</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>68.80333333333344</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K78" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3696,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>67.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>67.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>67.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>11410</v>
+        <v>570</v>
       </c>
       <c r="G79" t="n">
-        <v>67.94666666666666</v>
+        <v>39.99999999999858</v>
       </c>
       <c r="H79" t="n">
-        <v>68.77166666666677</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3739,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>2086.4274</v>
+        <v>1450</v>
       </c>
       <c r="G80" t="n">
-        <v>67.81999999999999</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="H80" t="n">
-        <v>68.7350000000001</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3778,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C81" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="D81" t="n">
-        <v>66.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="E81" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="F81" t="n">
-        <v>7645.5835</v>
+        <v>3327.7948</v>
       </c>
       <c r="G81" t="n">
-        <v>67.69999999999999</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="H81" t="n">
-        <v>68.69166666666678</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K81" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3821,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="C82" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="D82" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="E82" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="F82" t="n">
-        <v>230.812</v>
+        <v>12460</v>
       </c>
       <c r="G82" t="n">
-        <v>67.57333333333332</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="H82" t="n">
-        <v>68.64500000000011</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3864,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="C83" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="D83" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="E83" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1747.9999</v>
+        <v>34401</v>
       </c>
       <c r="G83" t="n">
-        <v>67.44666666666664</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="H83" t="n">
-        <v>68.58833333333342</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>68.7</v>
+      </c>
+      <c r="K83" t="n">
+        <v>68.7</v>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3903,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="C84" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="D84" t="n">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="E84" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="F84" t="n">
-        <v>186.3615</v>
+        <v>75.536</v>
       </c>
       <c r="G84" t="n">
-        <v>67.31999999999998</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>68.54000000000009</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K84" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3946,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="F85" t="n">
-        <v>1085.8795</v>
+        <v>205.0075</v>
       </c>
       <c r="G85" t="n">
-        <v>67.1933333333333</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="H85" t="n">
-        <v>68.50333333333342</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3989,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="C86" t="n">
-        <v>66.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D86" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E86" t="n">
-        <v>66.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F86" t="n">
-        <v>5589.143</v>
+        <v>209.4755</v>
       </c>
       <c r="G86" t="n">
-        <v>67.07999999999997</v>
+        <v>-12.50000000000033</v>
       </c>
       <c r="H86" t="n">
-        <v>68.47000000000008</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K86" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +4032,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>66.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>106.8017</v>
       </c>
       <c r="G87" t="n">
-        <v>66.9933333333333</v>
+        <v>15.78947368421068</v>
       </c>
       <c r="H87" t="n">
-        <v>68.43166666666676</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +4075,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="C88" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="D88" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="E88" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
       <c r="F88" t="n">
-        <v>2389</v>
+        <v>15974.7998</v>
       </c>
       <c r="G88" t="n">
-        <v>66.90666666666662</v>
+        <v>-15.78947368421068</v>
       </c>
       <c r="H88" t="n">
-        <v>68.39000000000009</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +4118,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C89" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D89" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E89" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F89" t="n">
-        <v>625.9835</v>
+        <v>1266.4792</v>
       </c>
       <c r="G89" t="n">
-        <v>66.83333333333329</v>
+        <v>-20</v>
       </c>
       <c r="H89" t="n">
-        <v>68.34833333333341</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +4161,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C90" t="n">
-        <v>66.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E90" t="n">
-        <v>66.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1677.0169</v>
+        <v>18026.999</v>
       </c>
       <c r="G90" t="n">
-        <v>66.80666666666662</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="H90" t="n">
-        <v>68.30333333333343</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K90" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +4204,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C91" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>66.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F91" t="n">
-        <v>34573.2405</v>
+        <v>19581.1365</v>
       </c>
       <c r="G91" t="n">
-        <v>66.77999999999994</v>
+        <v>18.18181818181801</v>
       </c>
       <c r="H91" t="n">
-        <v>68.25666666666676</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K91" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +4247,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.5</v>
+        <v>69.2</v>
       </c>
       <c r="C92" t="n">
-        <v>66.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D92" t="n">
-        <v>66.5</v>
+        <v>69.3</v>
       </c>
       <c r="E92" t="n">
-        <v>66.40000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="F92" t="n">
-        <v>2893.3319</v>
+        <v>6348.4171</v>
       </c>
       <c r="G92" t="n">
-        <v>66.73999999999995</v>
+        <v>25</v>
       </c>
       <c r="H92" t="n">
-        <v>68.20833333333343</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +4290,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C93" t="n">
-        <v>66.2</v>
+        <v>69.3</v>
       </c>
       <c r="D93" t="n">
-        <v>66.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E93" t="n">
-        <v>66.2</v>
+        <v>69.3</v>
       </c>
       <c r="F93" t="n">
-        <v>29426.5457</v>
+        <v>1380</v>
       </c>
       <c r="G93" t="n">
-        <v>66.68666666666662</v>
+        <v>21.73913043478277</v>
       </c>
       <c r="H93" t="n">
-        <v>68.15666666666675</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +4333,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>66.2</v>
+        <v>68.8</v>
       </c>
       <c r="D94" t="n">
-        <v>66.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>66.2</v>
+        <v>68.8</v>
       </c>
       <c r="F94" t="n">
-        <v>14561.2047</v>
+        <v>7509.7593</v>
       </c>
       <c r="G94" t="n">
-        <v>66.62666666666662</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="H94" t="n">
-        <v>68.10500000000008</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +4376,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>9922.9722</v>
+        <v>193</v>
       </c>
       <c r="G95" t="n">
-        <v>66.5733333333333</v>
+        <v>-4.347826086956898</v>
       </c>
       <c r="H95" t="n">
-        <v>68.05333333333343</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K95" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,37 +4419,42 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>225.4529</v>
+        <v>36630.601</v>
       </c>
       <c r="G96" t="n">
-        <v>66.51999999999997</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="H96" t="n">
-        <v>68.00000000000009</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
-        <v>1</v>
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K96" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9935443959243084</v>
       </c>
     </row>
     <row r="97">
@@ -4048,36 +4462,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>15809</v>
+        <v>35890.499</v>
       </c>
       <c r="G97" t="n">
-        <v>66.4733333333333</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="H97" t="n">
-        <v>67.94666666666676</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K97" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4505,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>11880</v>
+        <v>4510.4774</v>
       </c>
       <c r="G98" t="n">
-        <v>66.42666666666663</v>
+        <v>-6.666666666667171</v>
       </c>
       <c r="H98" t="n">
-        <v>67.89833333333343</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K98" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4544,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>19432.7857</v>
+        <v>108.0386</v>
       </c>
       <c r="G99" t="n">
-        <v>66.37999999999995</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>67.84833333333341</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4587,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>10133.6919</v>
+        <v>128.7778</v>
       </c>
       <c r="G100" t="n">
-        <v>66.33333333333329</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="H100" t="n">
-        <v>67.80166666666675</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4630,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>65.5</v>
+        <v>68</v>
       </c>
       <c r="D101" t="n">
-        <v>65.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>65.5</v>
+        <v>68</v>
       </c>
       <c r="F101" t="n">
-        <v>1457.7259</v>
+        <v>780</v>
       </c>
       <c r="G101" t="n">
-        <v>66.23999999999995</v>
+        <v>-100</v>
       </c>
       <c r="H101" t="n">
-        <v>67.74833333333342</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="K101" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4673,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>65.7</v>
+        <v>68</v>
       </c>
       <c r="D102" t="n">
-        <v>65.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>65.7</v>
+        <v>68</v>
       </c>
       <c r="F102" t="n">
-        <v>65.3503</v>
+        <v>9597.870800000001</v>
       </c>
       <c r="G102" t="n">
-        <v>66.17333333333328</v>
+        <v>-100</v>
       </c>
       <c r="H102" t="n">
-        <v>67.69666666666674</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>68</v>
+      </c>
+      <c r="K102" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4716,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>65.7</v>
+        <v>67.7</v>
       </c>
       <c r="C103" t="n">
-        <v>65.7</v>
+        <v>67.7</v>
       </c>
       <c r="D103" t="n">
-        <v>65.7</v>
+        <v>67.7</v>
       </c>
       <c r="E103" t="n">
-        <v>65.7</v>
+        <v>67.7</v>
       </c>
       <c r="F103" t="n">
-        <v>109.1922</v>
+        <v>29189.5121</v>
       </c>
       <c r="G103" t="n">
-        <v>66.10666666666661</v>
+        <v>-100</v>
       </c>
       <c r="H103" t="n">
-        <v>67.6433333333334</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>68</v>
+      </c>
+      <c r="K103" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4759,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="C104" t="n">
-        <v>65.7</v>
+        <v>67</v>
       </c>
       <c r="D104" t="n">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="E104" t="n">
-        <v>65.7</v>
+        <v>67</v>
       </c>
       <c r="F104" t="n">
-        <v>113.1135</v>
+        <v>31251.1259</v>
       </c>
       <c r="G104" t="n">
-        <v>66.04666666666661</v>
+        <v>-100</v>
       </c>
       <c r="H104" t="n">
-        <v>67.58833333333341</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,40 +4802,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65.8</v>
+        <v>67</v>
       </c>
       <c r="C105" t="n">
-        <v>65.8</v>
+        <v>67</v>
       </c>
       <c r="D105" t="n">
-        <v>65.8</v>
+        <v>67</v>
       </c>
       <c r="E105" t="n">
-        <v>65.8</v>
+        <v>67</v>
       </c>
       <c r="F105" t="n">
-        <v>5785.9063</v>
+        <v>2371.5044</v>
       </c>
       <c r="G105" t="n">
-        <v>65.99333333333328</v>
+        <v>-100</v>
       </c>
       <c r="H105" t="n">
-        <v>67.53833333333341</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K105" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="L105" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,44 +4845,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>66.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D106" t="n">
-        <v>66.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>66.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="F106" t="n">
-        <v>5310</v>
+        <v>11664.8538</v>
       </c>
       <c r="G106" t="n">
-        <v>65.95999999999995</v>
+        <v>-100</v>
       </c>
       <c r="H106" t="n">
-        <v>67.49333333333341</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K106" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L106" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,44 +4888,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="C107" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="D107" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="E107" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>5985.3124</v>
       </c>
       <c r="G107" t="n">
-        <v>65.98666666666662</v>
+        <v>-100</v>
       </c>
       <c r="H107" t="n">
-        <v>67.46000000000008</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K107" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="L107" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,40 +4931,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>66.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>66.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>66.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>66.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>2878.5607</v>
+        <v>11410</v>
       </c>
       <c r="G108" t="n">
-        <v>66.01999999999995</v>
+        <v>-88.23529411764764</v>
       </c>
       <c r="H108" t="n">
-        <v>67.42333333333342</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="L108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,42 +4974,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>21000</v>
+        <v>2086.4274</v>
       </c>
       <c r="G109" t="n">
-        <v>66.05999999999995</v>
+        <v>-89.47368421052678</v>
       </c>
       <c r="H109" t="n">
-        <v>67.39000000000007</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,39 +5020,38 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D110" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E110" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7645.5835</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-85.71428571428645</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="F110" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G110" t="n">
-        <v>66.11333333333329</v>
-      </c>
-      <c r="H110" t="n">
-        <v>67.3533333333334</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="K110" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,42 +5060,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>230.812</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-86.6666666666673</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
         <v>66.8</v>
       </c>
-      <c r="C111" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D111" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>400</v>
-      </c>
-      <c r="G111" t="n">
-        <v>66.16666666666661</v>
-      </c>
-      <c r="H111" t="n">
-        <v>67.31500000000007</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="K111" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,43 +5103,42 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="C112" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="D112" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="E112" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="F112" t="n">
-        <v>130.3482</v>
+        <v>1747.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>66.19999999999996</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H112" t="n">
-        <v>67.27666666666671</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>1</v>
+        <v>66.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0.9673032069970847</v>
       </c>
     </row>
     <row r="113">
@@ -4704,42 +5146,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="C113" t="n">
-        <v>66.2</v>
+        <v>66.7</v>
       </c>
       <c r="D113" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="E113" t="n">
-        <v>66.2</v>
+        <v>66.7</v>
       </c>
       <c r="F113" t="n">
-        <v>11870</v>
+        <v>186.3615</v>
       </c>
       <c r="G113" t="n">
-        <v>66.2133333333333</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="H113" t="n">
-        <v>67.23500000000006</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K113" t="n">
         <v>66.8</v>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,42 +5189,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C114" t="n">
-        <v>66.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D114" t="n">
-        <v>66.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E114" t="n">
-        <v>66.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F114" t="n">
-        <v>660</v>
+        <v>1085.8795</v>
       </c>
       <c r="G114" t="n">
-        <v>66.21999999999996</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="H114" t="n">
-        <v>67.19166666666673</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K114" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,44 +5228,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="C115" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="E115" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>543.5</v>
+        <v>5589.143</v>
       </c>
       <c r="G115" t="n">
-        <v>66.23999999999995</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="H115" t="n">
-        <v>67.15000000000006</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="K115" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="L115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,42 +5271,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C116" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D116" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="E116" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F116" t="n">
-        <v>260.2492</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>66.29999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>67.10500000000006</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,42 +5314,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C117" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D117" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E117" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F117" t="n">
-        <v>915.7728</v>
+        <v>2389</v>
       </c>
       <c r="G117" t="n">
-        <v>66.37333333333328</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="H117" t="n">
-        <v>67.07333333333341</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K117" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,42 +5353,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>6868</v>
+        <v>625.9835</v>
       </c>
       <c r="G118" t="n">
-        <v>66.44666666666662</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="H118" t="n">
-        <v>67.03500000000007</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,42 +5396,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>448.7893</v>
+        <v>1677.0169</v>
       </c>
       <c r="G119" t="n">
-        <v>66.54666666666661</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>67.0083333333334</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,42 +5439,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>26324.9478</v>
+        <v>34573.2405</v>
       </c>
       <c r="G120" t="n">
-        <v>66.63999999999994</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="H120" t="n">
-        <v>66.98333333333341</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K120" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,42 +5478,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="C121" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="E121" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>5603.7425</v>
+        <v>2893.3319</v>
       </c>
       <c r="G121" t="n">
-        <v>66.71999999999994</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="H121" t="n">
-        <v>66.96166666666674</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,42 +5521,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D122" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F122" t="n">
-        <v>2150.6064</v>
+        <v>29426.5457</v>
       </c>
       <c r="G122" t="n">
-        <v>66.77333333333328</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="H122" t="n">
-        <v>66.93666666666674</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K122" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5146,42 +5564,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67.7</v>
+        <v>66.2</v>
       </c>
       <c r="C123" t="n">
-        <v>67.7</v>
+        <v>66.2</v>
       </c>
       <c r="D123" t="n">
-        <v>67.7</v>
+        <v>66.2</v>
       </c>
       <c r="E123" t="n">
-        <v>67.7</v>
+        <v>66.2</v>
       </c>
       <c r="F123" t="n">
-        <v>1635.1403</v>
+        <v>14561.2047</v>
       </c>
       <c r="G123" t="n">
-        <v>66.83999999999995</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="H123" t="n">
-        <v>66.91000000000007</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,42 +5607,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F124" t="n">
-        <v>110.0951</v>
+        <v>9922.9722</v>
       </c>
       <c r="G124" t="n">
-        <v>66.87999999999995</v>
+        <v>-100</v>
       </c>
       <c r="H124" t="n">
-        <v>66.8783333333334</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,42 +5650,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="C125" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="D125" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="E125" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="F125" t="n">
-        <v>2200</v>
+        <v>225.4529</v>
       </c>
       <c r="G125" t="n">
-        <v>66.93999999999996</v>
+        <v>-100</v>
       </c>
       <c r="H125" t="n">
-        <v>66.86166666666674</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K125" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,42 +5693,41 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="C126" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D126" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="E126" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="F126" t="n">
-        <v>4236.8188</v>
+        <v>15809</v>
       </c>
       <c r="G126" t="n">
-        <v>67.01333333333329</v>
+        <v>-100</v>
       </c>
       <c r="H126" t="n">
-        <v>66.85000000000007</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>66</v>
+      </c>
+      <c r="K126" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,42 +5736,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="D127" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="F127" t="n">
-        <v>25652.6806</v>
+        <v>11880</v>
       </c>
       <c r="G127" t="n">
-        <v>67.07999999999996</v>
+        <v>-100</v>
       </c>
       <c r="H127" t="n">
-        <v>66.83166666666673</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>66</v>
+      </c>
+      <c r="K127" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,42 +5779,41 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="C128" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="D128" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="E128" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F128" t="n">
-        <v>3609.6563</v>
+        <v>19432.7857</v>
       </c>
       <c r="G128" t="n">
-        <v>67.15999999999995</v>
+        <v>-100</v>
       </c>
       <c r="H128" t="n">
-        <v>66.81166666666674</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>66</v>
+      </c>
+      <c r="K128" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,42 +5822,41 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="C129" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="D129" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="E129" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F129" t="n">
-        <v>19250.5447</v>
+        <v>10133.6919</v>
       </c>
       <c r="G129" t="n">
-        <v>67.24666666666663</v>
+        <v>-100</v>
       </c>
       <c r="H129" t="n">
-        <v>66.79166666666674</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>66</v>
+      </c>
+      <c r="K129" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,42 +5865,41 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>67.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C130" t="n">
-        <v>67.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D130" t="n">
-        <v>67.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E130" t="n">
-        <v>67.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F130" t="n">
-        <v>479.6336</v>
+        <v>1457.7259</v>
       </c>
       <c r="G130" t="n">
-        <v>67.3333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H130" t="n">
-        <v>66.77500000000008</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+        <v>66</v>
+      </c>
+      <c r="K130" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,42 +5908,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.09999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="C131" t="n">
-        <v>68.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="D131" t="n">
-        <v>68.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="E131" t="n">
-        <v>68.09999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="F131" t="n">
-        <v>15337</v>
+        <v>65.3503</v>
       </c>
       <c r="G131" t="n">
-        <v>67.49999999999997</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="H131" t="n">
-        <v>66.78000000000007</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,43 +5951,42 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.7</v>
+        <v>65.7</v>
       </c>
       <c r="C132" t="n">
-        <v>68.7</v>
+        <v>65.7</v>
       </c>
       <c r="D132" t="n">
-        <v>68.7</v>
+        <v>65.7</v>
       </c>
       <c r="E132" t="n">
-        <v>68.7</v>
+        <v>65.7</v>
       </c>
       <c r="F132" t="n">
-        <v>14970.0598</v>
+        <v>109.1922</v>
       </c>
       <c r="G132" t="n">
-        <v>67.62666666666664</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="H132" t="n">
-        <v>66.79166666666674</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>1</v>
+        <v>65.7</v>
+      </c>
+      <c r="K132" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>0.9814864864864866</v>
       </c>
     </row>
     <row r="133">
@@ -5586,42 +5994,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.5</v>
+        <v>65.7</v>
       </c>
       <c r="C133" t="n">
-        <v>68.5</v>
+        <v>65.7</v>
       </c>
       <c r="D133" t="n">
-        <v>68.5</v>
+        <v>65.7</v>
       </c>
       <c r="E133" t="n">
-        <v>68.5</v>
+        <v>65.7</v>
       </c>
       <c r="F133" t="n">
-        <v>29.2397</v>
+        <v>113.1135</v>
       </c>
       <c r="G133" t="n">
-        <v>67.73999999999998</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="H133" t="n">
-        <v>66.80000000000008</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,42 +6037,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.7</v>
+        <v>65.8</v>
       </c>
       <c r="C134" t="n">
-        <v>68.8</v>
+        <v>65.8</v>
       </c>
       <c r="D134" t="n">
-        <v>68.8</v>
+        <v>65.8</v>
       </c>
       <c r="E134" t="n">
-        <v>68.7</v>
+        <v>65.8</v>
       </c>
       <c r="F134" t="n">
-        <v>19430</v>
+        <v>5785.9063</v>
       </c>
       <c r="G134" t="n">
-        <v>67.84666666666664</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="H134" t="n">
-        <v>66.81833333333341</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K134" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,42 +6076,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>68.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>68.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>68.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>487</v>
+        <v>5310</v>
       </c>
       <c r="G135" t="n">
-        <v>67.9533333333333</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="H135" t="n">
-        <v>66.84833333333341</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="K135" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,42 +6119,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.8</v>
+        <v>66.8</v>
       </c>
       <c r="C136" t="n">
-        <v>68.8</v>
+        <v>66.8</v>
       </c>
       <c r="D136" t="n">
-        <v>68.8</v>
+        <v>66.8</v>
       </c>
       <c r="E136" t="n">
-        <v>68.8</v>
+        <v>66.8</v>
       </c>
       <c r="F136" t="n">
-        <v>1254</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>68.0533333333333</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="H136" t="n">
-        <v>66.87833333333342</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,42 +6162,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.8</v>
+        <v>66.7</v>
       </c>
       <c r="C137" t="n">
-        <v>68.8</v>
+        <v>66.7</v>
       </c>
       <c r="D137" t="n">
-        <v>68.8</v>
+        <v>66.7</v>
       </c>
       <c r="E137" t="n">
-        <v>68.8</v>
+        <v>66.7</v>
       </c>
       <c r="F137" t="n">
-        <v>3370</v>
+        <v>2878.5607</v>
       </c>
       <c r="G137" t="n">
-        <v>68.1333333333333</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="H137" t="n">
-        <v>66.90833333333343</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
         <v>66.8</v>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="K137" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,42 +6201,41 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C138" t="n">
-        <v>68.2</v>
+        <v>66.8</v>
       </c>
       <c r="D138" t="n">
-        <v>68.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E138" t="n">
-        <v>68.2</v>
+        <v>66.7</v>
       </c>
       <c r="F138" t="n">
-        <v>15233.1495</v>
+        <v>21000</v>
       </c>
       <c r="G138" t="n">
-        <v>68.16666666666661</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="H138" t="n">
-        <v>66.92833333333343</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K138" t="n">
         <v>66.8</v>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,42 +6244,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>68.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>68.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>68.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>5711.1747</v>
+        <v>1200</v>
       </c>
       <c r="G139" t="n">
-        <v>68.22666666666662</v>
+        <v>87.50000000000067</v>
       </c>
       <c r="H139" t="n">
-        <v>66.94833333333342</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
         <v>66.8</v>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="K139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,42 +6287,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>68.5</v>
+        <v>66.8</v>
       </c>
       <c r="C140" t="n">
-        <v>68.5</v>
+        <v>66.8</v>
       </c>
       <c r="D140" t="n">
-        <v>68.5</v>
+        <v>66.8</v>
       </c>
       <c r="E140" t="n">
-        <v>68.5</v>
+        <v>66.8</v>
       </c>
       <c r="F140" t="n">
-        <v>1828.7454</v>
+        <v>400</v>
       </c>
       <c r="G140" t="n">
-        <v>68.27333333333328</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="H140" t="n">
-        <v>66.97500000000009</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K140" t="n">
         <v>66.8</v>
       </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5938,42 +6330,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C141" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D141" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E141" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F141" t="n">
-        <v>4925.9553</v>
+        <v>130.3482</v>
       </c>
       <c r="G141" t="n">
-        <v>68.2866666666666</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="H141" t="n">
-        <v>66.99666666666675</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
         <v>66.8</v>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="K141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,42 +6373,41 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68</v>
+        <v>66.3</v>
       </c>
       <c r="C142" t="n">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="D142" t="n">
-        <v>68</v>
+        <v>66.3</v>
       </c>
       <c r="E142" t="n">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>11870</v>
       </c>
       <c r="G142" t="n">
-        <v>68.31999999999994</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="H142" t="n">
-        <v>67.01833333333342</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K142" t="n">
         <v>66.8</v>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,42 +6416,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>68</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>68</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>68</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>2930</v>
+        <v>660</v>
       </c>
       <c r="G143" t="n">
-        <v>68.35999999999993</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="H143" t="n">
-        <v>67.04000000000009</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K143" t="n">
         <v>66.8</v>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,42 +6459,41 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C144" t="n">
-        <v>68.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D144" t="n">
-        <v>68.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E144" t="n">
-        <v>68.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F144" t="n">
-        <v>456.068</v>
+        <v>543.5</v>
       </c>
       <c r="G144" t="n">
-        <v>68.40666666666658</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="H144" t="n">
-        <v>67.06333333333343</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K144" t="n">
         <v>66.8</v>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,42 +6502,41 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>68</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>179287.1377</v>
+        <v>260.2492</v>
       </c>
       <c r="G145" t="n">
-        <v>68.33333333333326</v>
+        <v>-28.57142857142755</v>
       </c>
       <c r="H145" t="n">
-        <v>67.0600000000001</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K145" t="n">
         <v>66.8</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,42 +6545,41 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68</v>
+        <v>66.8</v>
       </c>
       <c r="C146" t="n">
-        <v>68.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D146" t="n">
-        <v>68.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E146" t="n">
-        <v>68</v>
+        <v>66.8</v>
       </c>
       <c r="F146" t="n">
-        <v>869</v>
+        <v>915.7728</v>
       </c>
       <c r="G146" t="n">
-        <v>68.27999999999992</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="H146" t="n">
-        <v>67.0800000000001</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K146" t="n">
         <v>66.8</v>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,42 +6588,41 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>68.2</v>
+        <v>66.8</v>
       </c>
       <c r="C147" t="n">
-        <v>68.3</v>
+        <v>66.8</v>
       </c>
       <c r="D147" t="n">
-        <v>68.3</v>
+        <v>66.8</v>
       </c>
       <c r="E147" t="n">
-        <v>68.2</v>
+        <v>66.8</v>
       </c>
       <c r="F147" t="n">
-        <v>36354</v>
+        <v>6868</v>
       </c>
       <c r="G147" t="n">
-        <v>68.25333333333325</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>67.10666666666677</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
         <v>66.8</v>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="K147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,42 +6631,41 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.8</v>
+        <v>67.2</v>
       </c>
       <c r="C148" t="n">
-        <v>68.8</v>
+        <v>67.2</v>
       </c>
       <c r="D148" t="n">
-        <v>68.8</v>
+        <v>67.2</v>
       </c>
       <c r="E148" t="n">
-        <v>68.8</v>
+        <v>67.2</v>
       </c>
       <c r="F148" t="n">
-        <v>5516.1</v>
+        <v>448.7893</v>
       </c>
       <c r="G148" t="n">
-        <v>68.27333333333324</v>
+        <v>15.78947368421021</v>
       </c>
       <c r="H148" t="n">
-        <v>67.14166666666678</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
         <v>66.8</v>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="K148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,43 +6674,42 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>68.7</v>
+        <v>67.2</v>
       </c>
       <c r="C149" t="n">
-        <v>68.7</v>
+        <v>67.2</v>
       </c>
       <c r="D149" t="n">
-        <v>68.7</v>
+        <v>67.2</v>
       </c>
       <c r="E149" t="n">
-        <v>68.7</v>
+        <v>67.2</v>
       </c>
       <c r="F149" t="n">
-        <v>10000</v>
+        <v>26324.9478</v>
       </c>
       <c r="G149" t="n">
-        <v>68.26666666666658</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="H149" t="n">
-        <v>67.17666666666678</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K149" t="n">
         <v>66.8</v>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
-        <v>1</v>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1.000988023952096</v>
       </c>
     </row>
     <row r="150">
@@ -6334,42 +6717,1272 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5603.7425</v>
+      </c>
+      <c r="G150" t="n">
+        <v>49.99999999999956</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2150.6064</v>
+      </c>
+      <c r="G151" t="n">
+        <v>87.49999999999901</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1635.1403</v>
+      </c>
+      <c r="G152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K152" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>110.0951</v>
+      </c>
+      <c r="G153" t="n">
+        <v>64.70588235294157</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="K153" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G154" t="n">
+        <v>70.00000000000007</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4236.8188</v>
+      </c>
+      <c r="G155" t="n">
+        <v>64.70588235294157</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25652.6806</v>
+      </c>
+      <c r="G156" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K156" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3609.6563</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.11111111111129</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19250.5447</v>
+      </c>
+      <c r="G158" t="n">
+        <v>11.11111111111129</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K158" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>479.6336</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15.78947368421045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K159" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15337</v>
+      </c>
+      <c r="G160" t="n">
+        <v>44.82758620689686</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14970.0598</v>
+      </c>
+      <c r="G161" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K161" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>29.2397</v>
+      </c>
+      <c r="G162" t="n">
+        <v>37.93103448275835</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K162" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19430</v>
+      </c>
+      <c r="G163" t="n">
+        <v>35.71428571428557</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K163" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>487</v>
+      </c>
+      <c r="G164" t="n">
+        <v>33.33333333333298</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K164" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G165" t="n">
+        <v>56.52173913043473</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K165" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3370</v>
+      </c>
+      <c r="G166" t="n">
+        <v>63.63636363636317</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K166" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C167" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D167" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E167" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>15233.1495</v>
+      </c>
+      <c r="G167" t="n">
+        <v>28.5714285714285</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K167" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1.000899705014749</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5711.1747</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25.925925925926</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1828.7454</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-25.00000000000044</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4925.9553</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-33.33333333333386</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K170" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>68</v>
+      </c>
+      <c r="C171" t="n">
+        <v>68</v>
+      </c>
+      <c r="D171" t="n">
+        <v>68</v>
+      </c>
+      <c r="E171" t="n">
+        <v>68</v>
+      </c>
+      <c r="F171" t="n">
+        <v>200</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-29.41176470588255</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K171" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68</v>
+      </c>
+      <c r="C172" t="n">
+        <v>68</v>
+      </c>
+      <c r="D172" t="n">
+        <v>68</v>
+      </c>
+      <c r="E172" t="n">
+        <v>68</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-57.14285714285728</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>68</v>
+      </c>
+      <c r="K172" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>456.068</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-46.6666666666673</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>68</v>
+      </c>
+      <c r="K173" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>68</v>
+      </c>
+      <c r="C174" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>179287.1377</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-74.19354838709717</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K174" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>68</v>
+      </c>
+      <c r="C175" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>68</v>
+      </c>
+      <c r="F175" t="n">
+        <v>869</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-14.89361702127674</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K175" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>36354</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.325581395348714</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K176" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5516.1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>10.63829787234045</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4.347826086956602</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K178" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="E150" t="n">
+      <c r="C179" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="F150" t="n">
+      <c r="D179" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="F179" t="n">
         <v>10000</v>
       </c>
-      <c r="G150" t="n">
-        <v>68.25333333333325</v>
-      </c>
-      <c r="H150" t="n">
-        <v>67.21000000000011</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="G179" t="n">
+        <v>11.62790697674423</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K179" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>67.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D2" t="n">
-        <v>67.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E2" t="n">
-        <v>67.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>27066.3239</v>
+        <v>9840</v>
       </c>
       <c r="G2" t="n">
-        <v>303496.718318806</v>
+        <v>102378.5412</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68.3</v>
+        <v>66.2</v>
       </c>
       <c r="C3" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="D3" t="n">
-        <v>68.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E3" t="n">
-        <v>67.8</v>
+        <v>66.2</v>
       </c>
       <c r="F3" t="n">
-        <v>15088.1</v>
+        <v>4300</v>
       </c>
       <c r="G3" t="n">
-        <v>288408.618318806</v>
+        <v>106678.5412</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>66.2</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68.3</v>
+        <v>66.3</v>
       </c>
       <c r="C4" t="n">
-        <v>68.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D4" t="n">
-        <v>68.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E4" t="n">
-        <v>68.3</v>
+        <v>66.3</v>
       </c>
       <c r="F4" t="n">
-        <v>10090.1616</v>
+        <v>2849.0429</v>
       </c>
       <c r="G4" t="n">
-        <v>298498.779918806</v>
+        <v>106678.5412</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>69.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>369.4085</v>
+        <v>58133.28921880597</v>
       </c>
       <c r="G5" t="n">
-        <v>298868.188418806</v>
+        <v>164811.8304188059</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>66.8</v>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>66.8</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>66.8</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>66.8</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>8161</v>
       </c>
       <c r="G6" t="n">
-        <v>298868.188418806</v>
+        <v>172972.8304188059</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C7" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D7" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E7" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F7" t="n">
-        <v>3130</v>
+        <v>2163</v>
       </c>
       <c r="G7" t="n">
-        <v>301998.188418806</v>
+        <v>172972.8304188059</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C8" t="n">
-        <v>69.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D8" t="n">
-        <v>69.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E8" t="n">
-        <v>69.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F8" t="n">
-        <v>9284.5821</v>
+        <v>1173</v>
       </c>
       <c r="G8" t="n">
-        <v>311282.770518806</v>
+        <v>172972.8304188059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69.5</v>
+        <v>66.8</v>
       </c>
       <c r="C9" t="n">
-        <v>69.5</v>
+        <v>66.8</v>
       </c>
       <c r="D9" t="n">
-        <v>71.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E9" t="n">
-        <v>69.3</v>
+        <v>66.8</v>
       </c>
       <c r="F9" t="n">
-        <v>86460.83530000001</v>
+        <v>14082.6779</v>
       </c>
       <c r="G9" t="n">
-        <v>397743.605818806</v>
+        <v>172972.8304188059</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +745,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>70.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>70.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>69.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>110</v>
+        <v>1413.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>397853.605818806</v>
+        <v>174386.8303188059</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +785,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +800,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>69.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>69.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>69.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>69.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>59.7557</v>
+        <v>2420</v>
       </c>
       <c r="G11" t="n">
-        <v>397793.850118806</v>
+        <v>174386.8303188059</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +825,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +840,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>69.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>68.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>69.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>68.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1206.7164</v>
+        <v>6.2501</v>
       </c>
       <c r="G12" t="n">
-        <v>396587.133718806</v>
+        <v>174386.8303188059</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +865,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +880,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>9284.5821</v>
+        <v>1710</v>
       </c>
       <c r="G13" t="n">
-        <v>396587.133718806</v>
+        <v>176096.8303188059</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +905,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +920,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1609.2545</v>
+        <v>6124.012</v>
       </c>
       <c r="G14" t="n">
-        <v>398196.388218806</v>
+        <v>182220.8423188059</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +945,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +960,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>69.2</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
-        <v>69.2</v>
+        <v>68</v>
       </c>
       <c r="D15" t="n">
-        <v>69.2</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
-        <v>69.2</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>14720</v>
       </c>
       <c r="G15" t="n">
-        <v>398206.388218806</v>
+        <v>196940.8423188059</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +985,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1000,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>69.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>69.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>4629.4415</v>
+        <v>28461.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>393576.946718806</v>
+        <v>168478.8424188059</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1025,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1040,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>69.3</v>
+        <v>68</v>
       </c>
       <c r="D17" t="n">
-        <v>69.3</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>5370</v>
       </c>
       <c r="G17" t="n">
-        <v>393586.946718806</v>
+        <v>173848.8424188059</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1065,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1080,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69.3</v>
+        <v>67.5</v>
       </c>
       <c r="C18" t="n">
-        <v>69.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D18" t="n">
-        <v>69.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E18" t="n">
-        <v>69.3</v>
+        <v>67.3</v>
       </c>
       <c r="F18" t="n">
-        <v>11918.7</v>
+        <v>25050</v>
       </c>
       <c r="G18" t="n">
-        <v>405505.646718806</v>
+        <v>148798.8424188059</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1105,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1120,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="D19" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="E19" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>501.4012</v>
+        <v>835</v>
       </c>
       <c r="G19" t="n">
-        <v>405004.245518806</v>
+        <v>147963.8424188059</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1145,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1160,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>7948.8811</v>
+        <v>1201.9401</v>
       </c>
       <c r="G20" t="n">
-        <v>405004.245518806</v>
+        <v>146761.9023188059</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1185,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="D21" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="E21" t="n">
-        <v>69.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>7303.9998</v>
+        <v>6715.8689</v>
       </c>
       <c r="G21" t="n">
-        <v>405004.245518806</v>
+        <v>153477.7712188059</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1225,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1240,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69.2</v>
+        <v>66.8</v>
       </c>
       <c r="C22" t="n">
-        <v>69.2</v>
+        <v>66.8</v>
       </c>
       <c r="D22" t="n">
-        <v>69.2</v>
+        <v>66.8</v>
       </c>
       <c r="E22" t="n">
-        <v>69.2</v>
+        <v>66.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1500</v>
+        <v>3180</v>
       </c>
       <c r="G22" t="n">
-        <v>403504.245518806</v>
+        <v>156657.7712188059</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>66.7</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>69.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>69.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>69.6063</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>403504.245518806</v>
+        <v>156667.7712188059</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1307,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1322,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>69.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>69.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>69.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>133.5903</v>
+        <v>190899.9914</v>
       </c>
       <c r="G24" t="n">
-        <v>403504.245518806</v>
+        <v>347567.7626188059</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1347,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1362,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1290</v>
+        <v>7788</v>
       </c>
       <c r="G25" t="n">
-        <v>402214.245518806</v>
+        <v>339779.7626188059</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1387,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>16366.6961</v>
+        <v>2650</v>
       </c>
       <c r="G26" t="n">
-        <v>418580.941618806</v>
+        <v>337129.7626188059</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1427,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1442,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D27" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="E27" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>16366.6961</v>
+        <v>12608.918</v>
       </c>
       <c r="G27" t="n">
-        <v>402214.245518806</v>
+        <v>324520.8446188059</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1467,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1482,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C28" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="D28" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="E28" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="F28" t="n">
-        <v>8320</v>
+        <v>5480</v>
       </c>
       <c r="G28" t="n">
-        <v>393894.245518806</v>
+        <v>324520.8446188059</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1507,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="D29" t="n">
-        <v>68.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="F29" t="n">
-        <v>2223</v>
+        <v>1439.616</v>
       </c>
       <c r="G29" t="n">
-        <v>396117.245518806</v>
+        <v>323081.2286188059</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1547,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1562,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>68.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>68.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>68.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1628</v>
+        <v>10218</v>
       </c>
       <c r="G30" t="n">
-        <v>397745.245518806</v>
+        <v>312863.2286188059</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1587,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1602,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C31" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="E31" t="n">
-        <v>68.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3499.2794</v>
+        <v>1262.9804</v>
       </c>
       <c r="G31" t="n">
-        <v>401244.524918806</v>
+        <v>311600.2482188059</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1627,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1642,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C32" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="D32" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="E32" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="F32" t="n">
-        <v>32616</v>
+        <v>25082.1322</v>
       </c>
       <c r="G32" t="n">
-        <v>368628.524918806</v>
+        <v>286518.1160188059</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1667,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1682,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C33" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="D33" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="E33" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="F33" t="n">
-        <v>8943.999900000001</v>
+        <v>14083.6112</v>
       </c>
       <c r="G33" t="n">
-        <v>368628.524918806</v>
+        <v>286518.1160188059</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1707,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1722,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C34" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="D34" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="E34" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="F34" t="n">
-        <v>35336.4494</v>
+        <v>36097.9001</v>
       </c>
       <c r="G34" t="n">
-        <v>368628.524918806</v>
+        <v>286518.1160188059</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1747,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1762,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C35" t="n">
-        <v>68.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D35" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E35" t="n">
-        <v>68.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F35" t="n">
-        <v>30496.4897</v>
+        <v>457</v>
       </c>
       <c r="G35" t="n">
-        <v>399125.014618806</v>
+        <v>286518.1160188059</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1787,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C36" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="D36" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="E36" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="F36" t="n">
-        <v>7059.6948</v>
+        <v>2610.8431</v>
       </c>
       <c r="G36" t="n">
-        <v>392065.319818806</v>
+        <v>286518.1160188059</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1827,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1842,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C37" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F37" t="n">
-        <v>570</v>
+        <v>9591</v>
       </c>
       <c r="G37" t="n">
-        <v>392635.319818806</v>
+        <v>296109.1160188059</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1867,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1882,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1450</v>
+        <v>879.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>392635.319818806</v>
+        <v>295229.1161188059</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1907,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1922,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="E39" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>3327.7948</v>
+        <v>7949.9877</v>
       </c>
       <c r="G39" t="n">
-        <v>389307.525018806</v>
+        <v>287279.128418806</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1947,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1962,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>12460</v>
+        <v>807.4958</v>
       </c>
       <c r="G40" t="n">
-        <v>376847.525018806</v>
+        <v>288086.6242188059</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +1987,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2002,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>34401</v>
+        <v>564.2057</v>
       </c>
       <c r="G41" t="n">
-        <v>376847.525018806</v>
+        <v>288086.6242188059</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +2027,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2042,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>69</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>75.536</v>
+        <v>522.6112000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>376923.061018806</v>
+        <v>287564.0130188059</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +2067,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2082,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>69.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C43" t="n">
-        <v>69.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D43" t="n">
-        <v>69.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E43" t="n">
-        <v>68.7</v>
+        <v>68</v>
       </c>
       <c r="F43" t="n">
-        <v>205.0075</v>
+        <v>31762.6006</v>
       </c>
       <c r="G43" t="n">
-        <v>377128.068518806</v>
+        <v>319326.6136188059</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2107,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2122,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>69</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>209.4755</v>
+        <v>17680</v>
       </c>
       <c r="G44" t="n">
-        <v>376918.593018806</v>
+        <v>337006.6136188059</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2147,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2162,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>106.8017</v>
+        <v>15857.6369</v>
       </c>
       <c r="G45" t="n">
-        <v>377025.394718806</v>
+        <v>337006.6136188059</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2202,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="C46" t="n">
-        <v>68.8</v>
+        <v>68.2</v>
       </c>
       <c r="D46" t="n">
-        <v>68.8</v>
+        <v>68.3</v>
       </c>
       <c r="E46" t="n">
-        <v>68.8</v>
+        <v>68.2</v>
       </c>
       <c r="F46" t="n">
-        <v>15974.7998</v>
+        <v>1880</v>
       </c>
       <c r="G46" t="n">
-        <v>361050.594918806</v>
+        <v>335126.6136188059</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2242,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.7</v>
+        <v>68.2</v>
       </c>
       <c r="C47" t="n">
-        <v>68.7</v>
+        <v>68.2</v>
       </c>
       <c r="D47" t="n">
-        <v>68.7</v>
+        <v>68.2</v>
       </c>
       <c r="E47" t="n">
-        <v>68.7</v>
+        <v>68.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1266.4792</v>
+        <v>153.3639</v>
       </c>
       <c r="G47" t="n">
-        <v>359784.115718806</v>
+        <v>335126.6136188059</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2282,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>68.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>18026.999</v>
+        <v>4891.35</v>
       </c>
       <c r="G48" t="n">
-        <v>341757.116718806</v>
+        <v>330235.263618806</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2322,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>69.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>19581.1365</v>
+        <v>6742</v>
       </c>
       <c r="G49" t="n">
-        <v>361338.2532188061</v>
+        <v>323493.263618806</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2362,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>69.2</v>
+        <v>67.8</v>
       </c>
       <c r="C50" t="n">
-        <v>69.3</v>
+        <v>67.8</v>
       </c>
       <c r="D50" t="n">
-        <v>69.3</v>
+        <v>67.8</v>
       </c>
       <c r="E50" t="n">
-        <v>69.2</v>
+        <v>67.8</v>
       </c>
       <c r="F50" t="n">
-        <v>6348.4171</v>
+        <v>8886</v>
       </c>
       <c r="G50" t="n">
-        <v>367686.6703188061</v>
+        <v>314607.263618806</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2402,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>69.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1380</v>
+        <v>850</v>
       </c>
       <c r="G51" t="n">
-        <v>367686.6703188061</v>
+        <v>315457.263618806</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2442,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>68.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>7509.7593</v>
+        <v>9830</v>
       </c>
       <c r="G52" t="n">
-        <v>360176.9110188061</v>
+        <v>315457.263618806</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2482,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>193</v>
+        <v>2180</v>
       </c>
       <c r="G53" t="n">
-        <v>359983.9110188061</v>
+        <v>315457.263618806</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2522,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C54" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D54" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E54" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F54" t="n">
-        <v>36630.601</v>
+        <v>1800.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>359983.9110188061</v>
+        <v>313656.263718806</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2562,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C55" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D55" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E55" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F55" t="n">
-        <v>35890.499</v>
+        <v>4284.8791</v>
       </c>
       <c r="G55" t="n">
-        <v>359983.9110188061</v>
+        <v>313656.263718806</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2602,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4510.4774</v>
+        <v>264.3722</v>
       </c>
       <c r="G56" t="n">
-        <v>359983.9110188061</v>
+        <v>313391.891518806</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2642,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>108.0386</v>
+        <v>4318.3837</v>
       </c>
       <c r="G57" t="n">
-        <v>359983.9110188061</v>
+        <v>313391.891518806</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2682,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C58" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D58" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E58" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F58" t="n">
-        <v>128.7778</v>
+        <v>7590</v>
       </c>
       <c r="G58" t="n">
-        <v>359983.9110188061</v>
+        <v>305801.891518806</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2722,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C59" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="D59" t="n">
-        <v>68.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E59" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="F59" t="n">
-        <v>780</v>
+        <v>3750.0686</v>
       </c>
       <c r="G59" t="n">
-        <v>359203.9110188061</v>
+        <v>305801.891518806</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2762,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C60" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D60" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E60" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F60" t="n">
-        <v>9597.870800000001</v>
+        <v>2917.2488</v>
       </c>
       <c r="G60" t="n">
-        <v>359203.9110188061</v>
+        <v>308719.140318806</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2802,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="C61" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="D61" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="E61" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="F61" t="n">
-        <v>29189.5121</v>
+        <v>25</v>
       </c>
       <c r="G61" t="n">
-        <v>330014.3989188061</v>
+        <v>308694.140318806</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2827,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2842,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>31251.1259</v>
+        <v>44.3786</v>
       </c>
       <c r="G62" t="n">
-        <v>298763.2730188061</v>
+        <v>308738.518918806</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2867,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2882,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C63" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="D63" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E63" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="F63" t="n">
-        <v>2371.5044</v>
+        <v>12522.8306</v>
       </c>
       <c r="G63" t="n">
-        <v>298763.2730188061</v>
+        <v>296215.688318806</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2907,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C64" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="D64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E64" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="F64" t="n">
-        <v>11664.8538</v>
+        <v>118.0162</v>
       </c>
       <c r="G64" t="n">
-        <v>298763.2730188061</v>
+        <v>296215.688318806</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2947,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2962,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C65" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="D65" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E65" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="F65" t="n">
-        <v>5985.3124</v>
+        <v>997.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>298763.2730188061</v>
+        <v>296215.688318806</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2987,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3002,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C66" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D66" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E66" t="n">
-        <v>67.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F66" t="n">
-        <v>11410</v>
+        <v>17149.489</v>
       </c>
       <c r="G66" t="n">
-        <v>310173.2730188061</v>
+        <v>296215.688318806</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3027,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3042,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>2086.4274</v>
+        <v>16383.372</v>
       </c>
       <c r="G67" t="n">
-        <v>308086.8456188061</v>
+        <v>279832.316318806</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3067,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3082,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C68" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="D68" t="n">
-        <v>66.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E68" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7645.5835</v>
+        <v>1423.3475</v>
       </c>
       <c r="G68" t="n">
-        <v>300441.2621188061</v>
+        <v>281255.663818806</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3107,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3122,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="D69" t="n">
-        <v>66.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="F69" t="n">
-        <v>230.812</v>
+        <v>14031.9722</v>
       </c>
       <c r="G69" t="n">
-        <v>300210.4501188062</v>
+        <v>267223.691618806</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3147,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3162,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="C70" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="D70" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="E70" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1747.9999</v>
+        <v>754.0211</v>
       </c>
       <c r="G70" t="n">
-        <v>300210.4501188062</v>
+        <v>267223.691618806</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3187,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3202,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.7</v>
+        <v>67.5</v>
       </c>
       <c r="C71" t="n">
-        <v>66.7</v>
+        <v>67.5</v>
       </c>
       <c r="D71" t="n">
-        <v>66.7</v>
+        <v>67.5</v>
       </c>
       <c r="E71" t="n">
-        <v>66.7</v>
+        <v>67.5</v>
       </c>
       <c r="F71" t="n">
-        <v>186.3615</v>
+        <v>28547.0217</v>
       </c>
       <c r="G71" t="n">
-        <v>300210.4501188062</v>
+        <v>295770.713318806</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3227,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3242,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="C72" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1085.8795</v>
+        <v>7726.005</v>
       </c>
       <c r="G72" t="n">
-        <v>300210.4501188062</v>
+        <v>303496.718318806</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3267,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3282,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>66.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>66.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>5589.143</v>
+        <v>27066.3239</v>
       </c>
       <c r="G73" t="n">
-        <v>305799.5931188061</v>
+        <v>303496.718318806</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3307,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3322,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.7</v>
+        <v>68.3</v>
       </c>
       <c r="C74" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="D74" t="n">
-        <v>66.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>15088.1</v>
       </c>
       <c r="G74" t="n">
-        <v>303799.5931188061</v>
+        <v>288408.618318806</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3347,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3362,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.7</v>
+        <v>68.3</v>
       </c>
       <c r="C75" t="n">
-        <v>66.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>66.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>66.7</v>
+        <v>68.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2389</v>
+        <v>10090.1616</v>
       </c>
       <c r="G75" t="n">
-        <v>303799.5931188061</v>
+        <v>298498.779918806</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3387,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3402,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D76" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="F76" t="n">
-        <v>625.9835</v>
+        <v>369.4085</v>
       </c>
       <c r="G76" t="n">
-        <v>303173.6096188062</v>
+        <v>298868.188418806</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3127,7 +3427,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3442,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="C77" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D77" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="E77" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="F77" t="n">
-        <v>1677.0169</v>
+        <v>10000</v>
       </c>
       <c r="G77" t="n">
-        <v>303173.6096188062</v>
+        <v>298868.188418806</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3163,7 +3467,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3482,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>66.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>34573.2405</v>
+        <v>3130</v>
       </c>
       <c r="G78" t="n">
-        <v>303173.6096188062</v>
+        <v>301998.188418806</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,7 +3507,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3522,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>66.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>66.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>66.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>2893.3319</v>
+        <v>9284.5821</v>
       </c>
       <c r="G79" t="n">
-        <v>300280.2777188062</v>
+        <v>311282.770518806</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,7 +3547,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3562,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="C80" t="n">
-        <v>66.2</v>
+        <v>69.5</v>
       </c>
       <c r="D80" t="n">
-        <v>66.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>66.2</v>
+        <v>69.3</v>
       </c>
       <c r="F80" t="n">
-        <v>29426.5457</v>
+        <v>86460.83530000001</v>
       </c>
       <c r="G80" t="n">
-        <v>270853.7320188062</v>
+        <v>397743.605818806</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3271,7 +3587,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,35 +3602,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>66.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>66.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>66.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>14561.2047</v>
+        <v>110</v>
       </c>
       <c r="G81" t="n">
-        <v>270853.7320188062</v>
+        <v>397853.605818806</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3318,28 +3640,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>66.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>66.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>66</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>9922.9722</v>
+        <v>59.7557</v>
       </c>
       <c r="G82" t="n">
-        <v>260930.7598188062</v>
+        <v>397793.850118806</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3676,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="C83" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="E83" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>225.4529</v>
+        <v>1206.7164</v>
       </c>
       <c r="G83" t="n">
-        <v>260705.3069188062</v>
+        <v>396587.133718806</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3712,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>66</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>15809</v>
+        <v>9284.5821</v>
       </c>
       <c r="G84" t="n">
-        <v>260705.3069188062</v>
+        <v>396587.133718806</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,38 +3748,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C85" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D85" t="n">
-        <v>66.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E85" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F85" t="n">
-        <v>11880</v>
+        <v>1609.2545</v>
       </c>
       <c r="G85" t="n">
-        <v>260705.3069188062</v>
+        <v>398196.388218806</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>66</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3468,38 +3784,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="C86" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="D86" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="E86" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="F86" t="n">
-        <v>19432.7857</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>260705.3069188062</v>
+        <v>398206.388218806</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>66</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3510,38 +3820,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>66</v>
+        <v>69.2</v>
       </c>
       <c r="E87" t="n">
-        <v>66</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>10133.6919</v>
+        <v>4629.4415</v>
       </c>
       <c r="G87" t="n">
-        <v>260705.3069188062</v>
+        <v>393576.946718806</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>66</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3552,38 +3856,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="C88" t="n">
-        <v>65.5</v>
+        <v>69.3</v>
       </c>
       <c r="D88" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="E88" t="n">
-        <v>65.5</v>
+        <v>69.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1457.7259</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>259247.5810188062</v>
+        <v>393586.946718806</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>66</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3594,38 +3892,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="C89" t="n">
-        <v>65.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>65.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="F89" t="n">
-        <v>65.3503</v>
+        <v>11918.7</v>
       </c>
       <c r="G89" t="n">
-        <v>259312.9313188062</v>
+        <v>405505.646718806</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>65.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3636,38 +3928,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="C90" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="D90" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="E90" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="F90" t="n">
-        <v>109.1922</v>
+        <v>501.4012</v>
       </c>
       <c r="G90" t="n">
-        <v>259312.9313188062</v>
+        <v>405004.245518806</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>65.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3678,38 +3964,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="C91" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="D91" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="E91" t="n">
-        <v>65.7</v>
+        <v>69.3</v>
       </c>
       <c r="F91" t="n">
-        <v>113.1135</v>
+        <v>7948.8811</v>
       </c>
       <c r="G91" t="n">
-        <v>259312.9313188062</v>
+        <v>405004.245518806</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>65.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3720,38 +4000,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="C92" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="D92" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="E92" t="n">
-        <v>65.8</v>
+        <v>69.3</v>
       </c>
       <c r="F92" t="n">
-        <v>5785.9063</v>
+        <v>7303.9998</v>
       </c>
       <c r="G92" t="n">
-        <v>265098.8376188062</v>
+        <v>405004.245518806</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>65.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3762,38 +4036,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C93" t="n">
-        <v>66.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D93" t="n">
-        <v>66.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E93" t="n">
-        <v>66.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="F93" t="n">
-        <v>5310</v>
+        <v>1500</v>
       </c>
       <c r="G93" t="n">
-        <v>270408.8376188062</v>
+        <v>403504.245518806</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>65.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3804,36 +4072,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>66.8</v>
+        <v>69.2</v>
       </c>
       <c r="D94" t="n">
-        <v>66.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>66.8</v>
+        <v>69.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>69.6063</v>
       </c>
       <c r="G94" t="n">
-        <v>270418.8376188062</v>
+        <v>403504.245518806</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3844,36 +4108,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.7</v>
+        <v>69.2</v>
       </c>
       <c r="C95" t="n">
-        <v>66.7</v>
+        <v>69.2</v>
       </c>
       <c r="D95" t="n">
-        <v>66.7</v>
+        <v>69.2</v>
       </c>
       <c r="E95" t="n">
-        <v>66.7</v>
+        <v>69.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2878.5607</v>
+        <v>133.5903</v>
       </c>
       <c r="G95" t="n">
-        <v>267540.2769188062</v>
+        <v>403504.245518806</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3884,36 +4144,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>66.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>66.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>66.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>21000</v>
+        <v>1290</v>
       </c>
       <c r="G96" t="n">
-        <v>288540.2769188062</v>
+        <v>402214.245518806</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3924,36 +4180,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>66.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="D97" t="n">
-        <v>66.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>66.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>16366.6961</v>
       </c>
       <c r="G97" t="n">
-        <v>289740.2769188062</v>
+        <v>418580.941618806</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3964,36 +4216,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="C98" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="D98" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="E98" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>16366.6961</v>
       </c>
       <c r="G98" t="n">
-        <v>289340.2769188062</v>
+        <v>402214.245518806</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4004,36 +4252,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.5</v>
+        <v>68.8</v>
       </c>
       <c r="C99" t="n">
-        <v>66.5</v>
+        <v>68.7</v>
       </c>
       <c r="D99" t="n">
-        <v>66.5</v>
+        <v>68.8</v>
       </c>
       <c r="E99" t="n">
-        <v>66.5</v>
+        <v>68.7</v>
       </c>
       <c r="F99" t="n">
-        <v>130.3482</v>
+        <v>8320</v>
       </c>
       <c r="G99" t="n">
-        <v>289209.9287188062</v>
+        <v>393894.245518806</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4044,36 +4288,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.3</v>
+        <v>68.8</v>
       </c>
       <c r="C100" t="n">
-        <v>66.2</v>
+        <v>68.8</v>
       </c>
       <c r="D100" t="n">
-        <v>66.3</v>
+        <v>68.8</v>
       </c>
       <c r="E100" t="n">
-        <v>66.2</v>
+        <v>68.8</v>
       </c>
       <c r="F100" t="n">
-        <v>11870</v>
+        <v>2223</v>
       </c>
       <c r="G100" t="n">
-        <v>277339.9287188062</v>
+        <v>396117.245518806</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4084,36 +4324,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>66.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>66.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>66.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>660</v>
+        <v>1628</v>
       </c>
       <c r="G101" t="n">
-        <v>276679.9287188062</v>
+        <v>397745.245518806</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4124,36 +4360,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>66.3</v>
+        <v>69</v>
       </c>
       <c r="D102" t="n">
-        <v>66.3</v>
+        <v>69</v>
       </c>
       <c r="E102" t="n">
-        <v>66.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>543.5</v>
+        <v>3499.2794</v>
       </c>
       <c r="G102" t="n">
-        <v>277223.4287188062</v>
+        <v>401244.524918806</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4164,36 +4396,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C103" t="n">
-        <v>66.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D103" t="n">
-        <v>66.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="E103" t="n">
-        <v>66.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F103" t="n">
-        <v>260.2492</v>
+        <v>32616</v>
       </c>
       <c r="G103" t="n">
-        <v>277483.6779188062</v>
+        <v>368628.524918806</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4204,36 +4432,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="C104" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="D104" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="E104" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="F104" t="n">
-        <v>915.7728</v>
+        <v>8943.999900000001</v>
       </c>
       <c r="G104" t="n">
-        <v>278399.4507188062</v>
+        <v>368628.524918806</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4244,36 +4468,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="C105" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="D105" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="E105" t="n">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="F105" t="n">
-        <v>6868</v>
+        <v>35336.4494</v>
       </c>
       <c r="G105" t="n">
-        <v>278399.4507188062</v>
+        <v>368628.524918806</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4284,36 +4504,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>67.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>67.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>67.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>448.7893</v>
+        <v>30496.4897</v>
       </c>
       <c r="G106" t="n">
-        <v>278848.2400188062</v>
+        <v>399125.014618806</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4324,36 +4540,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.2</v>
+        <v>68.8</v>
       </c>
       <c r="C107" t="n">
-        <v>67.2</v>
+        <v>68.8</v>
       </c>
       <c r="D107" t="n">
-        <v>67.2</v>
+        <v>68.8</v>
       </c>
       <c r="E107" t="n">
-        <v>67.2</v>
+        <v>68.8</v>
       </c>
       <c r="F107" t="n">
-        <v>26324.9478</v>
+        <v>7059.6948</v>
       </c>
       <c r="G107" t="n">
-        <v>278848.2400188062</v>
+        <v>392065.319818806</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4364,36 +4576,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>67.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>67.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>67.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>5603.7425</v>
+        <v>570</v>
       </c>
       <c r="G108" t="n">
-        <v>284451.9825188062</v>
+        <v>392635.319818806</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4404,36 +4612,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>2150.6064</v>
+        <v>1450</v>
       </c>
       <c r="G109" t="n">
-        <v>286602.5889188062</v>
+        <v>392635.319818806</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4444,36 +4648,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="C110" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="D110" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="E110" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="F110" t="n">
-        <v>1635.1403</v>
+        <v>3327.7948</v>
       </c>
       <c r="G110" t="n">
-        <v>288237.7292188062</v>
+        <v>389307.525018806</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4484,36 +4684,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="C111" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D111" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E111" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F111" t="n">
-        <v>110.0951</v>
+        <v>12460</v>
       </c>
       <c r="G111" t="n">
-        <v>288127.6341188062</v>
+        <v>376847.525018806</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4524,36 +4720,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>67.8</v>
+        <v>68.7</v>
       </c>
       <c r="C112" t="n">
-        <v>67.8</v>
+        <v>68.7</v>
       </c>
       <c r="D112" t="n">
-        <v>67.8</v>
+        <v>68.7</v>
       </c>
       <c r="E112" t="n">
-        <v>67.8</v>
+        <v>68.7</v>
       </c>
       <c r="F112" t="n">
-        <v>2200</v>
+        <v>34401</v>
       </c>
       <c r="G112" t="n">
-        <v>290327.6341188062</v>
+        <v>376847.525018806</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4564,36 +4756,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C113" t="n">
-        <v>67.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D113" t="n">
-        <v>67.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
-        <v>67.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F113" t="n">
-        <v>4236.8188</v>
+        <v>75.536</v>
       </c>
       <c r="G113" t="n">
-        <v>294564.4529188062</v>
+        <v>376923.061018806</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4604,36 +4792,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>67.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>67.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="F114" t="n">
-        <v>25652.6806</v>
+        <v>205.0075</v>
       </c>
       <c r="G114" t="n">
-        <v>268911.7723188062</v>
+        <v>377128.068518806</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4644,36 +4828,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C115" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D115" t="n">
-        <v>67.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="E115" t="n">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F115" t="n">
-        <v>3609.6563</v>
+        <v>209.4755</v>
       </c>
       <c r="G115" t="n">
-        <v>265302.1160188062</v>
+        <v>376918.593018806</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4684,36 +4864,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>67.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>67.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>67.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>19250.5447</v>
+        <v>106.8017</v>
       </c>
       <c r="G116" t="n">
-        <v>265302.1160188062</v>
+        <v>377025.394718806</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4724,36 +4900,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C117" t="n">
-        <v>67.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D117" t="n">
-        <v>67.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E117" t="n">
-        <v>67.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F117" t="n">
-        <v>479.6336</v>
+        <v>15974.7998</v>
       </c>
       <c r="G117" t="n">
-        <v>265781.7496188062</v>
+        <v>361050.594918806</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4764,36 +4936,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C118" t="n">
-        <v>68.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D118" t="n">
-        <v>68.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E118" t="n">
-        <v>68.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F118" t="n">
-        <v>15337</v>
+        <v>1266.4792</v>
       </c>
       <c r="G118" t="n">
-        <v>281118.7496188062</v>
+        <v>359784.115718806</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4807,33 +4975,29 @@
         <v>68.7</v>
       </c>
       <c r="C119" t="n">
-        <v>68.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D119" t="n">
         <v>68.7</v>
       </c>
       <c r="E119" t="n">
-        <v>68.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>14970.0598</v>
+        <v>18026.999</v>
       </c>
       <c r="G119" t="n">
-        <v>266148.6898188062</v>
+        <v>341757.116718806</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4844,36 +5008,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="C120" t="n">
-        <v>68.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>68.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="F120" t="n">
-        <v>29.2397</v>
+        <v>19581.1365</v>
       </c>
       <c r="G120" t="n">
-        <v>266119.4501188063</v>
+        <v>361338.2532188061</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4884,36 +5044,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68.7</v>
+        <v>69.2</v>
       </c>
       <c r="C121" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D121" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="E121" t="n">
-        <v>68.7</v>
+        <v>69.2</v>
       </c>
       <c r="F121" t="n">
-        <v>19430</v>
+        <v>6348.4171</v>
       </c>
       <c r="G121" t="n">
-        <v>285549.4501188063</v>
+        <v>367686.6703188061</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4924,36 +5080,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C122" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D122" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="E122" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="F122" t="n">
-        <v>487</v>
+        <v>1380</v>
       </c>
       <c r="G122" t="n">
-        <v>285549.4501188063</v>
+        <v>367686.6703188061</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4964,36 +5116,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C123" t="n">
         <v>68.8</v>
       </c>
       <c r="D123" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E123" t="n">
         <v>68.8</v>
       </c>
       <c r="F123" t="n">
-        <v>1254</v>
+        <v>7509.7593</v>
       </c>
       <c r="G123" t="n">
-        <v>285549.4501188063</v>
+        <v>360176.9110188061</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5004,22 +5152,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>3370</v>
+        <v>193</v>
       </c>
       <c r="G124" t="n">
-        <v>285549.4501188063</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5029,11 +5177,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5047,19 +5191,19 @@
         <v>68.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>68.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D125" t="n">
         <v>68.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>68.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>15233.1495</v>
+        <v>36630.601</v>
       </c>
       <c r="G125" t="n">
-        <v>270316.3006188063</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5069,11 +5213,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +5224,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>68.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>68.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>5711.1747</v>
+        <v>35890.499</v>
       </c>
       <c r="G126" t="n">
-        <v>276027.4753188062</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5109,11 +5249,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +5260,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>1828.7454</v>
+        <v>4510.4774</v>
       </c>
       <c r="G127" t="n">
-        <v>277856.2207188063</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5149,11 +5285,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5164,22 +5296,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>4925.9553</v>
+        <v>108.0386</v>
       </c>
       <c r="G128" t="n">
-        <v>272930.2654188063</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5189,11 +5321,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5204,22 +5332,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>128.7778</v>
       </c>
       <c r="G129" t="n">
-        <v>272730.2654188063</v>
+        <v>359983.9110188061</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5229,11 +5357,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5244,22 +5368,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C130" t="n">
         <v>68</v>
       </c>
       <c r="D130" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E130" t="n">
         <v>68</v>
       </c>
       <c r="F130" t="n">
-        <v>2930</v>
+        <v>780</v>
       </c>
       <c r="G130" t="n">
-        <v>272730.2654188063</v>
+        <v>359203.9110188061</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5269,11 +5393,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5287,19 +5407,19 @@
         <v>68.09999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D131" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F131" t="n">
-        <v>456.068</v>
+        <v>9597.870800000001</v>
       </c>
       <c r="G131" t="n">
-        <v>273186.3334188063</v>
+        <v>359203.9110188061</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5309,11 +5429,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5324,22 +5440,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C132" t="n">
-        <v>66.5</v>
+        <v>67.7</v>
       </c>
       <c r="D132" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E132" t="n">
-        <v>66.5</v>
+        <v>67.7</v>
       </c>
       <c r="F132" t="n">
-        <v>179287.1377</v>
+        <v>29189.5121</v>
       </c>
       <c r="G132" t="n">
-        <v>93899.19571880632</v>
+        <v>330014.3989188061</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5349,11 +5465,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5364,22 +5476,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C133" t="n">
-        <v>68.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D133" t="n">
-        <v>68.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E133" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F133" t="n">
-        <v>869</v>
+        <v>31251.1259</v>
       </c>
       <c r="G133" t="n">
-        <v>94768.19571880632</v>
+        <v>298763.2730188061</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5389,11 +5501,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5404,22 +5512,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="C134" t="n">
-        <v>68.3</v>
+        <v>67</v>
       </c>
       <c r="D134" t="n">
-        <v>68.3</v>
+        <v>67</v>
       </c>
       <c r="E134" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="F134" t="n">
-        <v>36354</v>
+        <v>2371.5044</v>
       </c>
       <c r="G134" t="n">
-        <v>131122.1957188063</v>
+        <v>298763.2730188061</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5429,11 +5537,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5444,22 +5548,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>68.8</v>
+        <v>67</v>
       </c>
       <c r="D135" t="n">
-        <v>68.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>68.8</v>
+        <v>67</v>
       </c>
       <c r="F135" t="n">
-        <v>5516.1</v>
+        <v>11664.8538</v>
       </c>
       <c r="G135" t="n">
-        <v>136638.2957188063</v>
+        <v>298763.2730188061</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5469,11 +5573,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5484,22 +5584,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.7</v>
+        <v>67</v>
       </c>
       <c r="C136" t="n">
-        <v>68.7</v>
+        <v>67</v>
       </c>
       <c r="D136" t="n">
-        <v>68.7</v>
+        <v>67</v>
       </c>
       <c r="E136" t="n">
-        <v>68.7</v>
+        <v>67</v>
       </c>
       <c r="F136" t="n">
-        <v>10000</v>
+        <v>5985.3124</v>
       </c>
       <c r="G136" t="n">
-        <v>126638.2957188063</v>
+        <v>298763.2730188061</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5509,11 +5609,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5524,22 +5620,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>68.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>68.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>68.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>10000</v>
+        <v>11410</v>
       </c>
       <c r="G137" t="n">
-        <v>116638.2957188063</v>
+        <v>310173.2730188061</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5549,15 +5645,2567 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
       <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2086.4274</v>
+      </c>
+      <c r="G138" t="n">
+        <v>308086.8456188061</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7645.5835</v>
+      </c>
+      <c r="G139" t="n">
+        <v>300441.2621188061</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>230.812</v>
+      </c>
+      <c r="G140" t="n">
+        <v>300210.4501188062</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1747.9999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>300210.4501188062</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>186.3615</v>
+      </c>
+      <c r="G142" t="n">
+        <v>300210.4501188062</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1085.8795</v>
+      </c>
+      <c r="G143" t="n">
+        <v>300210.4501188062</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>67</v>
+      </c>
+      <c r="C144" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>67</v>
+      </c>
+      <c r="E144" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5589.143</v>
+      </c>
+      <c r="G144" t="n">
+        <v>305799.5931188061</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>303799.5931188061</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2389</v>
+      </c>
+      <c r="G146" t="n">
+        <v>303799.5931188061</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>625.9835</v>
+      </c>
+      <c r="G147" t="n">
+        <v>303173.6096188062</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1677.0169</v>
+      </c>
+      <c r="G148" t="n">
+        <v>303173.6096188062</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>34573.2405</v>
+      </c>
+      <c r="G149" t="n">
+        <v>303173.6096188062</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2893.3319</v>
+      </c>
+      <c r="G150" t="n">
+        <v>300280.2777188062</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>29426.5457</v>
+      </c>
+      <c r="G151" t="n">
+        <v>270853.7320188062</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14561.2047</v>
+      </c>
+      <c r="G152" t="n">
+        <v>270853.7320188062</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>66</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9922.9722</v>
+      </c>
+      <c r="G153" t="n">
+        <v>260930.7598188062</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>66</v>
+      </c>
+      <c r="C154" t="n">
+        <v>66</v>
+      </c>
+      <c r="D154" t="n">
+        <v>66</v>
+      </c>
+      <c r="E154" t="n">
+        <v>66</v>
+      </c>
+      <c r="F154" t="n">
+        <v>225.4529</v>
+      </c>
+      <c r="G154" t="n">
+        <v>260705.3069188062</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>66</v>
+      </c>
+      <c r="C155" t="n">
+        <v>66</v>
+      </c>
+      <c r="D155" t="n">
+        <v>66</v>
+      </c>
+      <c r="E155" t="n">
+        <v>66</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15809</v>
+      </c>
+      <c r="G155" t="n">
+        <v>260705.3069188062</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>66</v>
+      </c>
+      <c r="D156" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>66</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11880</v>
+      </c>
+      <c r="G156" t="n">
+        <v>260705.3069188062</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>66</v>
+      </c>
+      <c r="C157" t="n">
+        <v>66</v>
+      </c>
+      <c r="D157" t="n">
+        <v>66</v>
+      </c>
+      <c r="E157" t="n">
+        <v>66</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19432.7857</v>
+      </c>
+      <c r="G157" t="n">
+        <v>260705.3069188062</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>66</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66</v>
+      </c>
+      <c r="D158" t="n">
+        <v>66</v>
+      </c>
+      <c r="E158" t="n">
+        <v>66</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10133.6919</v>
+      </c>
+      <c r="G158" t="n">
+        <v>260705.3069188062</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1457.7259</v>
+      </c>
+      <c r="G159" t="n">
+        <v>259247.5810188062</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>65.3503</v>
+      </c>
+      <c r="G160" t="n">
+        <v>259312.9313188062</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>109.1922</v>
+      </c>
+      <c r="G161" t="n">
+        <v>259312.9313188062</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>113.1135</v>
+      </c>
+      <c r="G162" t="n">
+        <v>259312.9313188062</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5785.9063</v>
+      </c>
+      <c r="G163" t="n">
+        <v>265098.8376188062</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D164" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5310</v>
+      </c>
+      <c r="G164" t="n">
+        <v>270408.8376188062</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>270418.8376188062</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2878.5607</v>
+      </c>
+      <c r="G166" t="n">
+        <v>267540.2769188062</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>288540.2769188062</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G168" t="n">
+        <v>289740.2769188062</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>400</v>
+      </c>
+      <c r="G169" t="n">
+        <v>289340.2769188062</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>130.3482</v>
+      </c>
+      <c r="G170" t="n">
+        <v>289209.9287188062</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11870</v>
+      </c>
+      <c r="G171" t="n">
+        <v>277339.9287188062</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>660</v>
+      </c>
+      <c r="G172" t="n">
+        <v>276679.9287188062</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>543.5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>277223.4287188062</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>260.2492</v>
+      </c>
+      <c r="G174" t="n">
+        <v>277483.6779188062</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>915.7728</v>
+      </c>
+      <c r="G175" t="n">
+        <v>278399.4507188062</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6868</v>
+      </c>
+      <c r="G176" t="n">
+        <v>278399.4507188062</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>448.7893</v>
+      </c>
+      <c r="G177" t="n">
+        <v>278848.2400188062</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>26324.9478</v>
+      </c>
+      <c r="G178" t="n">
+        <v>278848.2400188062</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5603.7425</v>
+      </c>
+      <c r="G179" t="n">
+        <v>284451.9825188062</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2150.6064</v>
+      </c>
+      <c r="G180" t="n">
+        <v>286602.5889188062</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1635.1403</v>
+      </c>
+      <c r="G181" t="n">
+        <v>288237.7292188062</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>110.0951</v>
+      </c>
+      <c r="G182" t="n">
+        <v>288127.6341188062</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G183" t="n">
+        <v>290327.6341188062</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4236.8188</v>
+      </c>
+      <c r="G184" t="n">
+        <v>294564.4529188062</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>25652.6806</v>
+      </c>
+      <c r="G185" t="n">
+        <v>268911.7723188062</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3609.6563</v>
+      </c>
+      <c r="G186" t="n">
+        <v>265302.1160188062</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19250.5447</v>
+      </c>
+      <c r="G187" t="n">
+        <v>265302.1160188062</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>479.6336</v>
+      </c>
+      <c r="G188" t="n">
+        <v>265781.7496188062</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>15337</v>
+      </c>
+      <c r="G189" t="n">
+        <v>281118.7496188062</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C190" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14970.0598</v>
+      </c>
+      <c r="G190" t="n">
+        <v>266148.6898188062</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>29.2397</v>
+      </c>
+      <c r="G191" t="n">
+        <v>266119.4501188063</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19430</v>
+      </c>
+      <c r="G192" t="n">
+        <v>285549.4501188063</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>487</v>
+      </c>
+      <c r="G193" t="n">
+        <v>285549.4501188063</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G194" t="n">
+        <v>285549.4501188063</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D195" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3370</v>
+      </c>
+      <c r="G195" t="n">
+        <v>285549.4501188063</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>15233.1495</v>
+      </c>
+      <c r="G196" t="n">
+        <v>270316.3006188063</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5711.1747</v>
+      </c>
+      <c r="G197" t="n">
+        <v>276027.4753188062</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1828.7454</v>
+      </c>
+      <c r="G198" t="n">
+        <v>277856.2207188063</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4925.9553</v>
+      </c>
+      <c r="G199" t="n">
+        <v>272930.2654188063</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>68</v>
+      </c>
+      <c r="C200" t="n">
+        <v>68</v>
+      </c>
+      <c r="D200" t="n">
+        <v>68</v>
+      </c>
+      <c r="E200" t="n">
+        <v>68</v>
+      </c>
+      <c r="F200" t="n">
+        <v>200</v>
+      </c>
+      <c r="G200" t="n">
+        <v>272730.2654188063</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>68</v>
+      </c>
+      <c r="C201" t="n">
+        <v>68</v>
+      </c>
+      <c r="D201" t="n">
+        <v>68</v>
+      </c>
+      <c r="E201" t="n">
+        <v>68</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G201" t="n">
+        <v>272730.2654188063</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>456.068</v>
+      </c>
+      <c r="G202" t="n">
+        <v>273186.3334188063</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>68</v>
+      </c>
+      <c r="C203" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>68</v>
+      </c>
+      <c r="E203" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>179287.1377</v>
+      </c>
+      <c r="G203" t="n">
+        <v>93899.19571880632</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>68</v>
+      </c>
+      <c r="C204" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>68</v>
+      </c>
+      <c r="F204" t="n">
+        <v>869</v>
+      </c>
+      <c r="G204" t="n">
+        <v>94768.19571880632</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>36354</v>
+      </c>
+      <c r="G205" t="n">
+        <v>131122.1957188063</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5516.1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>136638.2957188063</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>126638.2957188063</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>116638.2957188063</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>102378.5412</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>106678.5412</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>66.2</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>106678.5412</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>66.3</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>164811.8304188059</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>66.3</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +601,21 @@
         <v>172972.8304188059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,22 +640,21 @@
         <v>172972.8304188059</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>66.8</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,20 +681,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -740,20 +718,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,20 +755,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,20 +792,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,20 +829,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,22 +864,21 @@
         <v>176096.8303188059</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,22 +903,21 @@
         <v>182220.8423188059</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,22 +942,21 @@
         <v>196940.8423188059</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1020,20 +983,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1060,20 +1020,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,20 +1057,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1140,20 +1094,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1180,20 +1131,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,22 +1166,21 @@
         <v>153477.7712188059</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,24 +1205,21 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>66.7</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1300,22 +1244,21 @@
         <v>156667.7712188059</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>66.8</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,22 +1283,21 @@
         <v>347567.7626188059</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,20 +1324,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,20 +1361,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1462,20 +1398,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,20 +1435,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1542,20 +1472,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,20 +1509,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,20 +1546,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1660,22 +1581,19 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,22 +1618,19 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,20 +1657,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1780,22 +1692,19 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,20 +1731,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1862,20 +1768,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,20 +1805,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,20 +1842,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1980,22 +1877,19 @@
         <v>288086.6242188059</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,20 +1916,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2062,20 +1953,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2102,20 +1990,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,20 +2027,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2182,20 +2064,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2220,22 +2099,19 @@
         <v>335126.6136188059</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2262,20 +2138,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,20 +2175,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,20 +2212,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,20 +2249,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,20 +2286,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2460,22 +2321,19 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,20 +2360,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2540,22 +2395,19 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2580,22 +2432,19 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2620,22 +2469,19 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2660,22 +2506,19 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2702,20 +2545,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2742,20 +2582,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2780,22 +2617,19 @@
         <v>308719.140318806</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,20 +2656,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2862,20 +2693,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,20 +2730,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,20 +2767,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,20 +2804,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,20 +2841,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3062,20 +2878,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3102,20 +2915,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3142,20 +2952,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3182,20 +2989,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3222,20 +3026,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,20 +3063,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3302,20 +3100,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3342,20 +3137,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,20 +3174,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3422,20 +3211,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,20 +3248,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,20 +3285,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3542,20 +3322,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,20 +3359,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,18 +3396,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3660,16 +3433,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3694,18 +3468,17 @@
         <v>396587.133718806</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3730,18 +3503,15 @@
         <v>396587.133718806</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3766,18 +3536,15 @@
         <v>398196.388218806</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3802,18 +3569,15 @@
         <v>398206.388218806</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3838,18 +3602,15 @@
         <v>393576.946718806</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3874,18 +3635,15 @@
         <v>393586.946718806</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3910,18 +3668,15 @@
         <v>405505.646718806</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3946,18 +3701,15 @@
         <v>405004.245518806</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3982,18 +3734,15 @@
         <v>405004.245518806</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4018,18 +3767,15 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4054,18 +3800,15 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4090,18 +3833,15 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4126,18 +3866,15 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4162,18 +3899,15 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4198,18 +3932,15 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4234,18 +3965,15 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4270,18 +3998,15 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4306,18 +4031,15 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4344,16 +4066,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4380,16 +4099,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4416,16 +4132,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4452,16 +4165,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4488,16 +4198,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4524,16 +4231,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4560,16 +4264,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4596,16 +4297,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4632,16 +4330,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4668,16 +4363,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4704,16 +4396,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4740,16 +4429,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4776,16 +4462,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4812,16 +4495,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4848,16 +4528,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4884,16 +4561,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4920,16 +4594,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4956,16 +4627,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4992,16 +4660,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5028,16 +4693,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5064,16 +4726,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5100,16 +4759,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5136,16 +4792,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5172,16 +4825,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5208,16 +4858,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5244,16 +4891,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5280,16 +4924,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5316,16 +4957,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5352,16 +4990,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5388,16 +5023,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5424,16 +5056,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5460,16 +5089,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5496,16 +5122,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5532,16 +5155,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5568,16 +5188,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,16 +5221,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5640,16 +5254,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5676,16 +5287,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5712,16 +5320,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5748,16 +5353,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5784,16 +5386,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5820,16 +5419,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5856,16 +5452,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5892,16 +5485,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5928,16 +5518,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5964,16 +5551,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6000,16 +5584,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6036,16 +5617,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6072,16 +5650,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6108,16 +5683,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6144,16 +5716,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6180,16 +5749,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6216,16 +5782,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6252,16 +5815,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6288,16 +5848,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6324,16 +5881,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6360,16 +5914,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6396,16 +5947,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6432,16 +5980,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6468,16 +6013,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6504,16 +6046,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6540,16 +6079,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6576,16 +6112,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6612,16 +6145,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6648,16 +6178,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6684,16 +6211,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6720,16 +6244,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6756,16 +6277,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6792,16 +6310,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6828,16 +6343,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6864,16 +6376,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6900,16 +6409,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6936,16 +6442,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6972,16 +6475,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7008,16 +6508,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7044,16 +6541,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7080,16 +6574,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7116,16 +6607,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7152,16 +6640,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7188,16 +6673,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7224,16 +6706,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7260,16 +6739,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7296,16 +6772,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7332,16 +6805,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7368,16 +6838,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7404,16 +6871,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7440,16 +6904,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7476,16 +6937,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7512,16 +6970,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7548,16 +7003,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7584,16 +7036,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7620,16 +7069,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7656,16 +7102,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7690,18 +7133,15 @@
         <v>285549.4501188063</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7728,16 +7168,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7764,16 +7201,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7800,16 +7234,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7834,18 +7265,15 @@
         <v>277856.2207188063</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7872,16 +7300,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7908,16 +7333,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7944,16 +7366,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7980,16 +7399,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8016,16 +7432,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8052,16 +7465,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8088,16 +7498,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8124,16 +7531,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8160,16 +7564,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8196,18 +7597,15 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>102378.5412</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>106678.5412</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>66.2</v>
@@ -523,7 +523,7 @@
         <v>106678.5412</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66.3</v>
@@ -562,7 +562,7 @@
         <v>164811.8304188059</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66.3</v>
@@ -601,7 +601,7 @@
         <v>172972.8304188059</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>66.59999999999999</v>
@@ -640,11 +640,9 @@
         <v>172972.8304188059</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -864,11 +862,9 @@
         <v>176096.8303188059</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -903,11 +899,9 @@
         <v>182220.8423188059</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -942,11 +936,9 @@
         <v>196940.8423188059</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>67.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1166,11 +1158,9 @@
         <v>153477.7712188059</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1205,7 +1195,7 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>66.7</v>
@@ -1244,7 +1234,7 @@
         <v>156667.7712188059</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>66.8</v>
@@ -1283,11 +1273,9 @@
         <v>347567.7626188059</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1581,7 +1569,7 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1618,7 +1606,7 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1692,7 +1680,7 @@
         <v>286518.1160188059</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1877,7 +1865,7 @@
         <v>288086.6242188059</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2099,7 +2087,7 @@
         <v>335126.6136188059</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2321,7 +2309,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2395,7 +2383,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2432,7 +2420,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2469,7 +2457,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2506,7 +2494,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2617,7 +2605,7 @@
         <v>308719.140318806</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3468,16 +3456,18 @@
         <v>396587.133718806</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3503,11 +3493,15 @@
         <v>396587.133718806</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3530,15 @@
         <v>398196.388218806</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3567,15 @@
         <v>398206.388218806</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3604,15 @@
         <v>393576.946718806</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3641,15 @@
         <v>393586.946718806</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +3678,15 @@
         <v>405505.646718806</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3715,15 @@
         <v>405004.245518806</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3752,15 @@
         <v>405004.245518806</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3789,16 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3800,7 +3824,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3833,7 +3857,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3866,7 +3890,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3899,7 +3923,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3932,7 +3956,7 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3965,7 +3989,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3998,7 +4022,7 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4031,7 +4055,7 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4064,7 +4088,7 @@
         <v>397745.245518806</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4097,7 +4121,7 @@
         <v>401244.524918806</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4130,7 +4154,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4163,7 +4187,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4196,7 +4220,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4229,7 +4253,7 @@
         <v>399125.014618806</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4262,7 +4286,7 @@
         <v>392065.319818806</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4295,7 +4319,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4328,7 +4352,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4361,7 +4385,7 @@
         <v>389307.525018806</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4427,7 +4451,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4691,7 +4715,7 @@
         <v>361338.2532188061</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4724,7 +4748,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4757,7 +4781,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4790,7 +4814,7 @@
         <v>360176.9110188061</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4823,7 +4847,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4856,7 +4880,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4889,7 +4913,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4922,7 +4946,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4955,7 +4979,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4988,7 +5012,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5021,7 +5045,7 @@
         <v>359203.9110188061</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5054,7 +5078,7 @@
         <v>359203.9110188061</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5087,7 +5111,7 @@
         <v>330014.3989188061</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5120,7 +5144,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5153,7 +5177,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5186,7 +5210,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5219,7 +5243,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5252,7 +5276,7 @@
         <v>310173.2730188061</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5285,7 +5309,7 @@
         <v>308086.8456188061</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5318,7 +5342,7 @@
         <v>300441.2621188061</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5351,7 +5375,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5384,7 +5408,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5417,7 +5441,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5450,7 +5474,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5483,7 +5507,7 @@
         <v>305799.5931188061</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5516,7 +5540,7 @@
         <v>303799.5931188061</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -7133,7 +7157,7 @@
         <v>285549.4501188063</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7265,7 +7289,7 @@
         <v>277856.2207188063</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7606,6 +7630,6 @@
       <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>102378.5412</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -601,11 +601,9 @@
         <v>172972.8304188059</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -1195,11 +1193,9 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1234,11 +1230,9 @@
         <v>156667.7712188059</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>66.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -2198,18 +2192,16 @@
         <v>323493.263618806</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2235,15 +2227,11 @@
         <v>314607.263618806</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2272,15 +2260,11 @@
         <v>315457.263618806</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2309,15 +2293,11 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2346,15 +2326,11 @@
         <v>315457.263618806</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2383,15 +2359,11 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2420,15 +2392,11 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2457,15 +2425,11 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2458,11 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2531,15 +2491,11 @@
         <v>305801.891518806</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2528,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2561,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2646,11 +2594,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2627,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2720,11 +2660,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2757,11 +2693,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2726,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +2759,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2792,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2825,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2858,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +2891,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2924,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2957,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2990,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3023,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +3056,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,11 +3089,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,11 +3122,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3155,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3188,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3349,11 +3221,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3254,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3287,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3320,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3497,11 +3353,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3534,11 +3386,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3419,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3452,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3645,11 +3485,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3518,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3551,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3584,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3789,16 +3613,14 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3824,7 +3646,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3857,7 +3679,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3890,7 +3712,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3923,7 +3745,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3956,7 +3778,7 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3989,7 +3811,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4022,7 +3844,7 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4055,7 +3877,7 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4088,7 +3910,7 @@
         <v>397745.245518806</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4121,7 +3943,7 @@
         <v>401244.524918806</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4154,7 +3976,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4187,7 +4009,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4220,7 +4042,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4253,7 +4075,7 @@
         <v>399125.014618806</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4286,7 +4108,7 @@
         <v>392065.319818806</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4319,7 +4141,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4352,7 +4174,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4385,7 +4207,7 @@
         <v>389307.525018806</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4451,7 +4273,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4715,7 +4537,7 @@
         <v>361338.2532188061</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4748,7 +4570,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4781,7 +4603,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4814,7 +4636,7 @@
         <v>360176.9110188061</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4847,7 +4669,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4880,7 +4702,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4913,7 +4735,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4946,7 +4768,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4979,7 +4801,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5012,7 +4834,7 @@
         <v>359983.9110188061</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5045,7 +4867,7 @@
         <v>359203.9110188061</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5078,7 +4900,7 @@
         <v>359203.9110188061</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5111,7 +4933,7 @@
         <v>330014.3989188061</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5144,7 +4966,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5177,7 +4999,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5210,7 +5032,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5243,7 +5065,7 @@
         <v>298763.2730188061</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5276,7 +5098,7 @@
         <v>310173.2730188061</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5309,7 +5131,7 @@
         <v>308086.8456188061</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5342,7 +5164,7 @@
         <v>300441.2621188061</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5375,7 +5197,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5408,7 +5230,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5441,7 +5263,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5474,7 +5296,7 @@
         <v>300210.4501188062</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5507,7 +5329,7 @@
         <v>305799.5931188061</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5540,7 +5362,7 @@
         <v>303799.5931188061</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6101,10 +5923,14 @@
         <v>259312.9313188062</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>65.7</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
@@ -6134,11 +5960,19 @@
         <v>265098.8376188062</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J163" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +6001,19 @@
         <v>270408.8376188062</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="J164" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7421,7 +7263,7 @@
         <v>273186.3334188063</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7454,7 +7296,7 @@
         <v>93899.19571880632</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7487,7 +7329,7 @@
         <v>94768.19571880632</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7630,6 +7472,6 @@
       <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>102378.5412</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1193,9 +1193,11 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66.7</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -2192,16 +2194,18 @@
         <v>323493.263618806</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2227,11 +2231,15 @@
         <v>314607.263618806</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2268,15 @@
         <v>315457.263618806</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2305,15 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2342,15 @@
         <v>315457.263618806</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2379,15 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2416,15 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2453,15 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2458,11 +2490,15 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2491,11 +2527,15 @@
         <v>305801.891518806</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2528,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2561,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2594,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2627,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2660,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2693,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2726,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2759,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2792,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2825,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2858,7 +2938,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2891,7 +2975,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2924,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2957,7 +3049,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2990,7 +3086,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3023,7 +3123,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3056,7 +3160,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3089,7 +3197,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3122,7 +3234,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3155,7 +3271,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3308,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3221,7 +3345,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3250,14 +3378,16 @@
         <v>397853.605818806</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3283,7 +3413,7 @@
         <v>397793.850118806</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3316,7 +3446,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3349,7 +3479,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3382,7 +3512,7 @@
         <v>398196.388218806</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3415,7 +3545,7 @@
         <v>398206.388218806</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3448,7 +3578,7 @@
         <v>393576.946718806</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3481,7 +3611,7 @@
         <v>393586.946718806</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3514,7 +3644,7 @@
         <v>405505.646718806</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3547,7 +3677,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3580,7 +3710,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3613,7 +3743,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3646,7 +3776,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3679,7 +3809,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3712,7 +3842,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3745,7 +3875,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3778,7 +3908,7 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3811,7 +3941,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3844,7 +3974,7 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3877,7 +4007,7 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3910,7 +4040,7 @@
         <v>397745.245518806</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3943,7 +4073,7 @@
         <v>401244.524918806</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3976,7 +4106,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4009,7 +4139,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4042,7 +4172,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4075,7 +4205,7 @@
         <v>399125.014618806</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4108,7 +4238,7 @@
         <v>392065.319818806</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4141,7 +4271,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4174,7 +4304,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4207,7 +4337,7 @@
         <v>389307.525018806</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4240,7 +4370,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4273,7 +4403,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4306,7 +4436,7 @@
         <v>376923.061018806</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4339,7 +4469,7 @@
         <v>377128.068518806</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4372,7 +4502,7 @@
         <v>376918.593018806</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4405,7 +4535,7 @@
         <v>377025.394718806</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4438,7 +4568,7 @@
         <v>361050.594918806</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4471,7 +4601,7 @@
         <v>359784.115718806</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4603,7 +4733,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4636,7 +4766,7 @@
         <v>360176.9110188061</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5923,14 +6053,10 @@
         <v>259312.9313188062</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>65.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
@@ -5960,19 +6086,11 @@
         <v>265098.8376188062</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6001,19 +6119,11 @@
         <v>270408.8376188062</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J164" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7263,7 +7373,7 @@
         <v>273186.3334188063</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7296,7 +7406,7 @@
         <v>93899.19571880632</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7329,7 +7439,7 @@
         <v>94768.19571880632</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9840</v>
       </c>
       <c r="G2" t="n">
-        <v>102378.5412</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>4300</v>
       </c>
       <c r="G3" t="n">
-        <v>106678.5412</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>2849.0429</v>
       </c>
       <c r="G4" t="n">
-        <v>106678.5412</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>58133.28921880597</v>
       </c>
       <c r="G5" t="n">
-        <v>164811.8304188059</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +563,15 @@
         <v>8161</v>
       </c>
       <c r="G6" t="n">
-        <v>172972.8304188059</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +593,15 @@
         <v>2163</v>
       </c>
       <c r="G7" t="n">
-        <v>172972.8304188059</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +623,15 @@
         <v>1173</v>
       </c>
       <c r="G8" t="n">
-        <v>172972.8304188059</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +653,15 @@
         <v>14082.6779</v>
       </c>
       <c r="G9" t="n">
-        <v>172972.8304188059</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +683,15 @@
         <v>1413.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>174386.8303188059</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +713,15 @@
         <v>2420</v>
       </c>
       <c r="G11" t="n">
-        <v>174386.8303188059</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +743,15 @@
         <v>6.2501</v>
       </c>
       <c r="G12" t="n">
-        <v>174386.8303188059</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +773,15 @@
         <v>1710</v>
       </c>
       <c r="G13" t="n">
-        <v>176096.8303188059</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +803,15 @@
         <v>6124.012</v>
       </c>
       <c r="G14" t="n">
-        <v>182220.8423188059</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +833,15 @@
         <v>14720</v>
       </c>
       <c r="G15" t="n">
-        <v>196940.8423188059</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +863,15 @@
         <v>28461.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>168478.8424188059</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +893,15 @@
         <v>5370</v>
       </c>
       <c r="G17" t="n">
-        <v>173848.8424188059</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +923,15 @@
         <v>25050</v>
       </c>
       <c r="G18" t="n">
-        <v>148798.8424188059</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,22 +953,15 @@
         <v>835</v>
       </c>
       <c r="G19" t="n">
-        <v>147963.8424188059</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +983,15 @@
         <v>1201.9401</v>
       </c>
       <c r="G20" t="n">
-        <v>146761.9023188059</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1013,15 @@
         <v>6715.8689</v>
       </c>
       <c r="G21" t="n">
-        <v>153477.7712188059</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,24 +1043,15 @@
         <v>3180</v>
       </c>
       <c r="G22" t="n">
-        <v>156657.7712188059</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1229,22 +1073,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>156667.7712188059</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,22 +1103,15 @@
         <v>190899.9914</v>
       </c>
       <c r="G24" t="n">
-        <v>347567.7626188059</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1303,22 +1133,15 @@
         <v>7788</v>
       </c>
       <c r="G25" t="n">
-        <v>339779.7626188059</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,22 +1163,15 @@
         <v>2650</v>
       </c>
       <c r="G26" t="n">
-        <v>337129.7626188059</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1377,22 +1193,15 @@
         <v>12608.918</v>
       </c>
       <c r="G27" t="n">
-        <v>324520.8446188059</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,22 +1223,15 @@
         <v>5480</v>
       </c>
       <c r="G28" t="n">
-        <v>324520.8446188059</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1451,22 +1253,15 @@
         <v>1439.616</v>
       </c>
       <c r="G29" t="n">
-        <v>323081.2286188059</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1488,22 +1283,15 @@
         <v>10218</v>
       </c>
       <c r="G30" t="n">
-        <v>312863.2286188059</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1525,22 +1313,15 @@
         <v>1262.9804</v>
       </c>
       <c r="G31" t="n">
-        <v>311600.2482188059</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,22 +1343,15 @@
         <v>25082.1322</v>
       </c>
       <c r="G32" t="n">
-        <v>286518.1160188059</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1599,22 +1373,15 @@
         <v>14083.6112</v>
       </c>
       <c r="G33" t="n">
-        <v>286518.1160188059</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,22 +1403,15 @@
         <v>36097.9001</v>
       </c>
       <c r="G34" t="n">
-        <v>286518.1160188059</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1673,22 +1433,15 @@
         <v>457</v>
       </c>
       <c r="G35" t="n">
-        <v>286518.1160188059</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1710,22 +1463,15 @@
         <v>2610.8431</v>
       </c>
       <c r="G36" t="n">
-        <v>286518.1160188059</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1747,22 +1493,15 @@
         <v>9591</v>
       </c>
       <c r="G37" t="n">
-        <v>296109.1160188059</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1784,22 +1523,15 @@
         <v>879.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>295229.1161188059</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1821,22 +1553,15 @@
         <v>7949.9877</v>
       </c>
       <c r="G39" t="n">
-        <v>287279.128418806</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,22 +1583,15 @@
         <v>807.4958</v>
       </c>
       <c r="G40" t="n">
-        <v>288086.6242188059</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1895,22 +1613,15 @@
         <v>564.2057</v>
       </c>
       <c r="G41" t="n">
-        <v>288086.6242188059</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1932,22 +1643,15 @@
         <v>522.6112000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>287564.0130188059</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1969,22 +1673,15 @@
         <v>31762.6006</v>
       </c>
       <c r="G43" t="n">
-        <v>319326.6136188059</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,22 +1703,15 @@
         <v>17680</v>
       </c>
       <c r="G44" t="n">
-        <v>337006.6136188059</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2043,22 +1733,15 @@
         <v>15857.6369</v>
       </c>
       <c r="G45" t="n">
-        <v>337006.6136188059</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2080,22 +1763,15 @@
         <v>1880</v>
       </c>
       <c r="G46" t="n">
-        <v>335126.6136188059</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2117,22 +1793,15 @@
         <v>153.3639</v>
       </c>
       <c r="G47" t="n">
-        <v>335126.6136188059</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2154,22 +1823,15 @@
         <v>4891.35</v>
       </c>
       <c r="G48" t="n">
-        <v>330235.263618806</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2191,22 +1853,15 @@
         <v>6742</v>
       </c>
       <c r="G49" t="n">
-        <v>323493.263618806</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2228,22 +1883,15 @@
         <v>8886</v>
       </c>
       <c r="G50" t="n">
-        <v>314607.263618806</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2265,22 +1913,15 @@
         <v>850</v>
       </c>
       <c r="G51" t="n">
-        <v>315457.263618806</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2302,22 +1943,15 @@
         <v>9830</v>
       </c>
       <c r="G52" t="n">
-        <v>315457.263618806</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2339,22 +1973,15 @@
         <v>2180</v>
       </c>
       <c r="G53" t="n">
-        <v>315457.263618806</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2376,22 +2003,15 @@
         <v>1800.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>313656.263718806</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2413,22 +2033,15 @@
         <v>4284.8791</v>
       </c>
       <c r="G55" t="n">
-        <v>313656.263718806</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2450,22 +2063,15 @@
         <v>264.3722</v>
       </c>
       <c r="G56" t="n">
-        <v>313391.891518806</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2487,22 +2093,15 @@
         <v>4318.3837</v>
       </c>
       <c r="G57" t="n">
-        <v>313391.891518806</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2524,22 +2123,15 @@
         <v>7590</v>
       </c>
       <c r="G58" t="n">
-        <v>305801.891518806</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2561,22 +2153,15 @@
         <v>3750.0686</v>
       </c>
       <c r="G59" t="n">
-        <v>305801.891518806</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2598,22 +2183,15 @@
         <v>2917.2488</v>
       </c>
       <c r="G60" t="n">
-        <v>308719.140318806</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2635,22 +2213,15 @@
         <v>25</v>
       </c>
       <c r="G61" t="n">
-        <v>308694.140318806</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,22 +2243,15 @@
         <v>44.3786</v>
       </c>
       <c r="G62" t="n">
-        <v>308738.518918806</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2709,22 +2273,15 @@
         <v>12522.8306</v>
       </c>
       <c r="G63" t="n">
-        <v>296215.688318806</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,22 +2303,15 @@
         <v>118.0162</v>
       </c>
       <c r="G64" t="n">
-        <v>296215.688318806</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2783,22 +2333,15 @@
         <v>997.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>296215.688318806</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,22 +2363,15 @@
         <v>17149.489</v>
       </c>
       <c r="G66" t="n">
-        <v>296215.688318806</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2857,22 +2393,15 @@
         <v>16383.372</v>
       </c>
       <c r="G67" t="n">
-        <v>279832.316318806</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2894,22 +2423,15 @@
         <v>1423.3475</v>
       </c>
       <c r="G68" t="n">
-        <v>281255.663818806</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2931,22 +2453,15 @@
         <v>14031.9722</v>
       </c>
       <c r="G69" t="n">
-        <v>267223.691618806</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2968,22 +2483,15 @@
         <v>754.0211</v>
       </c>
       <c r="G70" t="n">
-        <v>267223.691618806</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,22 +2513,15 @@
         <v>28547.0217</v>
       </c>
       <c r="G71" t="n">
-        <v>295770.713318806</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3042,22 +2543,15 @@
         <v>7726.005</v>
       </c>
       <c r="G72" t="n">
-        <v>303496.718318806</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3079,22 +2573,15 @@
         <v>27066.3239</v>
       </c>
       <c r="G73" t="n">
-        <v>303496.718318806</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3116,22 +2603,15 @@
         <v>15088.1</v>
       </c>
       <c r="G74" t="n">
-        <v>288408.618318806</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,22 +2633,15 @@
         <v>10090.1616</v>
       </c>
       <c r="G75" t="n">
-        <v>298498.779918806</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3190,22 +2663,15 @@
         <v>369.4085</v>
       </c>
       <c r="G76" t="n">
-        <v>298868.188418806</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3227,22 +2693,15 @@
         <v>10000</v>
       </c>
       <c r="G77" t="n">
-        <v>298868.188418806</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,22 +2723,15 @@
         <v>3130</v>
       </c>
       <c r="G78" t="n">
-        <v>301998.188418806</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3301,22 +2753,15 @@
         <v>9284.5821</v>
       </c>
       <c r="G79" t="n">
-        <v>311282.770518806</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,22 +2783,15 @@
         <v>86460.83530000001</v>
       </c>
       <c r="G80" t="n">
-        <v>397743.605818806</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3375,20 +2813,15 @@
         <v>110</v>
       </c>
       <c r="G81" t="n">
-        <v>397853.605818806</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K81" t="n">
+        <v>1</v>
       </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3410,18 +2843,15 @@
         <v>59.7557</v>
       </c>
       <c r="G82" t="n">
-        <v>397793.850118806</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3443,18 +2873,15 @@
         <v>1206.7164</v>
       </c>
       <c r="G83" t="n">
-        <v>396587.133718806</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3476,18 +2903,15 @@
         <v>9284.5821</v>
       </c>
       <c r="G84" t="n">
-        <v>396587.133718806</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3509,18 +2933,15 @@
         <v>1609.2545</v>
       </c>
       <c r="G85" t="n">
-        <v>398196.388218806</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3542,18 +2963,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>398206.388218806</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3575,18 +2993,15 @@
         <v>4629.4415</v>
       </c>
       <c r="G87" t="n">
-        <v>393576.946718806</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3608,18 +3023,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>393586.946718806</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3641,18 +3053,15 @@
         <v>11918.7</v>
       </c>
       <c r="G89" t="n">
-        <v>405505.646718806</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3674,18 +3083,15 @@
         <v>501.4012</v>
       </c>
       <c r="G90" t="n">
-        <v>405004.245518806</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3707,18 +3113,15 @@
         <v>7948.8811</v>
       </c>
       <c r="G91" t="n">
-        <v>405004.245518806</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3740,18 +3143,15 @@
         <v>7303.9998</v>
       </c>
       <c r="G92" t="n">
-        <v>405004.245518806</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3773,18 +3173,15 @@
         <v>1500</v>
       </c>
       <c r="G93" t="n">
-        <v>403504.245518806</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,18 +3203,15 @@
         <v>69.6063</v>
       </c>
       <c r="G94" t="n">
-        <v>403504.245518806</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3839,18 +3233,15 @@
         <v>133.5903</v>
       </c>
       <c r="G95" t="n">
-        <v>403504.245518806</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3872,18 +3263,15 @@
         <v>1290</v>
       </c>
       <c r="G96" t="n">
-        <v>402214.245518806</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3905,18 +3293,15 @@
         <v>16366.6961</v>
       </c>
       <c r="G97" t="n">
-        <v>418580.941618806</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3938,18 +3323,15 @@
         <v>16366.6961</v>
       </c>
       <c r="G98" t="n">
-        <v>402214.245518806</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3971,18 +3353,15 @@
         <v>8320</v>
       </c>
       <c r="G99" t="n">
-        <v>393894.245518806</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,18 +3383,15 @@
         <v>2223</v>
       </c>
       <c r="G100" t="n">
-        <v>396117.245518806</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4037,18 +3413,15 @@
         <v>1628</v>
       </c>
       <c r="G101" t="n">
-        <v>397745.245518806</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4070,18 +3443,15 @@
         <v>3499.2794</v>
       </c>
       <c r="G102" t="n">
-        <v>401244.524918806</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4103,18 +3473,15 @@
         <v>32616</v>
       </c>
       <c r="G103" t="n">
-        <v>368628.524918806</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4136,18 +3503,15 @@
         <v>8943.999900000001</v>
       </c>
       <c r="G104" t="n">
-        <v>368628.524918806</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4169,18 +3533,15 @@
         <v>35336.4494</v>
       </c>
       <c r="G105" t="n">
-        <v>368628.524918806</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,18 +3563,15 @@
         <v>30496.4897</v>
       </c>
       <c r="G106" t="n">
-        <v>399125.014618806</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4235,18 +3593,15 @@
         <v>7059.6948</v>
       </c>
       <c r="G107" t="n">
-        <v>392065.319818806</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4268,18 +3623,15 @@
         <v>570</v>
       </c>
       <c r="G108" t="n">
-        <v>392635.319818806</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4301,18 +3653,15 @@
         <v>1450</v>
       </c>
       <c r="G109" t="n">
-        <v>392635.319818806</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4334,18 +3683,15 @@
         <v>3327.7948</v>
       </c>
       <c r="G110" t="n">
-        <v>389307.525018806</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4367,18 +3713,15 @@
         <v>12460</v>
       </c>
       <c r="G111" t="n">
-        <v>376847.525018806</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4400,18 +3743,15 @@
         <v>34401</v>
       </c>
       <c r="G112" t="n">
-        <v>376847.525018806</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4433,18 +3773,15 @@
         <v>75.536</v>
       </c>
       <c r="G113" t="n">
-        <v>376923.061018806</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4466,18 +3803,15 @@
         <v>205.0075</v>
       </c>
       <c r="G114" t="n">
-        <v>377128.068518806</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4499,18 +3833,15 @@
         <v>209.4755</v>
       </c>
       <c r="G115" t="n">
-        <v>376918.593018806</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4532,18 +3863,15 @@
         <v>106.8017</v>
       </c>
       <c r="G116" t="n">
-        <v>377025.394718806</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4565,18 +3893,15 @@
         <v>15974.7998</v>
       </c>
       <c r="G117" t="n">
-        <v>361050.594918806</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4598,18 +3923,15 @@
         <v>1266.4792</v>
       </c>
       <c r="G118" t="n">
-        <v>359784.115718806</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4631,18 +3953,15 @@
         <v>18026.999</v>
       </c>
       <c r="G119" t="n">
-        <v>341757.116718806</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4664,18 +3983,15 @@
         <v>19581.1365</v>
       </c>
       <c r="G120" t="n">
-        <v>361338.2532188061</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4697,18 +4013,15 @@
         <v>6348.4171</v>
       </c>
       <c r="G121" t="n">
-        <v>367686.6703188061</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4730,18 +4043,15 @@
         <v>1380</v>
       </c>
       <c r="G122" t="n">
-        <v>367686.6703188061</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4763,18 +4073,15 @@
         <v>7509.7593</v>
       </c>
       <c r="G123" t="n">
-        <v>360176.9110188061</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4796,18 +4103,15 @@
         <v>193</v>
       </c>
       <c r="G124" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4829,18 +4133,15 @@
         <v>36630.601</v>
       </c>
       <c r="G125" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4862,18 +4163,15 @@
         <v>35890.499</v>
       </c>
       <c r="G126" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4895,18 +4193,15 @@
         <v>4510.4774</v>
       </c>
       <c r="G127" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4928,18 +4223,15 @@
         <v>108.0386</v>
       </c>
       <c r="G128" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4961,18 +4253,15 @@
         <v>128.7778</v>
       </c>
       <c r="G129" t="n">
-        <v>359983.9110188061</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4994,18 +4283,15 @@
         <v>780</v>
       </c>
       <c r="G130" t="n">
-        <v>359203.9110188061</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5027,18 +4313,15 @@
         <v>9597.870800000001</v>
       </c>
       <c r="G131" t="n">
-        <v>359203.9110188061</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5060,18 +4343,15 @@
         <v>29189.5121</v>
       </c>
       <c r="G132" t="n">
-        <v>330014.3989188061</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5093,18 +4373,15 @@
         <v>31251.1259</v>
       </c>
       <c r="G133" t="n">
-        <v>298763.2730188061</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5126,18 +4403,15 @@
         <v>2371.5044</v>
       </c>
       <c r="G134" t="n">
-        <v>298763.2730188061</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5159,18 +4433,15 @@
         <v>11664.8538</v>
       </c>
       <c r="G135" t="n">
-        <v>298763.2730188061</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5192,18 +4463,15 @@
         <v>5985.3124</v>
       </c>
       <c r="G136" t="n">
-        <v>298763.2730188061</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5225,18 +4493,15 @@
         <v>11410</v>
       </c>
       <c r="G137" t="n">
-        <v>310173.2730188061</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5258,18 +4523,15 @@
         <v>2086.4274</v>
       </c>
       <c r="G138" t="n">
-        <v>308086.8456188061</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5291,18 +4553,15 @@
         <v>7645.5835</v>
       </c>
       <c r="G139" t="n">
-        <v>300441.2621188061</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5324,18 +4583,15 @@
         <v>230.812</v>
       </c>
       <c r="G140" t="n">
-        <v>300210.4501188062</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5357,18 +4613,15 @@
         <v>1747.9999</v>
       </c>
       <c r="G141" t="n">
-        <v>300210.4501188062</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5390,18 +4643,15 @@
         <v>186.3615</v>
       </c>
       <c r="G142" t="n">
-        <v>300210.4501188062</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5423,18 +4673,15 @@
         <v>1085.8795</v>
       </c>
       <c r="G143" t="n">
-        <v>300210.4501188062</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5456,18 +4703,15 @@
         <v>5589.143</v>
       </c>
       <c r="G144" t="n">
-        <v>305799.5931188061</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5489,18 +4733,15 @@
         <v>2000</v>
       </c>
       <c r="G145" t="n">
-        <v>303799.5931188061</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5522,18 +4763,15 @@
         <v>2389</v>
       </c>
       <c r="G146" t="n">
-        <v>303799.5931188061</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5555,18 +4793,15 @@
         <v>625.9835</v>
       </c>
       <c r="G147" t="n">
-        <v>303173.6096188062</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5588,18 +4823,15 @@
         <v>1677.0169</v>
       </c>
       <c r="G148" t="n">
-        <v>303173.6096188062</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5621,18 +4853,15 @@
         <v>34573.2405</v>
       </c>
       <c r="G149" t="n">
-        <v>303173.6096188062</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5654,18 +4883,15 @@
         <v>2893.3319</v>
       </c>
       <c r="G150" t="n">
-        <v>300280.2777188062</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5687,18 +4913,15 @@
         <v>29426.5457</v>
       </c>
       <c r="G151" t="n">
-        <v>270853.7320188062</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5720,18 +4943,15 @@
         <v>14561.2047</v>
       </c>
       <c r="G152" t="n">
-        <v>270853.7320188062</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5753,18 +4973,15 @@
         <v>9922.9722</v>
       </c>
       <c r="G153" t="n">
-        <v>260930.7598188062</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5786,18 +5003,15 @@
         <v>225.4529</v>
       </c>
       <c r="G154" t="n">
-        <v>260705.3069188062</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5819,18 +5033,15 @@
         <v>15809</v>
       </c>
       <c r="G155" t="n">
-        <v>260705.3069188062</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5852,18 +5063,15 @@
         <v>11880</v>
       </c>
       <c r="G156" t="n">
-        <v>260705.3069188062</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5885,18 +5093,15 @@
         <v>19432.7857</v>
       </c>
       <c r="G157" t="n">
-        <v>260705.3069188062</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5918,18 +5123,15 @@
         <v>10133.6919</v>
       </c>
       <c r="G158" t="n">
-        <v>260705.3069188062</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5951,18 +5153,15 @@
         <v>1457.7259</v>
       </c>
       <c r="G159" t="n">
-        <v>259247.5810188062</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5984,18 +5183,19 @@
         <v>65.3503</v>
       </c>
       <c r="G160" t="n">
-        <v>259312.9313188062</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="I160" t="n">
+        <v>65.5</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6017,18 +5217,23 @@
         <v>109.1922</v>
       </c>
       <c r="G161" t="n">
-        <v>259312.9313188062</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>65.7</v>
+      </c>
+      <c r="I161" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6050,18 +5255,23 @@
         <v>113.1135</v>
       </c>
       <c r="G162" t="n">
-        <v>259312.9313188062</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>65.7</v>
+      </c>
+      <c r="I162" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6083,18 +5293,19 @@
         <v>5785.9063</v>
       </c>
       <c r="G163" t="n">
-        <v>265098.8376188062</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>65.7</v>
+      </c>
+      <c r="I163" t="n">
+        <v>65.7</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6116,18 +5327,23 @@
         <v>5310</v>
       </c>
       <c r="G164" t="n">
-        <v>270408.8376188062</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>65.8</v>
+      </c>
+      <c r="I164" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6149,18 +5365,23 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>270418.8376188062</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6182,18 +5403,15 @@
         <v>2878.5607</v>
       </c>
       <c r="G166" t="n">
-        <v>267540.2769188062</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6215,18 +5433,15 @@
         <v>21000</v>
       </c>
       <c r="G167" t="n">
-        <v>288540.2769188062</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6248,18 +5463,15 @@
         <v>1200</v>
       </c>
       <c r="G168" t="n">
-        <v>289740.2769188062</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6281,18 +5493,15 @@
         <v>400</v>
       </c>
       <c r="G169" t="n">
-        <v>289340.2769188062</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6314,18 +5523,15 @@
         <v>130.3482</v>
       </c>
       <c r="G170" t="n">
-        <v>289209.9287188062</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6347,18 +5553,15 @@
         <v>11870</v>
       </c>
       <c r="G171" t="n">
-        <v>277339.9287188062</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6380,18 +5583,15 @@
         <v>660</v>
       </c>
       <c r="G172" t="n">
-        <v>276679.9287188062</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6413,18 +5613,15 @@
         <v>543.5</v>
       </c>
       <c r="G173" t="n">
-        <v>277223.4287188062</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6446,18 +5643,15 @@
         <v>260.2492</v>
       </c>
       <c r="G174" t="n">
-        <v>277483.6779188062</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6479,18 +5673,15 @@
         <v>915.7728</v>
       </c>
       <c r="G175" t="n">
-        <v>278399.4507188062</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6512,18 +5703,15 @@
         <v>6868</v>
       </c>
       <c r="G176" t="n">
-        <v>278399.4507188062</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6545,18 +5733,15 @@
         <v>448.7893</v>
       </c>
       <c r="G177" t="n">
-        <v>278848.2400188062</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6578,18 +5763,15 @@
         <v>26324.9478</v>
       </c>
       <c r="G178" t="n">
-        <v>278848.2400188062</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6611,18 +5793,15 @@
         <v>5603.7425</v>
       </c>
       <c r="G179" t="n">
-        <v>284451.9825188062</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6644,18 +5823,15 @@
         <v>2150.6064</v>
       </c>
       <c r="G180" t="n">
-        <v>286602.5889188062</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6677,18 +5853,15 @@
         <v>1635.1403</v>
       </c>
       <c r="G181" t="n">
-        <v>288237.7292188062</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6710,18 +5883,15 @@
         <v>110.0951</v>
       </c>
       <c r="G182" t="n">
-        <v>288127.6341188062</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6743,18 +5913,15 @@
         <v>2200</v>
       </c>
       <c r="G183" t="n">
-        <v>290327.6341188062</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6776,18 +5943,15 @@
         <v>4236.8188</v>
       </c>
       <c r="G184" t="n">
-        <v>294564.4529188062</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6809,18 +5973,15 @@
         <v>25652.6806</v>
       </c>
       <c r="G185" t="n">
-        <v>268911.7723188062</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6842,18 +6003,15 @@
         <v>3609.6563</v>
       </c>
       <c r="G186" t="n">
-        <v>265302.1160188062</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6875,18 +6033,15 @@
         <v>19250.5447</v>
       </c>
       <c r="G187" t="n">
-        <v>265302.1160188062</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6908,18 +6063,15 @@
         <v>479.6336</v>
       </c>
       <c r="G188" t="n">
-        <v>265781.7496188062</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6941,18 +6093,15 @@
         <v>15337</v>
       </c>
       <c r="G189" t="n">
-        <v>281118.7496188062</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6974,18 +6123,15 @@
         <v>14970.0598</v>
       </c>
       <c r="G190" t="n">
-        <v>266148.6898188062</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7007,18 +6153,15 @@
         <v>29.2397</v>
       </c>
       <c r="G191" t="n">
-        <v>266119.4501188063</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7040,18 +6183,15 @@
         <v>19430</v>
       </c>
       <c r="G192" t="n">
-        <v>285549.4501188063</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7073,18 +6213,15 @@
         <v>487</v>
       </c>
       <c r="G193" t="n">
-        <v>285549.4501188063</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7106,18 +6243,15 @@
         <v>1254</v>
       </c>
       <c r="G194" t="n">
-        <v>285549.4501188063</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7139,18 +6273,15 @@
         <v>3370</v>
       </c>
       <c r="G195" t="n">
-        <v>285549.4501188063</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7172,18 +6303,15 @@
         <v>15233.1495</v>
       </c>
       <c r="G196" t="n">
-        <v>270316.3006188063</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7205,18 +6333,15 @@
         <v>5711.1747</v>
       </c>
       <c r="G197" t="n">
-        <v>276027.4753188062</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7238,18 +6363,15 @@
         <v>1828.7454</v>
       </c>
       <c r="G198" t="n">
-        <v>277856.2207188063</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7271,18 +6393,15 @@
         <v>4925.9553</v>
       </c>
       <c r="G199" t="n">
-        <v>272930.2654188063</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7304,18 +6423,15 @@
         <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>272730.2654188063</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7337,18 +6453,15 @@
         <v>2930</v>
       </c>
       <c r="G201" t="n">
-        <v>272730.2654188063</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7370,18 +6483,15 @@
         <v>456.068</v>
       </c>
       <c r="G202" t="n">
-        <v>273186.3334188063</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7403,18 +6513,15 @@
         <v>179287.1377</v>
       </c>
       <c r="G203" t="n">
-        <v>93899.19571880632</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7436,18 +6543,15 @@
         <v>869</v>
       </c>
       <c r="G204" t="n">
-        <v>94768.19571880632</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7469,18 +6573,15 @@
         <v>36354</v>
       </c>
       <c r="G205" t="n">
-        <v>131122.1957188063</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7502,18 +6603,15 @@
         <v>5516.1</v>
       </c>
       <c r="G206" t="n">
-        <v>136638.2957188063</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7535,18 +6633,15 @@
         <v>10000</v>
       </c>
       <c r="G207" t="n">
-        <v>126638.2957188063</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7568,18 +6663,15 @@
         <v>10000</v>
       </c>
       <c r="G208" t="n">
-        <v>116638.2957188063</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
